--- a/src/attributions/attributions_saliency_traj_335.xlsx
+++ b/src/attributions/attributions_saliency_traj_335.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.203960735083001e-09</v>
+        <v>2.428280822641682e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>2.080205341314922e-09</v>
+        <v>0.0001170867835753597</v>
       </c>
       <c r="C4" t="n">
-        <v>3.814853499761739e-08</v>
+        <v>1.322217030974571e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>4.190144053950462e-08</v>
+        <v>1.686884206719697e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>2.152476774597289e-08</v>
+        <v>1.885937308543362e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>8.566021847400407e-08</v>
+        <v>0.0001311467058258131</v>
       </c>
       <c r="G4" t="n">
-        <v>5.813150494304864e-08</v>
+        <v>3.955728061555419e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.855456398582646e-08</v>
+        <v>6.100883183535188e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2730193788002e-08</v>
+        <v>8.878991138772108e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>3.80508815567282e-08</v>
+        <v>4.704835373559035e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>8.450835053963601e-08</v>
+        <v>8.850666927173734e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>7.358219988873316e-08</v>
+        <v>4.77833373224712e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>1.776336233660913e-08</v>
+        <v>8.541208444512449e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.124380446526629e-07</v>
+        <v>1.311492269451264e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>9.945172685377202e-09</v>
+        <v>9.722872346173972e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.140815524853679e-08</v>
+        <v>7.882402314862702e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.266247633997409e-08</v>
+        <v>3.361343624419533e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>2.14720188296269e-08</v>
+        <v>2.777756162686273e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>3.647517132776557e-08</v>
+        <v>7.730004654149525e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85042097200494e-08</v>
+        <v>9.91740762401605e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.108170621932913e-08</v>
+        <v>5.300452357914764e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>2.333073290117227e-08</v>
+        <v>1.002134558802936e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>5.306131001248104e-08</v>
+        <v>2.556842446210794e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>4.098760797432988e-08</v>
+        <v>1.312141830567271e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.717154418656719e-08</v>
+        <v>1.060091290128184e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.02126528847657e-08</v>
+        <v>6.309203854470979e-06</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.229085804827946e-09</v>
+        <v>1.011851054499857e-06</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.979720742895097e-08</v>
+        <v>1.102723126678029e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.162943127525523e-09</v>
+        <v>2.263778924316284e-06</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.033421336340325e-08</v>
+        <v>9.253502867068164e-06</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.351175704655816e-08</v>
+        <v>3.126315277768299e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.207793497495004e-08</v>
+        <v>3.254540206398815e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.131045372446351e-08</v>
+        <v>1.576050453877542e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.600594856654425e-08</v>
+        <v>9.447071533941198e-07</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.5520973657176e-09</v>
+        <v>1.000495649350341e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.426653792994784e-09</v>
+        <v>2.833663756973692e-07</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.252151626829345e-08</v>
+        <v>7.914563866506796e-07</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.849607438903945e-09</v>
+        <v>7.592057954752818e-06</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.073926618275436e-08</v>
+        <v>1.698818778095301e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.85617661638571e-08</v>
+        <v>1.335419983661268e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.530667053690649e-08</v>
+        <v>4.723749952972867e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.234618681906113e-09</v>
+        <v>2.552877776906826e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.414612427197426e-08</v>
+        <v>2.083015351672657e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.398289389304864e-08</v>
+        <v>1.63800323207397e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.453687925589975e-08</v>
+        <v>3.461085725575686e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.335960840900043e-08</v>
+        <v>8.291335689136758e-06</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.456071671185782e-08</v>
+        <v>5.055080691818148e-05</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.985752184907597e-08</v>
+        <v>3.385203308425844e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.870653462305199e-08</v>
+        <v>8.68864754011156e-06</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.578326150474822e-08</v>
+        <v>1.14589693112066e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>5.828813343100592e-08</v>
+        <v>3.578631731215864e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>8.325272915499227e-09</v>
+        <v>3.288761945441365e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>4.671716169468709e-08</v>
+        <v>9.136382686847355e-06</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.941414140560482e-09</v>
+        <v>5.287769454298541e-05</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.298267342051076e-08</v>
+        <v>4.483455995796248e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.859046853766813e-08</v>
+        <v>2.332859185116831e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.574696805230815e-08</v>
+        <v>1.452571177651407e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.851422126719626e-08</v>
+        <v>5.903916644456331e-06</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.033421437313109e-08</v>
+        <v>3.023807221325114e-05</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.551578421299382e-08</v>
+        <v>6.05800851189997e-05</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.0437445574496e-08</v>
+        <v>3.009270949405618e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.889865153259507e-08</v>
+        <v>1.78615482582245e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.338940425199553e-08</v>
+        <v>4.013564466731623e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>3.977559259737973e-08</v>
+        <v>3.207853296771646e-06</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.492641121814131e-09</v>
+        <v>1.139162122854032e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.954217765387511e-08</v>
+        <v>2.060682163573802e-06</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.319327758153577e-08</v>
+        <v>4.158080173510825e-06</v>
       </c>
       <c r="BP4" t="n">
-        <v>6.703540122998675e-08</v>
+        <v>1.954094295797404e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.043274438534581e-09</v>
+        <v>1.460092789784539e-06</v>
       </c>
       <c r="BR4" t="n">
-        <v>5.27466692545886e-09</v>
+        <v>1.734872785164043e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>6.229596838380758e-09</v>
+        <v>7.951844054332469e-06</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.780145986174375e-08</v>
+        <v>9.174991646432318e-06</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.379376879384608e-08</v>
+        <v>1.186610552394995e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>3.387782721020471e-09</v>
+        <v>2.956576099677477e-05</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.467878707472892e-08</v>
+        <v>1.884639459603932e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>3.316245766882275e-08</v>
+        <v>9.490992852079216e-06</v>
       </c>
       <c r="BY4" t="n">
-        <v>5.133583869110225e-08</v>
+        <v>2.759526432782877e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>4.313945467515623e-08</v>
+        <v>5.577745469054207e-06</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.265555216178882e-08</v>
+        <v>2.255436584164272e-07</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.03195532119571e-08</v>
+        <v>1.6291282918246e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.571170393788179e-08</v>
+        <v>2.010222669923678e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>9.233794173724164e-09</v>
+        <v>3.101480160694337e-06</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.764767437213322e-08</v>
+        <v>1.512626386102056e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.740440763204788e-09</v>
+        <v>1.18777716124896e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.172199937116147e-08</v>
+        <v>5.103796866023913e-06</v>
       </c>
       <c r="CH4" t="n">
-        <v>7.649684441446425e-09</v>
+        <v>1.050319133355515e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.583908115776467e-08</v>
+        <v>2.379600846325047e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>6.480186165447321e-09</v>
+        <v>7.428572644130327e-06</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.734830767929907e-08</v>
+        <v>1.799894562282134e-07</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.990328790668627e-09</v>
+        <v>1.6009907994885e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.335538613034259e-08</v>
+        <v>1.062617138813948e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>4.573023204557103e-08</v>
+        <v>2.020850297412835e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.292820866500733e-08</v>
+        <v>2.36988635151647e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>3.249564173302133e-08</v>
+        <v>1.544375845696777e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>5.032293515228048e-08</v>
+        <v>8.790410902292933e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.986720559761125e-08</v>
+        <v>4.103372930330806e-07</v>
       </c>
       <c r="CS4" t="n">
-        <v>3.578891849542742e-08</v>
+        <v>8.664692359161563e-06</v>
       </c>
       <c r="CT4" t="n">
-        <v>6.931951901378852e-09</v>
+        <v>2.693942406040151e-06</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.330340371197281e-08</v>
+        <v>3.10347240883857e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>8.550594898792951e-09</v>
+        <v>6.95307335263351e-07</v>
       </c>
       <c r="CW4" t="n">
-        <v>2.201856297290306e-08</v>
+        <v>1.912603875098284e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.070336175246211e-08</v>
+        <v>8.830310434859712e-06</v>
       </c>
       <c r="CY4" t="n">
-        <v>8.05081867838453e-09</v>
+        <v>7.310777164093452e-06</v>
       </c>
       <c r="CZ4" t="n">
-        <v>4.166024858420769e-09</v>
+        <v>1.188399892271264e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.546557548692817e-08</v>
+        <v>2.27551627176581e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>4.282763921281685e-09</v>
+        <v>2.894129920605337e-06</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.889340239813464e-08</v>
+        <v>4.005427399533801e-06</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.700012575156507e-09</v>
+        <v>1.48569106386276e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>3.576065665811257e-08</v>
+        <v>4.0889417505241e-06</v>
       </c>
       <c r="DF4" t="n">
-        <v>4.421423938083535e-08</v>
+        <v>1.465046079829335e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>8.535803175391266e-10</v>
+        <v>9.489270269114058e-06</v>
       </c>
       <c r="DH4" t="n">
-        <v>6.114809991686343e-08</v>
+        <v>3.815905802184716e-05</v>
       </c>
       <c r="DI4" t="n">
-        <v>2.65135486898771e-08</v>
+        <v>1.244605118699837e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>5.791104484842435e-08</v>
+        <v>5.781569416285492e-05</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.02908792598555e-08</v>
+        <v>3.450181247899309e-05</v>
       </c>
       <c r="DL4" t="n">
-        <v>3.608242593600153e-08</v>
+        <v>1.038368463923689e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>2.473703020200446e-08</v>
+        <v>4.881379936705343e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>4.50879555913275e-09</v>
+        <v>1.341480492556002e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>4.879298032278712e-08</v>
+        <v>8.269801583082881e-06</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.841648611389246e-09</v>
+        <v>5.319729098118842e-06</v>
       </c>
       <c r="DQ4" t="n">
-        <v>9.114854648828441e-09</v>
+        <v>1.434322439308744e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>2.033390344990949e-08</v>
+        <v>1.461008105252404e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>5.984713169482347e-08</v>
+        <v>8.707548659003805e-06</v>
       </c>
       <c r="DT4" t="n">
-        <v>6.508483085809758e-09</v>
+        <v>2.481380943208933e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.818493444716296e-08</v>
+        <v>3.526610271364916e-06</v>
       </c>
       <c r="DV4" t="n">
-        <v>2.974180546289062e-08</v>
+        <v>8.593877282692119e-06</v>
       </c>
       <c r="DW4" t="n">
-        <v>9.202622663906368e-09</v>
+        <v>8.97898462426383e-06</v>
       </c>
       <c r="DX4" t="n">
-        <v>4.29118962586017e-11</v>
+        <v>9.917292118188925e-06</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.49547147998419e-08</v>
+        <v>9.439668247068767e-07</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2.739169246979145e-08</v>
+        <v>6.53886991131003e-06</v>
       </c>
       <c r="EA4" t="n">
-        <v>6.724609757924327e-09</v>
+        <v>6.4879145611485e-06</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.433589957855474e-08</v>
+        <v>4.155972419539467e-06</v>
       </c>
       <c r="EC4" t="n">
-        <v>2.974072765837832e-09</v>
+        <v>6.719702923874138e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>5.831066296480003e-09</v>
+        <v>1.328981943515828e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.136375082921859e-08</v>
+        <v>1.37764000101015e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.146943873209239e-08</v>
+        <v>3.382926024642074e-06</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.412715189275104e-08</v>
+        <v>1.207535387948155e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>4.196355707364319e-09</v>
+        <v>4.534099844022421e-06</v>
       </c>
       <c r="EI4" t="n">
-        <v>3.095759382176766e-08</v>
+        <v>2.192437204939779e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.699775336623134e-08</v>
+        <v>1.573255576658994e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>2.487285044594501e-08</v>
+        <v>6.554963874805253e-06</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.277501742753429e-08</v>
+        <v>1.465457535232417e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>2.30900845110682e-08</v>
+        <v>2.722263161558658e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>1.610631095161352e-08</v>
+        <v>5.025490281695966e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>3.971981854533624e-08</v>
+        <v>1.062983210431412e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>2.668518073178916e-09</v>
+        <v>2.716172730288235e-06</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2.62261821148968e-08</v>
+        <v>3.381890110176755e-06</v>
       </c>
       <c r="ER4" t="n">
-        <v>3.302061912791032e-08</v>
+        <v>6.585873961739708e-06</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.518420589263769e-08</v>
+        <v>3.399440902285278e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>3.365710199432215e-08</v>
+        <v>4.536858614301309e-05</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.501480539900513e-08</v>
+        <v>2.035199395322707e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>2.170318369465463e-09</v>
+        <v>1.834849717852194e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.775793911917845e-08</v>
+        <v>2.539905290177558e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>9.961103941691363e-09</v>
+        <v>1.222934429279121e-06</v>
       </c>
       <c r="EY4" t="n">
-        <v>2.774770280211669e-08</v>
+        <v>1.884481389424764e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>7.218261988128916e-09</v>
+        <v>3.395321300558862e-06</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.116933479039517e-08</v>
+        <v>2.315664460184053e-08</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.702314555984685e-08</v>
+        <v>1.54228928295197e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>6.694767851200822e-09</v>
+        <v>1.820214492909145e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.275423877622472e-09</v>
+        <v>1.230138605023967e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>1.397563842431282e-08</v>
+        <v>5.363732270780019e-06</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.302833063654418e-09</v>
+        <v>2.149778811144643e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>6.076215974815113e-09</v>
+        <v>5.491999672813108e-06</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.065702903702004e-08</v>
+        <v>1.115080885938369e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>4.917328766396167e-08</v>
+        <v>8.326011084136553e-06</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1.095999202505027e-08</v>
+        <v>1.716565748210996e-05</v>
       </c>
       <c r="FK4" t="n">
-        <v>9.725806826565986e-09</v>
+        <v>8.020784662221558e-06</v>
       </c>
       <c r="FL4" t="n">
-        <v>4.55200765969721e-10</v>
+        <v>2.063996907963883e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>9.796966571329335e-10</v>
+        <v>7.050195563351735e-06</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.630133539265444e-08</v>
+        <v>1.005619378702249e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>3.011306759503896e-10</v>
+        <v>1.817900192691013e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>3.209788879132702e-09</v>
+        <v>4.430805347510614e-06</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1.177655306605629e-08</v>
+        <v>2.953801413241308e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.930949800055259e-08</v>
+        <v>1.612946107343305e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>2.089413619899005e-08</v>
+        <v>5.671361577697098e-06</v>
       </c>
       <c r="FT4" t="n">
-        <v>2.157405276648205e-08</v>
+        <v>9.65136041486403e-06</v>
       </c>
       <c r="FU4" t="n">
-        <v>1.541960692463817e-08</v>
+        <v>3.819910489255562e-05</v>
       </c>
       <c r="FV4" t="n">
-        <v>7.721090433676636e-09</v>
+        <v>5.985089046589565e-06</v>
       </c>
       <c r="FW4" t="n">
-        <v>2.395783660347206e-08</v>
+        <v>8.862014510668814e-06</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.741439348279528e-08</v>
+        <v>1.911732033477165e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>1.665263127392791e-08</v>
+        <v>1.957056156243198e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1.848656516756364e-08</v>
+        <v>1.903553857118823e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.439920893631097e-08</v>
+        <v>2.971102730953135e-06</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.442779229421376e-08</v>
+        <v>8.622790119261481e-06</v>
       </c>
       <c r="GC4" t="n">
-        <v>1.187326326146376e-08</v>
+        <v>3.175386882503517e-05</v>
       </c>
       <c r="GD4" t="n">
-        <v>6.613416037026809e-09</v>
+        <v>2.621959993120981e-06</v>
       </c>
       <c r="GE4" t="n">
-        <v>1.548917438753961e-09</v>
+        <v>1.037817310134415e-05</v>
       </c>
       <c r="GF4" t="n">
-        <v>5.691328519574768e-10</v>
+        <v>6.19762886344688e-07</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.891380208007831e-08</v>
+        <v>1.333563523076009e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.566119856022397e-08</v>
+        <v>0.0001914820459205657</v>
       </c>
       <c r="B5" t="n">
-        <v>2.148258460010766e-08</v>
+        <v>0.001627280726097524</v>
       </c>
       <c r="C5" t="n">
-        <v>2.02898875478752e-09</v>
+        <v>0.0002019013627432287</v>
       </c>
       <c r="D5" t="n">
-        <v>3.520708702353659e-08</v>
+        <v>0.0008530103368684649</v>
       </c>
       <c r="E5" t="n">
-        <v>2.960371148219565e-08</v>
+        <v>0.001216120086610317</v>
       </c>
       <c r="F5" t="n">
-        <v>1.902840329748301e-09</v>
+        <v>0.0002668938541319221</v>
       </c>
       <c r="G5" t="n">
-        <v>7.685547753766286e-10</v>
+        <v>0.0001789090747479349</v>
       </c>
       <c r="H5" t="n">
-        <v>1.660834492156482e-08</v>
+        <v>0.0001580463867867365</v>
       </c>
       <c r="I5" t="n">
-        <v>1.423868845051857e-08</v>
+        <v>5.481097832671367e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6426413824463e-09</v>
+        <v>0.0001713365782052279</v>
       </c>
       <c r="K5" t="n">
-        <v>7.082313402406726e-09</v>
+        <v>0.001204375294037163</v>
       </c>
       <c r="L5" t="n">
-        <v>3.294013950494445e-09</v>
+        <v>0.0001906197285279632</v>
       </c>
       <c r="M5" t="n">
-        <v>4.364416383850767e-08</v>
+        <v>0.001007039332762361</v>
       </c>
       <c r="N5" t="n">
-        <v>3.564117534438083e-08</v>
+        <v>0.001794825890101492</v>
       </c>
       <c r="O5" t="n">
-        <v>5.084462184612448e-09</v>
+        <v>0.0004873343859799206</v>
       </c>
       <c r="P5" t="n">
-        <v>5.38262545646262e-09</v>
+        <v>6.152156856842339e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.150470652078184e-08</v>
+        <v>0.0001382084155920893</v>
       </c>
       <c r="R5" t="n">
-        <v>1.708067287609083e-08</v>
+        <v>0.0001322308817179874</v>
       </c>
       <c r="S5" t="n">
-        <v>4.126369468337998e-09</v>
+        <v>4.682031431002542e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>3.756937871912669e-09</v>
+        <v>0.0003993017307948321</v>
       </c>
       <c r="U5" t="n">
-        <v>4.099994788120398e-10</v>
+        <v>0.0003465474001131952</v>
       </c>
       <c r="V5" t="n">
-        <v>9.156760683026732e-09</v>
+        <v>1.518757198937237e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.736894716941606e-08</v>
+        <v>4.973064642399549e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>5.111167489246782e-09</v>
+        <v>0.0004796724824700505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.107255442889254e-08</v>
+        <v>0.0002180622395826504</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.865954998464986e-09</v>
+        <v>0.0002551923389546573</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.380257128706489e-09</v>
+        <v>3.696198837133124e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.754251659022657e-09</v>
+        <v>0.0002293994184583426</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.872656470122365e-09</v>
+        <v>0.0001750265364535153</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.301727703406641e-08</v>
+        <v>0.0002165352925658226</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.877644706382853e-08</v>
+        <v>0.0003100172325503081</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.756239598194043e-08</v>
+        <v>0.000425706704845652</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.133112157551523e-09</v>
+        <v>0.0001353107509203255</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.589896571820077e-10</v>
+        <v>3.199798811692744e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.515060713141452e-10</v>
+        <v>0.0001078565401257947</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.778122620838985e-09</v>
+        <v>0.0003226473927497864</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.939920389939289e-09</v>
+        <v>0.0001392423582728952</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.309121168892375e-10</v>
+        <v>0.0001575604837853462</v>
       </c>
       <c r="AM5" t="n">
-        <v>3.867675069102461e-10</v>
+        <v>0.0001389230747008696</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.447529094482206e-10</v>
+        <v>3.271978130214848e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>3.727509856332745e-09</v>
+        <v>0.0005398907233029604</v>
       </c>
       <c r="AP5" t="n">
-        <v>4.672280340400903e-09</v>
+        <v>0.0003044727491214871</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6.060809631946995e-10</v>
+        <v>2.48139986069873e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.36307709353423e-09</v>
+        <v>1.91741855815053e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>3.517560243082585e-09</v>
+        <v>1.652235368965194e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.068978772167384e-08</v>
+        <v>8.585953764850274e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.593978637970395e-08</v>
+        <v>0.001203419174998999</v>
       </c>
       <c r="AV5" t="n">
-        <v>6.381645878406061e-09</v>
+        <v>0.0001421816850779578</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.491218564770747e-09</v>
+        <v>3.119481334579177e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.238885971588388e-08</v>
+        <v>0.000235446059377864</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.436120200537516e-08</v>
+        <v>0.0001331550593022257</v>
       </c>
       <c r="AZ5" t="n">
-        <v>6.2277818457801e-09</v>
+        <v>0.0001222510036313906</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.976612473697514e-08</v>
+        <v>7.663002179469913e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.304072227981123e-08</v>
+        <v>0.0006154995644465089</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.798521331863867e-09</v>
+        <v>0.0003455793485045433</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.572413976802522e-09</v>
+        <v>0.0005839493242092431</v>
       </c>
       <c r="BE5" t="n">
-        <v>3.3831808465834e-09</v>
+        <v>0.0005642019677907228</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.07961869339124e-08</v>
+        <v>0.0004485062090680003</v>
       </c>
       <c r="BG5" t="n">
-        <v>6.970781729620512e-09</v>
+        <v>0.001016792375594378</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.437043677971928e-09</v>
+        <v>0.0007053244044072926</v>
       </c>
       <c r="BI5" t="n">
-        <v>3.655544089653517e-09</v>
+        <v>0.0002935910888481885</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.113996755426228e-10</v>
+        <v>0.0001034944652928971</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.581094366542857e-09</v>
+        <v>0.0003116150910500437</v>
       </c>
       <c r="BL5" t="n">
-        <v>4.721668389606748e-09</v>
+        <v>0.0003521356265991926</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.393883142242203e-08</v>
+        <v>0.0005282220081426203</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.875241711386423e-11</v>
+        <v>0.000359851896064356</v>
       </c>
       <c r="BO5" t="n">
-        <v>6.917471040424061e-09</v>
+        <v>0.000218345521716401</v>
       </c>
       <c r="BP5" t="n">
-        <v>9.289798263978355e-09</v>
+        <v>0.000660174700897187</v>
       </c>
       <c r="BQ5" t="n">
-        <v>5.095837973811967e-09</v>
+        <v>0.000440903240814805</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.284099354625923e-10</v>
+        <v>0.0001066503100446425</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.194866605658262e-08</v>
+        <v>0.0002655800490174443</v>
       </c>
       <c r="BT5" t="n">
-        <v>4.038322565236285e-09</v>
+        <v>0.0002122914011124521</v>
       </c>
       <c r="BU5" t="n">
-        <v>5.882215159402904e-09</v>
+        <v>5.504228101926856e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>3.212289323428763e-10</v>
+        <v>0.0004883118672296405</v>
       </c>
       <c r="BW5" t="n">
-        <v>5.03721464539808e-09</v>
+        <v>8.716870797798038e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>8.73778560617211e-09</v>
+        <v>5.021818287787028e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>5.301802996626748e-09</v>
+        <v>0.0001620606053620577</v>
       </c>
       <c r="BZ5" t="n">
-        <v>7.460637441170093e-09</v>
+        <v>0.0003383551957085729</v>
       </c>
       <c r="CA5" t="n">
-        <v>6.863494217412835e-10</v>
+        <v>4.674604497267865e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>8.392921913014106e-09</v>
+        <v>0.0001570774475112557</v>
       </c>
       <c r="CC5" t="n">
-        <v>7.746469243841148e-09</v>
+        <v>0.0001970894227270037</v>
       </c>
       <c r="CD5" t="n">
-        <v>1.44857326134229e-09</v>
+        <v>4.800509486813098e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>4.685350329936e-09</v>
+        <v>0.0002859067753888667</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.294277212655516e-09</v>
+        <v>2.178471913794056e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>4.890504889942804e-09</v>
+        <v>8.012089529074728e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>8.471412016319846e-09</v>
+        <v>8.259220339823514e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>1.380281000606942e-09</v>
+        <v>4.963318860973231e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>3.389218239391312e-09</v>
+        <v>6.026728078722954e-05</v>
       </c>
       <c r="CK5" t="n">
-        <v>5.039359596281656e-09</v>
+        <v>2.157170092687011e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>4.907565021028404e-09</v>
+        <v>0.0002268355747219175</v>
       </c>
       <c r="CM5" t="n">
-        <v>2.665497378373516e-09</v>
+        <v>0.00042357636266388</v>
       </c>
       <c r="CN5" t="n">
-        <v>1.614655853465763e-09</v>
+        <v>0.0004176095826551318</v>
       </c>
       <c r="CO5" t="n">
-        <v>7.894827014354178e-09</v>
+        <v>8.509986946592107e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.042718622557004e-08</v>
+        <v>0.0003150765551254153</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.26816734891122e-09</v>
+        <v>0.0005272022099234164</v>
       </c>
       <c r="CR5" t="n">
-        <v>1.28425092782436e-08</v>
+        <v>1.985463313758373e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.171804986377367e-09</v>
+        <v>2.990540815517306e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.591575259420665e-09</v>
+        <v>0.0002835852210409939</v>
       </c>
       <c r="CU5" t="n">
-        <v>3.800556536148747e-10</v>
+        <v>0.0001784550113370642</v>
       </c>
       <c r="CV5" t="n">
-        <v>1.600715560101662e-09</v>
+        <v>2.58275158557808e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>7.935547330362169e-09</v>
+        <v>0.000218614746700041</v>
       </c>
       <c r="CX5" t="n">
-        <v>1.163562024508735e-09</v>
+        <v>0.0001121803143178113</v>
       </c>
       <c r="CY5" t="n">
-        <v>4.24800594700514e-09</v>
+        <v>7.816439756425098e-05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>5.680784287420693e-09</v>
+        <v>5.343393786461093e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.088121481807036e-09</v>
+        <v>2.866628892661538e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.822321182842757e-09</v>
+        <v>4.111437010578811e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>2.21660556576353e-09</v>
+        <v>5.810954462504014e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>3.398676895471908e-09</v>
+        <v>0.0001256202667718753</v>
       </c>
       <c r="DE5" t="n">
-        <v>6.780831451891345e-09</v>
+        <v>0.000141954340506345</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.905995894446733e-08</v>
+        <v>0.0004777805297635496</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.579708808208125e-09</v>
+        <v>0.0003647499834187329</v>
       </c>
       <c r="DH5" t="n">
-        <v>3.806619908175435e-09</v>
+        <v>0.0006163448560982943</v>
       </c>
       <c r="DI5" t="n">
-        <v>5.824680293642359e-09</v>
+        <v>0.0005641033058054745</v>
       </c>
       <c r="DJ5" t="n">
-        <v>5.111299827831317e-09</v>
+        <v>0.0003420111024752259</v>
       </c>
       <c r="DK5" t="n">
-        <v>8.53792148092225e-10</v>
+        <v>5.262464765110053e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.529870807814859e-08</v>
+        <v>0.0002624563639983535</v>
       </c>
       <c r="DM5" t="n">
-        <v>3.640743484467635e-09</v>
+        <v>8.836776396492496e-05</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.320993869846632e-09</v>
+        <v>1.993431214941666e-05</v>
       </c>
       <c r="DO5" t="n">
-        <v>9.697309621969907e-11</v>
+        <v>0.0001613434869796038</v>
       </c>
       <c r="DP5" t="n">
-        <v>3.426143369011925e-09</v>
+        <v>0.0001292033848585561</v>
       </c>
       <c r="DQ5" t="n">
-        <v>6.351134729243313e-09</v>
+        <v>4.609839379554614e-05</v>
       </c>
       <c r="DR5" t="n">
-        <v>3.962020933556687e-09</v>
+        <v>8.056929800659418e-06</v>
       </c>
       <c r="DS5" t="n">
-        <v>9.438405612627321e-09</v>
+        <v>3.612637374317273e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.993816471454693e-09</v>
+        <v>0.000279670231975615</v>
       </c>
       <c r="DU5" t="n">
-        <v>7.178514227490496e-09</v>
+        <v>8.638062718091533e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>9.736167427831788e-11</v>
+        <v>0.0004436842864379287</v>
       </c>
       <c r="DW5" t="n">
-        <v>9.618129626076666e-10</v>
+        <v>5.370288999984041e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>8.903754178390955e-09</v>
+        <v>0.0001857442402979359</v>
       </c>
       <c r="DY5" t="n">
-        <v>3.754927480059678e-09</v>
+        <v>2.701702578633558e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>8.298064457790133e-09</v>
+        <v>5.375088221626356e-06</v>
       </c>
       <c r="EA5" t="n">
-        <v>6.594246926283631e-09</v>
+        <v>0.0001129970405600034</v>
       </c>
       <c r="EB5" t="n">
-        <v>4.423184929436275e-09</v>
+        <v>0.0004321959859225899</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.585858999675338e-09</v>
+        <v>7.914264278952032e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>4.7772559241821e-09</v>
+        <v>9.285073610953987e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>1.637095459194882e-09</v>
+        <v>7.508269482059404e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>2.625998085648007e-09</v>
+        <v>6.641018990194425e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>4.145195298121962e-11</v>
+        <v>0.0002738913462962955</v>
       </c>
       <c r="EH5" t="n">
-        <v>1.623311041143438e-09</v>
+        <v>3.849381027976051e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>6.899417037686817e-09</v>
+        <v>0.0001968011347344145</v>
       </c>
       <c r="EJ5" t="n">
-        <v>4.297252775842253e-09</v>
+        <v>0.0003107090014964342</v>
       </c>
       <c r="EK5" t="n">
-        <v>3.275076432274204e-09</v>
+        <v>4.102178718312643e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>2.794121822802254e-09</v>
+        <v>0.0002746601821854711</v>
       </c>
       <c r="EM5" t="n">
-        <v>5.45518918926291e-09</v>
+        <v>4.033079676446505e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>2.02790761960614e-09</v>
+        <v>0.0001263587910216302</v>
       </c>
       <c r="EO5" t="n">
-        <v>2.051515402001769e-09</v>
+        <v>0.0001251343201147392</v>
       </c>
       <c r="EP5" t="n">
-        <v>6.530594287568192e-09</v>
+        <v>0.000235119805438444</v>
       </c>
       <c r="EQ5" t="n">
-        <v>8.632011549991603e-09</v>
+        <v>8.295826410176232e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>4.990732271892284e-09</v>
+        <v>3.351311897858977e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>7.672734447794483e-09</v>
+        <v>1.1624870239757e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>3.680086235746671e-09</v>
+        <v>0.000175195891642943</v>
       </c>
       <c r="EU5" t="n">
-        <v>1.986862008251933e-09</v>
+        <v>6.971429684199393e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>4.989657131915237e-09</v>
+        <v>0.00020979082910344</v>
       </c>
       <c r="EW5" t="n">
-        <v>1.410629724141188e-09</v>
+        <v>0.0001781574101187289</v>
       </c>
       <c r="EX5" t="n">
-        <v>1.810376737410024e-09</v>
+        <v>0.0001156743674073368</v>
       </c>
       <c r="EY5" t="n">
-        <v>6.48024878202591e-09</v>
+        <v>0.0002681650221347809</v>
       </c>
       <c r="EZ5" t="n">
-        <v>7.205196439485917e-10</v>
+        <v>1.747580427036155e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>2.960475642410643e-09</v>
+        <v>7.792017277097329e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>9.457593819206522e-09</v>
+        <v>0.0001685984170762822</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.126422066732857e-09</v>
+        <v>9.623816004022956e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>1.589401721346917e-09</v>
+        <v>3.489554728730582e-06</v>
       </c>
       <c r="FE5" t="n">
-        <v>4.030290767786937e-09</v>
+        <v>4.827892189496197e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>3.614408328189711e-09</v>
+        <v>0.0001015256202663295</v>
       </c>
       <c r="FG5" t="n">
-        <v>2.548698363469271e-09</v>
+        <v>0.0001195014920085669</v>
       </c>
       <c r="FH5" t="n">
-        <v>1.648391312336628e-09</v>
+        <v>0.0002656157885212451</v>
       </c>
       <c r="FI5" t="n">
-        <v>8.880807200739582e-09</v>
+        <v>0.0001615963119547814</v>
       </c>
       <c r="FJ5" t="n">
-        <v>2.564843004648765e-09</v>
+        <v>7.432666461681947e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>6.405547203769402e-10</v>
+        <v>8.761427307035774e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>1.225404844262812e-08</v>
+        <v>0.0002759471535682678</v>
       </c>
       <c r="FM5" t="n">
-        <v>3.481657628867652e-09</v>
+        <v>6.415329698938876e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>2.922088349066598e-09</v>
+        <v>0.0001200759725179523</v>
       </c>
       <c r="FO5" t="n">
-        <v>1.337640220810954e-08</v>
+        <v>5.428133590612561e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>8.54070769662485e-09</v>
+        <v>0.0001678037078818306</v>
       </c>
       <c r="FQ5" t="n">
-        <v>1.580112396482036e-08</v>
+        <v>0.0001113203688873909</v>
       </c>
       <c r="FR5" t="n">
-        <v>3.233159961979482e-09</v>
+        <v>0.0003685253323055804</v>
       </c>
       <c r="FS5" t="n">
-        <v>1.256276505046117e-08</v>
+        <v>0.0001557865762151778</v>
       </c>
       <c r="FT5" t="n">
-        <v>2.002005317081057e-08</v>
+        <v>0.0004351922543719411</v>
       </c>
       <c r="FU5" t="n">
-        <v>5.84470116749003e-09</v>
+        <v>0.000244800845393911</v>
       </c>
       <c r="FV5" t="n">
-        <v>3.693630956647098e-09</v>
+        <v>1.214949588757008e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>6.392095741603043e-09</v>
+        <v>0.0003319463576190174</v>
       </c>
       <c r="FX5" t="n">
-        <v>1.232479807100617e-08</v>
+        <v>4.789784725289792e-06</v>
       </c>
       <c r="FY5" t="n">
-        <v>1.813213801327151e-09</v>
+        <v>0.0001515939220553264</v>
       </c>
       <c r="FZ5" t="n">
-        <v>3.274385651508283e-09</v>
+        <v>0.0001373176492052153</v>
       </c>
       <c r="GA5" t="n">
-        <v>6.541687191941037e-09</v>
+        <v>0.0002680514007806778</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.301663132835529e-08</v>
+        <v>0.0001716300321277231</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.158900708730926e-08</v>
+        <v>0.0004977715434506536</v>
       </c>
       <c r="GD5" t="n">
-        <v>6.142734321201715e-09</v>
+        <v>0.0002751218271441758</v>
       </c>
       <c r="GE5" t="n">
-        <v>3.032257778201597e-09</v>
+        <v>0.0001604292192496359</v>
       </c>
       <c r="GF5" t="n">
-        <v>6.209436520521194e-09</v>
+        <v>0.0003044873010367155</v>
       </c>
       <c r="GG5" t="n">
-        <v>8.824970976206714e-09</v>
+        <v>0.0003427399205975235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.9065261171322e-15</v>
+        <v>4.447089668246917e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>1.64852601513242e-14</v>
+        <v>5.210983727010898e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>4.51601545059261e-14</v>
+        <v>1.893171247502323e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>8.554690565957743e-14</v>
+        <v>4.795168933924288e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>1.467113648449814e-13</v>
+        <v>0.0001397155574522913</v>
       </c>
       <c r="F6" t="n">
-        <v>1.746308684409583e-14</v>
+        <v>0.0001334482803940773</v>
       </c>
       <c r="G6" t="n">
-        <v>7.389989092670621e-14</v>
+        <v>5.94888006162364e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.642090749470621e-14</v>
+        <v>5.324052108335309e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.949577413709347e-14</v>
+        <v>0.0001405593211529776</v>
       </c>
       <c r="J6" t="n">
-        <v>2.934771295339672e-14</v>
+        <v>6.219393253559247e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>6.173895758781328e-14</v>
+        <v>0.0001120076994993724</v>
       </c>
       <c r="L6" t="n">
-        <v>6.42832887073029e-14</v>
+        <v>2.310299896635115e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>3.584582446407997e-14</v>
+        <v>1.025950041366741e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.771080127855375e-14</v>
+        <v>0.0001728389033814892</v>
       </c>
       <c r="O6" t="n">
-        <v>6.221137835568311e-14</v>
+        <v>0.0001203066422021948</v>
       </c>
       <c r="P6" t="n">
-        <v>6.180774343939391e-14</v>
+        <v>4.253444785717875e-06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.057002114958003e-13</v>
+        <v>1.192822310258634e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.02871087570653e-13</v>
+        <v>5.002553371014073e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.220960300500921e-14</v>
+        <v>3.444507092353888e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>4.627441787770966e-15</v>
+        <v>3.647675839602016e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>5.624088027971277e-14</v>
+        <v>5.267698725219816e-06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.547806682627127e-14</v>
+        <v>5.19429704581853e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.132609495557366e-13</v>
+        <v>4.778707807417959e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>1.110747549777744e-15</v>
+        <v>4.58174072264228e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.276696812102783e-14</v>
+        <v>2.383212085987907e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.45448323281076e-14</v>
+        <v>1.534408147563227e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.482775371740169e-14</v>
+        <v>5.683285053237341e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.258386027758879e-14</v>
+        <v>1.838268417486688e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.828518208848317e-15</v>
+        <v>9.163801587419584e-05</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.152768116764694e-15</v>
+        <v>7.137123611755669e-05</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.399760178581957e-14</v>
+        <v>3.295086935395375e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.826007807695904e-14</v>
+        <v>0.0001472679723519832</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.082265855168081e-15</v>
+        <v>0.0001252393703907728</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.887830388372073e-14</v>
+        <v>9.537221922073513e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.316418877739052e-14</v>
+        <v>5.409805817180313e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.867808276209866e-14</v>
+        <v>8.693995187059045e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.455307617920018e-14</v>
+        <v>2.034304998232983e-05</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.035789712140286e-15</v>
+        <v>3.631171057350002e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.48559482315673e-14</v>
+        <v>1.155231166194426e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.6723235049988e-14</v>
+        <v>7.856268348405138e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.254723065836782e-14</v>
+        <v>5.573408270720392e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.328542004738325e-14</v>
+        <v>1.351208175037755e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.534428305445014e-14</v>
+        <v>5.401923044701107e-05</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.817986984098494e-14</v>
+        <v>4.172891931375489e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>9.874933715788708e-15</v>
+        <v>1.507111301179975e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>5.291032979044992e-14</v>
+        <v>2.004690941248555e-05</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.776760599419522e-14</v>
+        <v>3.96885079680942e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.369106751395512e-14</v>
+        <v>2.898073398682754e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.069182855315334e-13</v>
+        <v>5.101429269416258e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.651753278424095e-13</v>
+        <v>0.0001048875710694119</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.759602136245392e-14</v>
+        <v>5.791688818135299e-05</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.01763978239142e-14</v>
+        <v>0.0001413749996572733</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.462712888164683e-14</v>
+        <v>7.341562013607472e-05</v>
       </c>
       <c r="BB6" t="n">
-        <v>6.41361065683221e-16</v>
+        <v>5.069853432360105e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.759087140213461e-14</v>
+        <v>6.255495827645063e-05</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.604675761982763e-15</v>
+        <v>7.844928768463433e-05</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.309750426945228e-15</v>
+        <v>9.344152203993872e-06</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.056816545764576e-15</v>
+        <v>1.010577761917375e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.729526928845402e-14</v>
+        <v>0.0001448227558284998</v>
       </c>
       <c r="BH6" t="n">
-        <v>7.249107184751497e-14</v>
+        <v>0.0001303951139561832</v>
       </c>
       <c r="BI6" t="n">
-        <v>3.217072468879659e-14</v>
+        <v>3.385932359378785e-05</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4.831362089910418e-14</v>
+        <v>4.431817069416866e-05</v>
       </c>
       <c r="BK6" t="n">
-        <v>3.686013625402162e-14</v>
+        <v>6.911595119163394e-05</v>
       </c>
       <c r="BL6" t="n">
-        <v>5.519838262141828e-14</v>
+        <v>6.492919055745006e-07</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.718759615426495e-14</v>
+        <v>6.919360748725012e-05</v>
       </c>
       <c r="BN6" t="n">
-        <v>3.317702693518901e-14</v>
+        <v>4.141652607358992e-05</v>
       </c>
       <c r="BO6" t="n">
-        <v>5.177116873221477e-14</v>
+        <v>6.489372754003853e-05</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.584114580504593e-14</v>
+        <v>1.230736597790383e-05</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.310999800542429e-15</v>
+        <v>3.341634874232113e-05</v>
       </c>
       <c r="BR6" t="n">
-        <v>5.6743533347536e-15</v>
+        <v>7.711032230872661e-05</v>
       </c>
       <c r="BS6" t="n">
-        <v>2.170795688387697e-14</v>
+        <v>3.2704915611248e-06</v>
       </c>
       <c r="BT6" t="n">
-        <v>8.853754182710713e-15</v>
+        <v>5.141643123351969e-05</v>
       </c>
       <c r="BU6" t="n">
-        <v>3.398253155110532e-14</v>
+        <v>1.635222179174889e-05</v>
       </c>
       <c r="BV6" t="n">
-        <v>7.469159398777996e-15</v>
+        <v>4.3160425775568e-06</v>
       </c>
       <c r="BW6" t="n">
-        <v>3.236713468860591e-14</v>
+        <v>3.709283191710711e-05</v>
       </c>
       <c r="BX6" t="n">
-        <v>5.472463031775537e-14</v>
+        <v>2.418453186692204e-05</v>
       </c>
       <c r="BY6" t="n">
-        <v>7.869058052736855e-14</v>
+        <v>6.546970689669251e-05</v>
       </c>
       <c r="BZ6" t="n">
-        <v>7.308453023541564e-14</v>
+        <v>2.709917680476792e-06</v>
       </c>
       <c r="CA6" t="n">
-        <v>3.90283644161396e-15</v>
+        <v>2.471944935678039e-05</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.116068568400748e-14</v>
+        <v>4.317377170082182e-05</v>
       </c>
       <c r="CC6" t="n">
-        <v>5.405063349613092e-15</v>
+        <v>3.829385605058633e-05</v>
       </c>
       <c r="CD6" t="n">
-        <v>7.682373685227901e-15</v>
+        <v>3.19730315823108e-06</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.162923720537425e-14</v>
+        <v>1.414613689121325e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>5.573713538642054e-15</v>
+        <v>1.694336060609203e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.132484726996564e-14</v>
+        <v>2.85544683720218e-05</v>
       </c>
       <c r="CH6" t="n">
-        <v>3.108990725996831e-14</v>
+        <v>6.062414286134299e-06</v>
       </c>
       <c r="CI6" t="n">
-        <v>7.757753688302903e-15</v>
+        <v>7.038802323222626e-06</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.791478749200992e-14</v>
+        <v>1.387675365549512e-05</v>
       </c>
       <c r="CK6" t="n">
-        <v>5.392556908146882e-15</v>
+        <v>1.539363802294247e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.605590020915218e-15</v>
+        <v>3.337772068334743e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>3.438412003579396e-14</v>
+        <v>7.498436389141716e-06</v>
       </c>
       <c r="CN6" t="n">
-        <v>6.443551746858345e-14</v>
+        <v>3.97003605030477e-05</v>
       </c>
       <c r="CO6" t="n">
-        <v>6.963769567502193e-14</v>
+        <v>1.914213135023601e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.732522376160072e-14</v>
+        <v>4.637351958081126e-05</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5.368859043865075e-14</v>
+        <v>8.027442527236417e-05</v>
       </c>
       <c r="CR6" t="n">
-        <v>2.65017042734789e-14</v>
+        <v>1.190225430036662e-05</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.568627260690406e-14</v>
+        <v>1.554365735501051e-05</v>
       </c>
       <c r="CT6" t="n">
-        <v>9.58280763768693e-14</v>
+        <v>1.813372364267707e-05</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.20305266874325e-14</v>
+        <v>0.0001472574658691883</v>
       </c>
       <c r="CV6" t="n">
-        <v>6.378805225996584e-15</v>
+        <v>2.149944066331955e-06</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.058318285573423e-14</v>
+        <v>2.121146644640248e-05</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.25011796975414e-14</v>
+        <v>2.608338490972528e-06</v>
       </c>
       <c r="CY6" t="n">
-        <v>2.412086067720472e-14</v>
+        <v>2.435041824355721e-05</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.500876465822994e-14</v>
+        <v>1.286052611249033e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>4.905833141929722e-15</v>
+        <v>1.006275851977989e-05</v>
       </c>
       <c r="DB6" t="n">
-        <v>9.809059963480742e-15</v>
+        <v>1.218786565004848e-06</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.315703053233683e-14</v>
+        <v>1.033574244502233e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.446101340243759e-15</v>
+        <v>3.133791324216872e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>2.602730653071018e-14</v>
+        <v>2.220552960352506e-05</v>
       </c>
       <c r="DF6" t="n">
-        <v>4.984227481154117e-14</v>
+        <v>7.239637488964945e-05</v>
       </c>
       <c r="DG6" t="n">
-        <v>2.797999191280626e-14</v>
+        <v>8.835035259835422e-06</v>
       </c>
       <c r="DH6" t="n">
-        <v>3.645558993028118e-14</v>
+        <v>7.766031194478273e-05</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.778308911530493e-14</v>
+        <v>1.131684075517114e-05</v>
       </c>
       <c r="DJ6" t="n">
-        <v>2.751925681147675e-14</v>
+        <v>0.0001364810887025669</v>
       </c>
       <c r="DK6" t="n">
-        <v>2.733070388928616e-14</v>
+        <v>6.165717059047893e-05</v>
       </c>
       <c r="DL6" t="n">
-        <v>4.975834739899543e-14</v>
+        <v>2.21301870624302e-05</v>
       </c>
       <c r="DM6" t="n">
-        <v>2.972717016123949e-14</v>
+        <v>0.00011473371705506</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.535256873074018e-14</v>
+        <v>3.144010042888112e-05</v>
       </c>
       <c r="DO6" t="n">
-        <v>4.774369647461002e-14</v>
+        <v>2.079252953990363e-05</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.484656614367691e-14</v>
+        <v>4.570818418869749e-06</v>
       </c>
       <c r="DQ6" t="n">
-        <v>2.676289196496245e-14</v>
+        <v>1.018874172586948e-06</v>
       </c>
       <c r="DR6" t="n">
-        <v>3.998725314627652e-14</v>
+        <v>9.819941624300554e-05</v>
       </c>
       <c r="DS6" t="n">
-        <v>7.041792821592396e-14</v>
+        <v>5.531570786843076e-05</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.187057704535443e-14</v>
+        <v>8.023284317459911e-05</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.469570940028762e-14</v>
+        <v>1.05841672848328e-05</v>
       </c>
       <c r="DV6" t="n">
-        <v>9.258670659849106e-15</v>
+        <v>0.0001104967086575925</v>
       </c>
       <c r="DW6" t="n">
-        <v>7.379063892310345e-15</v>
+        <v>3.1487230444327e-05</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.70157162286081e-14</v>
+        <v>2.298670369782485e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>4.211747663411709e-15</v>
+        <v>3.275944436609279e-06</v>
       </c>
       <c r="DZ6" t="n">
-        <v>6.383889456559183e-14</v>
+        <v>5.138701817486435e-05</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.045414670358246e-14</v>
+        <v>3.805633241427131e-05</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.202103568325851e-14</v>
+        <v>2.103737097058911e-05</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.636418949700841e-15</v>
+        <v>1.551779132569209e-05</v>
       </c>
       <c r="ED6" t="n">
-        <v>3.284548468710652e-14</v>
+        <v>3.19603095704224e-05</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.830474452026686e-14</v>
+        <v>2.767737896647304e-06</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.79720503073761e-14</v>
+        <v>1.16092751341057e-05</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.017228124379054e-15</v>
+        <v>1.921462353493553e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.122926994174666e-14</v>
+        <v>1.319343573413789e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>5.96636794331952e-15</v>
+        <v>0.0001250394270755351</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.742299677470228e-14</v>
+        <v>2.656545620993711e-05</v>
       </c>
       <c r="EK6" t="n">
-        <v>5.299797483060116e-15</v>
+        <v>8.683668420417234e-05</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.714453960000682e-14</v>
+        <v>7.067398109938949e-05</v>
       </c>
       <c r="EM6" t="n">
-        <v>9.865368172715366e-15</v>
+        <v>2.012908771575894e-05</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.401489685550321e-14</v>
+        <v>2.342241714359261e-05</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.613119325214173e-14</v>
+        <v>3.320008545415476e-05</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.027758776792499e-14</v>
+        <v>1.466584126319503e-05</v>
       </c>
       <c r="EQ6" t="n">
-        <v>2.356419231833509e-14</v>
+        <v>1.964676630450413e-05</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.579810619144675e-14</v>
+        <v>7.052171895338688e-06</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.645613746453171e-14</v>
+        <v>1.449663250241429e-05</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.903984799277213e-15</v>
+        <v>5.466331640491262e-05</v>
       </c>
       <c r="EU6" t="n">
-        <v>2.020099379115327e-14</v>
+        <v>4.391351831145585e-05</v>
       </c>
       <c r="EV6" t="n">
-        <v>2.348779164055865e-14</v>
+        <v>6.552630111400504e-06</v>
       </c>
       <c r="EW6" t="n">
-        <v>5.102803454033657e-15</v>
+        <v>2.325874265807215e-05</v>
       </c>
       <c r="EX6" t="n">
-        <v>1.595789743836368e-15</v>
+        <v>3.552627049430157e-06</v>
       </c>
       <c r="EY6" t="n">
-        <v>7.832517051392304e-15</v>
+        <v>1.567858998896554e-05</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.128746025819008e-14</v>
+        <v>1.799697020032909e-05</v>
       </c>
       <c r="FA6" t="n">
-        <v>2.333423642568271e-14</v>
+        <v>3.903486503986642e-05</v>
       </c>
       <c r="FB6" t="n">
-        <v>2.612148304191771e-14</v>
+        <v>9.846011380432174e-06</v>
       </c>
       <c r="FC6" t="n">
-        <v>7.288636348927371e-15</v>
+        <v>4.336211986810667e-06</v>
       </c>
       <c r="FD6" t="n">
-        <v>8.623129981062943e-15</v>
+        <v>9.380361007060856e-06</v>
       </c>
       <c r="FE6" t="n">
-        <v>9.86611017357716e-15</v>
+        <v>5.166788923816057e-06</v>
       </c>
       <c r="FF6" t="n">
-        <v>8.080518980985944e-15</v>
+        <v>1.248609260073863e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>2.313624416832791e-14</v>
+        <v>6.480513548012823e-06</v>
       </c>
       <c r="FH6" t="n">
-        <v>7.09456585411836e-15</v>
+        <v>2.942161336250138e-05</v>
       </c>
       <c r="FI6" t="n">
-        <v>1.905689622490152e-14</v>
+        <v>2.898819730035029e-05</v>
       </c>
       <c r="FJ6" t="n">
-        <v>8.581632989944007e-15</v>
+        <v>7.110673323040828e-05</v>
       </c>
       <c r="FK6" t="n">
-        <v>3.970153876877228e-14</v>
+        <v>4.873510988545604e-05</v>
       </c>
       <c r="FL6" t="n">
-        <v>5.666099506902375e-14</v>
+        <v>3.446820119279437e-05</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.263388604345363e-15</v>
+        <v>2.44035036303103e-05</v>
       </c>
       <c r="FN6" t="n">
-        <v>7.709278500951308e-14</v>
+        <v>1.535428600618616e-05</v>
       </c>
       <c r="FO6" t="n">
-        <v>2.777759677819163e-14</v>
+        <v>6.641005893470719e-05</v>
       </c>
       <c r="FP6" t="n">
-        <v>3.812009098679882e-15</v>
+        <v>5.208969741943292e-05</v>
       </c>
       <c r="FQ6" t="n">
-        <v>2.638378712282573e-14</v>
+        <v>2.673165363376029e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>2.276369197307115e-14</v>
+        <v>6.574027065653354e-05</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.777758848334546e-14</v>
+        <v>4.808016456081532e-06</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.23082411775631e-13</v>
+        <v>9.426561882719398e-05</v>
       </c>
       <c r="FU6" t="n">
-        <v>4.575192221606406e-14</v>
+        <v>0.000143939585541375</v>
       </c>
       <c r="FV6" t="n">
-        <v>3.425145773559499e-14</v>
+        <v>2.63444526353851e-05</v>
       </c>
       <c r="FW6" t="n">
-        <v>2.212130557400528e-14</v>
+        <v>4.5982076699147e-05</v>
       </c>
       <c r="FX6" t="n">
-        <v>2.064130015186089e-14</v>
+        <v>2.412903450021986e-05</v>
       </c>
       <c r="FY6" t="n">
-        <v>4.772467380868058e-15</v>
+        <v>2.769147613435052e-05</v>
       </c>
       <c r="FZ6" t="n">
-        <v>6.572803553598489e-14</v>
+        <v>4.296127735869959e-05</v>
       </c>
       <c r="GA6" t="n">
-        <v>9.021625101428201e-15</v>
+        <v>4.58989707112778e-05</v>
       </c>
       <c r="GB6" t="n">
-        <v>4.082892606904059e-14</v>
+        <v>2.684155151655432e-05</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.222840544237236e-14</v>
+        <v>5.20871180924587e-05</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.05762219389737e-14</v>
+        <v>3.013929381268099e-05</v>
       </c>
       <c r="GE6" t="n">
-        <v>2.35549664354736e-14</v>
+        <v>0.0001125711278291419</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.992676772151264e-16</v>
+        <v>7.575310883112252e-05</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.156397077568946e-14</v>
+        <v>0.000158237962750718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.439669515297282e-07</v>
+        <v>1.202906441122309e-09</v>
       </c>
       <c r="B7" t="n">
-        <v>8.9018408289121e-07</v>
+        <v>9.09483599542682e-11</v>
       </c>
       <c r="C7" t="n">
-        <v>2.387421773164533e-06</v>
+        <v>1.081916001233196e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>5.271217560220975e-06</v>
+        <v>2.46521414393186e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>6.011117648085929e-08</v>
+        <v>5.686286996819945e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>2.353389618292567e-06</v>
+        <v>8.197897916062402e-10</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6912744033325e-07</v>
+        <v>1.84979698225618e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>9.451297842133499e-07</v>
+        <v>1.203196153820585e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>1.478161038903636e-06</v>
+        <v>4.152841404092555e-10</v>
       </c>
       <c r="J7" t="n">
-        <v>1.114379756472772e-06</v>
+        <v>3.792893221721272e-10</v>
       </c>
       <c r="K7" t="n">
-        <v>3.300670528005867e-07</v>
+        <v>1.264360061092873e-09</v>
       </c>
       <c r="L7" t="n">
-        <v>2.30716796068009e-06</v>
+        <v>1.327046028620771e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>4.2704377847258e-06</v>
+        <v>9.405657364069953e-10</v>
       </c>
       <c r="N7" t="n">
-        <v>2.981442094096565e-06</v>
+        <v>3.994077957258924e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>9.089091577152431e-07</v>
+        <v>2.309313018589165e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>8.414660896960413e-07</v>
+        <v>5.081994269851009e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.530298959551146e-06</v>
+        <v>1.739637989217613e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>1.655036385272979e-06</v>
+        <v>1.541051730669096e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15292282948576e-07</v>
+        <v>1.297509599762492e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>5.314246322996041e-07</v>
+        <v>9.878875495417105e-11</v>
       </c>
       <c r="U7" t="n">
-        <v>8.290423920698231e-07</v>
+        <v>2.307887075891912e-10</v>
       </c>
       <c r="V7" t="n">
-        <v>3.837289455077553e-07</v>
+        <v>3.298016026942463e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>4.484243163460633e-06</v>
+        <v>2.90960755489067e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>1.52379158180338e-07</v>
+        <v>1.504601110369208e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.422480858716881e-07</v>
+        <v>7.326850237632243e-10</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.928797388472958e-07</v>
+        <v>5.342815634357123e-10</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.367616999294114e-08</v>
+        <v>1.061425045079112e-10</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.578139952282072e-07</v>
+        <v>9.999459593679205e-12</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.041186454946001e-07</v>
+        <v>1.751820216666644e-10</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.0002027011069e-06</v>
+        <v>1.223608769862494e-09</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.414515152959211e-07</v>
+        <v>1.848230235523829e-09</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.967303758960043e-07</v>
+        <v>6.075525638138402e-10</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.098344455385813e-06</v>
+        <v>2.931380138626594e-10</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.661031430761795e-07</v>
+        <v>5.811278680489806e-10</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.590916079105227e-07</v>
+        <v>6.01487193385708e-10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.880244155927357e-07</v>
+        <v>8.390935724023052e-10</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.077813749361667e-06</v>
+        <v>4.605807957247521e-10</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.791533605910445e-07</v>
+        <v>1.514619263343064e-10</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.058629770042899e-07</v>
+        <v>1.748249878197328e-10</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.13433122553397e-06</v>
+        <v>6.643568473130301e-10</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.164392291590048e-07</v>
+        <v>1.304044316974284e-09</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.785980771273898e-06</v>
+        <v>5.241369005481999e-10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.411277364444686e-07</v>
+        <v>4.515783580405497e-10</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.344060649444145e-07</v>
+        <v>6.219419423914019e-10</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.139978505510953e-08</v>
+        <v>1.027294083133512e-10</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.514315830623673e-07</v>
+        <v>3.079615451540008e-10</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.351376562932273e-07</v>
+        <v>1.977824126697669e-09</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.510737320131739e-06</v>
+        <v>3.298723239009149e-10</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.37082497026131e-06</v>
+        <v>8.41173242172033e-11</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.94931042441749e-07</v>
+        <v>4.346160098478435e-10</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.842707994612283e-07</v>
+        <v>1.7141238428664e-09</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.019347817849848e-07</v>
+        <v>4.038858414379121e-10</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.335841488980805e-06</v>
+        <v>2.114656227902856e-10</v>
       </c>
       <c r="BB7" t="n">
-        <v>5.437397021523793e-07</v>
+        <v>1.257182913327881e-09</v>
       </c>
       <c r="BC7" t="n">
-        <v>5.491678507496545e-07</v>
+        <v>7.259171597162606e-10</v>
       </c>
       <c r="BD7" t="n">
-        <v>5.359971737561864e-07</v>
+        <v>4.858524693673871e-11</v>
       </c>
       <c r="BE7" t="n">
-        <v>8.681566328050394e-07</v>
+        <v>6.672840613397568e-10</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.829158347594785e-06</v>
+        <v>7.7428558009629e-10</v>
       </c>
       <c r="BG7" t="n">
-        <v>6.293180376815144e-07</v>
+        <v>1.651680570091685e-09</v>
       </c>
       <c r="BH7" t="n">
-        <v>9.840858865572955e-07</v>
+        <v>9.634310016437553e-11</v>
       </c>
       <c r="BI7" t="n">
-        <v>8.833221727400087e-07</v>
+        <v>2.407401500370554e-10</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.110068481580129e-07</v>
+        <v>2.861550441046745e-10</v>
       </c>
       <c r="BK7" t="n">
-        <v>4.294005861993355e-07</v>
+        <v>1.34769351234354e-09</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.420320813849685e-06</v>
+        <v>2.916839547673078e-10</v>
       </c>
       <c r="BM7" t="n">
-        <v>4.746823094592401e-07</v>
+        <v>1.712400887754484e-09</v>
       </c>
       <c r="BN7" t="n">
-        <v>5.191326977183053e-07</v>
+        <v>1.430117274603404e-10</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.765341153259214e-07</v>
+        <v>4.902132033635098e-10</v>
       </c>
       <c r="BP7" t="n">
-        <v>2.344952690691571e-06</v>
+        <v>3.902349554607554e-09</v>
       </c>
       <c r="BQ7" t="n">
-        <v>4.802568014383723e-07</v>
+        <v>9.31365429224229e-10</v>
       </c>
       <c r="BR7" t="n">
-        <v>9.988406191041577e-08</v>
+        <v>1.045097008933737e-09</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.226674039069621e-08</v>
+        <v>1.941852234565999e-09</v>
       </c>
       <c r="BT7" t="n">
-        <v>4.605340961916227e-07</v>
+        <v>9.733353012464363e-11</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.126038569054799e-06</v>
+        <v>3.065466214202672e-10</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.921083452316452e-07</v>
+        <v>9.021074998116774e-10</v>
       </c>
       <c r="BW7" t="n">
-        <v>5.40251846814499e-07</v>
+        <v>2.902972306983997e-10</v>
       </c>
       <c r="BX7" t="n">
-        <v>2.995365321112331e-06</v>
+        <v>4.728686331390008e-10</v>
       </c>
       <c r="BY7" t="n">
-        <v>6.455065886257216e-07</v>
+        <v>1.332221333250061e-09</v>
       </c>
       <c r="BZ7" t="n">
-        <v>2.415867129457183e-06</v>
+        <v>5.770874333954623e-10</v>
       </c>
       <c r="CA7" t="n">
-        <v>2.984459115396021e-07</v>
+        <v>7.950457514560583e-10</v>
       </c>
       <c r="CB7" t="n">
-        <v>6.754298738087527e-07</v>
+        <v>2.244992247657507e-10</v>
       </c>
       <c r="CC7" t="n">
-        <v>4.863151161771384e-07</v>
+        <v>8.131766926489092e-10</v>
       </c>
       <c r="CD7" t="n">
-        <v>8.117171432786563e-07</v>
+        <v>1.237207419846342e-10</v>
       </c>
       <c r="CE7" t="n">
-        <v>9.620613639071962e-08</v>
+        <v>3.314038488078097e-10</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.596273418475903e-07</v>
+        <v>4.310934942353128e-11</v>
       </c>
       <c r="CG7" t="n">
-        <v>1.318705926678376e-06</v>
+        <v>2.867689974372922e-10</v>
       </c>
       <c r="CH7" t="n">
-        <v>2.231320763712574e-07</v>
+        <v>9.299089276382233e-12</v>
       </c>
       <c r="CI7" t="n">
-        <v>3.595329474137543e-07</v>
+        <v>3.215642196963131e-10</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2.488612835804815e-07</v>
+        <v>4.433011735471837e-10</v>
       </c>
       <c r="CK7" t="n">
-        <v>1.33139778313307e-07</v>
+        <v>3.287913830085643e-10</v>
       </c>
       <c r="CL7" t="n">
-        <v>6.173132760523004e-07</v>
+        <v>2.823000444518442e-10</v>
       </c>
       <c r="CM7" t="n">
-        <v>1.281993888824218e-07</v>
+        <v>8.491314873459999e-10</v>
       </c>
       <c r="CN7" t="n">
-        <v>3.322000452499196e-07</v>
+        <v>1.557160511644895e-09</v>
       </c>
       <c r="CO7" t="n">
-        <v>9.824191238294588e-09</v>
+        <v>4.13069051186099e-10</v>
       </c>
       <c r="CP7" t="n">
-        <v>2.740823674685089e-06</v>
+        <v>3.75848657752087e-10</v>
       </c>
       <c r="CQ7" t="n">
-        <v>6.843407618362107e-08</v>
+        <v>2.576452828861875e-09</v>
       </c>
       <c r="CR7" t="n">
-        <v>2.580051841505338e-06</v>
+        <v>3.781835955507518e-10</v>
       </c>
       <c r="CS7" t="n">
-        <v>8.096841952465184e-08</v>
+        <v>5.828248439421202e-10</v>
       </c>
       <c r="CT7" t="n">
-        <v>3.741180876204453e-07</v>
+        <v>8.736363854566775e-10</v>
       </c>
       <c r="CU7" t="n">
-        <v>2.084525476675481e-07</v>
+        <v>6.813163366814479e-10</v>
       </c>
       <c r="CV7" t="n">
-        <v>7.589121082673955e-07</v>
+        <v>2.671509194418498e-11</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.935837730115963e-07</v>
+        <v>3.406485371559853e-10</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.469748778821668e-07</v>
+        <v>6.457337442533628e-11</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.128383701143321e-06</v>
+        <v>2.321699776874908e-10</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.685896648950802e-07</v>
+        <v>5.297910721235866e-11</v>
       </c>
       <c r="DA7" t="n">
-        <v>3.084282411691674e-07</v>
+        <v>2.916124841600976e-10</v>
       </c>
       <c r="DB7" t="n">
-        <v>8.772168769155542e-08</v>
+        <v>4.881288151459273e-10</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.389810222462984e-07</v>
+        <v>2.576002466891936e-10</v>
       </c>
       <c r="DD7" t="n">
-        <v>7.14572706783656e-07</v>
+        <v>5.874541825212631e-11</v>
       </c>
       <c r="DE7" t="n">
-        <v>1.256559812645719e-06</v>
+        <v>2.018377687207362e-09</v>
       </c>
       <c r="DF7" t="n">
-        <v>3.946184961023391e-07</v>
+        <v>2.067236826164276e-09</v>
       </c>
       <c r="DG7" t="n">
-        <v>4.908539494863362e-07</v>
+        <v>1.152555828554114e-11</v>
       </c>
       <c r="DH7" t="n">
-        <v>1.307797560912149e-06</v>
+        <v>2.340047711157922e-09</v>
       </c>
       <c r="DI7" t="n">
-        <v>2.317400458196062e-06</v>
+        <v>2.561950429580406e-09</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1.119636863222695e-06</v>
+        <v>1.210910816062949e-09</v>
       </c>
       <c r="DK7" t="n">
-        <v>5.206562150306127e-07</v>
+        <v>1.960489104391172e-09</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.362493662782072e-06</v>
+        <v>1.916125702550175e-09</v>
       </c>
       <c r="DM7" t="n">
-        <v>4.281112069293158e-07</v>
+        <v>5.134639380344197e-10</v>
       </c>
       <c r="DN7" t="n">
-        <v>2.163055796700064e-07</v>
+        <v>3.484596777791893e-10</v>
       </c>
       <c r="DO7" t="n">
-        <v>6.443311804105178e-07</v>
+        <v>1.890502476786793e-10</v>
       </c>
       <c r="DP7" t="n">
-        <v>5.794791491098295e-07</v>
+        <v>4.319470336966447e-10</v>
       </c>
       <c r="DQ7" t="n">
-        <v>3.857446131405595e-07</v>
+        <v>3.752285426816826e-10</v>
       </c>
       <c r="DR7" t="n">
-        <v>8.578793995184242e-07</v>
+        <v>7.74265651592998e-10</v>
       </c>
       <c r="DS7" t="n">
-        <v>5.791627586404502e-07</v>
+        <v>1.101482516308039e-10</v>
       </c>
       <c r="DT7" t="n">
-        <v>5.876656246073253e-07</v>
+        <v>1.252971171261663e-09</v>
       </c>
       <c r="DU7" t="n">
-        <v>7.885077479841129e-07</v>
+        <v>8.93022378267716e-10</v>
       </c>
       <c r="DV7" t="n">
-        <v>7.607831662426179e-07</v>
+        <v>1.291228651778553e-10</v>
       </c>
       <c r="DW7" t="n">
-        <v>9.594821648306606e-08</v>
+        <v>7.264884527291571e-11</v>
       </c>
       <c r="DX7" t="n">
-        <v>9.462934258408495e-07</v>
+        <v>3.535306769553159e-10</v>
       </c>
       <c r="DY7" t="n">
-        <v>5.337226127721806e-08</v>
+        <v>3.633170153616305e-10</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.175645934381464e-06</v>
+        <v>8.696750541936638e-10</v>
       </c>
       <c r="EA7" t="n">
-        <v>7.955924274938297e-08</v>
+        <v>1.534366106392682e-10</v>
       </c>
       <c r="EB7" t="n">
-        <v>4.220389655529289e-07</v>
+        <v>2.910106045028726e-10</v>
       </c>
       <c r="EC7" t="n">
-        <v>7.081628439209453e-08</v>
+        <v>5.470580100030986e-10</v>
       </c>
       <c r="ED7" t="n">
-        <v>4.268679276719922e-07</v>
+        <v>1.225005430427473e-09</v>
       </c>
       <c r="EE7" t="n">
-        <v>8.65228287239006e-07</v>
+        <v>4.439031364711354e-10</v>
       </c>
       <c r="EF7" t="n">
-        <v>8.464404572805506e-07</v>
+        <v>2.70640038158021e-10</v>
       </c>
       <c r="EG7" t="n">
-        <v>6.574213102794602e-07</v>
+        <v>8.732402578814913e-10</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.854282061231061e-07</v>
+        <v>3.198908915535981e-10</v>
       </c>
       <c r="EI7" t="n">
-        <v>5.79941229261749e-07</v>
+        <v>1.247080660959909e-09</v>
       </c>
       <c r="EJ7" t="n">
-        <v>6.844753670520731e-07</v>
+        <v>8.566941600562927e-11</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.089209945348557e-06</v>
+        <v>6.815485953381994e-10</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.445739883365604e-08</v>
+        <v>1.360665052851928e-10</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.36007480225453e-07</v>
+        <v>7.44089373450052e-11</v>
       </c>
       <c r="EN7" t="n">
-        <v>2.339048137400823e-07</v>
+        <v>2.056723402699134e-10</v>
       </c>
       <c r="EO7" t="n">
-        <v>1.771615188772557e-06</v>
+        <v>1.690593776082494e-10</v>
       </c>
       <c r="EP7" t="n">
-        <v>2.714060087782855e-07</v>
+        <v>4.579224777145896e-10</v>
       </c>
       <c r="EQ7" t="n">
-        <v>7.72589530129153e-08</v>
+        <v>4.099448211447587e-12</v>
       </c>
       <c r="ER7" t="n">
-        <v>7.364111525021144e-07</v>
+        <v>8.910963078534451e-10</v>
       </c>
       <c r="ES7" t="n">
-        <v>1.710277217625844e-07</v>
+        <v>1.409653505035635e-10</v>
       </c>
       <c r="ET7" t="n">
-        <v>2.461257793129334e-07</v>
+        <v>8.79680217558132e-11</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.535748168635109e-07</v>
+        <v>1.446969488672067e-10</v>
       </c>
       <c r="EV7" t="n">
-        <v>2.657447453202622e-07</v>
+        <v>4.201674563830693e-10</v>
       </c>
       <c r="EW7" t="n">
-        <v>2.178913973693852e-07</v>
+        <v>5.603962294209452e-10</v>
       </c>
       <c r="EX7" t="n">
-        <v>6.847317877145542e-07</v>
+        <v>5.748904130520316e-11</v>
       </c>
       <c r="EY7" t="n">
-        <v>3.492848321684505e-08</v>
+        <v>1.778280300790414e-10</v>
       </c>
       <c r="EZ7" t="n">
-        <v>2.273651773521124e-07</v>
+        <v>1.207852845519497e-10</v>
       </c>
       <c r="FA7" t="n">
-        <v>8.836896654429438e-07</v>
+        <v>1.649331227149275e-10</v>
       </c>
       <c r="FB7" t="n">
-        <v>4.78787569591077e-07</v>
+        <v>5.712716411032659e-11</v>
       </c>
       <c r="FC7" t="n">
-        <v>4.261147807937959e-07</v>
+        <v>6.208353275916068e-10</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.456153680441275e-08</v>
+        <v>5.327182583947376e-10</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.882996087942956e-07</v>
+        <v>4.888566218497203e-10</v>
       </c>
       <c r="FF7" t="n">
-        <v>4.2942630784637e-07</v>
+        <v>7.8364419120458e-11</v>
       </c>
       <c r="FG7" t="n">
-        <v>8.537772089312057e-08</v>
+        <v>3.104303480938597e-10</v>
       </c>
       <c r="FH7" t="n">
-        <v>7.344428922806401e-07</v>
+        <v>3.766644496305815e-10</v>
       </c>
       <c r="FI7" t="n">
-        <v>7.079881356730766e-07</v>
+        <v>4.465247616103341e-13</v>
       </c>
       <c r="FJ7" t="n">
-        <v>7.931206482680864e-07</v>
+        <v>5.970277050515449e-10</v>
       </c>
       <c r="FK7" t="n">
-        <v>7.849591838748893e-07</v>
+        <v>3.212091148618867e-10</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.825660262966267e-07</v>
+        <v>3.752292920822242e-11</v>
       </c>
       <c r="FM7" t="n">
-        <v>2.009599882057955e-07</v>
+        <v>1.844303321174579e-10</v>
       </c>
       <c r="FN7" t="n">
-        <v>2.711029196689196e-07</v>
+        <v>4.531528208229219e-10</v>
       </c>
       <c r="FO7" t="n">
-        <v>1.704030864857486e-06</v>
+        <v>6.747065128820395e-10</v>
       </c>
       <c r="FP7" t="n">
-        <v>2.903260565290111e-07</v>
+        <v>5.972396466269458e-10</v>
       </c>
       <c r="FQ7" t="n">
-        <v>4.496463930081518e-07</v>
+        <v>1.796626847294647e-09</v>
       </c>
       <c r="FR7" t="n">
-        <v>3.148990117551875e-07</v>
+        <v>5.739345110278293e-10</v>
       </c>
       <c r="FS7" t="n">
-        <v>6.146216264824034e-07</v>
+        <v>5.004060499302909e-10</v>
       </c>
       <c r="FT7" t="n">
-        <v>7.626001661265036e-07</v>
+        <v>5.020663329524666e-10</v>
       </c>
       <c r="FU7" t="n">
-        <v>9.437062544748187e-07</v>
+        <v>1.161460261300817e-09</v>
       </c>
       <c r="FV7" t="n">
-        <v>9.590667104930617e-08</v>
+        <v>3.649280322370885e-10</v>
       </c>
       <c r="FW7" t="n">
-        <v>4.446682737579977e-07</v>
+        <v>2.870719217895612e-10</v>
       </c>
       <c r="FX7" t="n">
-        <v>9.318198408436729e-07</v>
+        <v>5.061401853190262e-10</v>
       </c>
       <c r="FY7" t="n">
-        <v>6.754331707270467e-07</v>
+        <v>3.092898853696013e-11</v>
       </c>
       <c r="FZ7" t="n">
-        <v>4.319895765547699e-07</v>
+        <v>8.639248205710715e-10</v>
       </c>
       <c r="GA7" t="n">
-        <v>2.757786887741531e-08</v>
+        <v>1.087013812295368e-09</v>
       </c>
       <c r="GB7" t="n">
-        <v>2.008571527767344e-06</v>
+        <v>5.191181373653819e-10</v>
       </c>
       <c r="GC7" t="n">
-        <v>8.92152456799522e-07</v>
+        <v>1.934804316761074e-09</v>
       </c>
       <c r="GD7" t="n">
-        <v>5.321023195392627e-07</v>
+        <v>1.19883170057733e-09</v>
       </c>
       <c r="GE7" t="n">
-        <v>2.703916948121332e-07</v>
+        <v>6.408497066345831e-10</v>
       </c>
       <c r="GF7" t="n">
-        <v>5.576429771281255e-07</v>
+        <v>8.98372154445326e-10</v>
       </c>
       <c r="GG7" t="n">
-        <v>1.225736923515797e-06</v>
+        <v>3.692308403469013e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4987,4554 +4987,4554 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.1003510280716e-07</v>
+        <v>0.000344688247423619</v>
       </c>
       <c r="B9" t="n">
-        <v>4.198576775138463e-08</v>
+        <v>0.007689959369599819</v>
       </c>
       <c r="C9" t="n">
-        <v>6.213778647179424e-08</v>
+        <v>0.0006043091416358948</v>
       </c>
       <c r="D9" t="n">
-        <v>1.350684755152542e-07</v>
+        <v>0.00575983477756381</v>
       </c>
       <c r="E9" t="n">
-        <v>4.983865409258215e-08</v>
+        <v>0.002431112341582775</v>
       </c>
       <c r="F9" t="n">
-        <v>7.843961213893635e-08</v>
+        <v>0.002503614407032728</v>
       </c>
       <c r="G9" t="n">
-        <v>6.659350759719018e-08</v>
+        <v>0.0001586697180755436</v>
       </c>
       <c r="H9" t="n">
-        <v>1.337476760454592e-07</v>
+        <v>0.001449698116630316</v>
       </c>
       <c r="I9" t="n">
-        <v>3.721515184906821e-08</v>
+        <v>0.00177635985892266</v>
       </c>
       <c r="J9" t="n">
-        <v>5.517495793583294e-08</v>
+        <v>0.0009974651038646698</v>
       </c>
       <c r="K9" t="n">
-        <v>3.151058081130031e-09</v>
+        <v>0.005363583099097013</v>
       </c>
       <c r="L9" t="n">
-        <v>3.895198119607812e-08</v>
+        <v>0.0004360623715911061</v>
       </c>
       <c r="M9" t="n">
-        <v>1.178996171802282e-07</v>
+        <v>0.005866115912795067</v>
       </c>
       <c r="N9" t="n">
-        <v>5.935807934065451e-08</v>
+        <v>0.004994221031665802</v>
       </c>
       <c r="O9" t="n">
-        <v>2.15579323281645e-08</v>
+        <v>0.003760610707104206</v>
       </c>
       <c r="P9" t="n">
-        <v>3.41781145607456e-08</v>
+        <v>0.0005002751713618636</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.784925853433379e-08</v>
+        <v>0.0005295996088534594</v>
       </c>
       <c r="R9" t="n">
-        <v>5.105462719257048e-10</v>
+        <v>0.002647273242473602</v>
       </c>
       <c r="S9" t="n">
-        <v>2.461817771859387e-08</v>
+        <v>0.0003486441564746201</v>
       </c>
       <c r="T9" t="n">
-        <v>7.470355001260032e-09</v>
+        <v>0.001191523973830044</v>
       </c>
       <c r="U9" t="n">
-        <v>2.410822119713885e-08</v>
+        <v>1.217921453644522e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>3.417866167865213e-08</v>
+        <v>0.001260245451703668</v>
       </c>
       <c r="W9" t="n">
-        <v>9.689423308145706e-08</v>
+        <v>0.0008368251728825271</v>
       </c>
       <c r="X9" t="n">
-        <v>1.738040111831651e-08</v>
+        <v>0.000358867080649361</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.811833350018333e-09</v>
+        <v>0.001064740470610559</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.93382099012274e-09</v>
+        <v>3.706727875396609e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.310015810915502e-08</v>
+        <v>0.000593985547311604</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.291956384212426e-08</v>
+        <v>0.0006533308187499642</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.599622384025224e-08</v>
+        <v>0.001626176293939352</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.809433124501993e-08</v>
+        <v>7.884642400313169e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.35525757072719e-09</v>
+        <v>0.0008979274425655603</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.079652502601675e-10</v>
+        <v>0.002357295947149396</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.994025720212903e-09</v>
+        <v>0.001146286493167281</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.309551661028308e-08</v>
+        <v>0.0004827371740248054</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.669828257419795e-08</v>
+        <v>0.0002163086319342256</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.754712807335636e-08</v>
+        <v>0.0001447177928639576</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.969307371676223e-08</v>
+        <v>0.0004669971531257033</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.362564982012373e-08</v>
+        <v>0.0005745395319536328</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.896943402357465e-08</v>
+        <v>0.0001250734785571694</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.338005522517506e-08</v>
+        <v>3.251547605032101e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.417391797848722e-08</v>
+        <v>0.001802708953619003</v>
       </c>
       <c r="AP9" t="n">
-        <v>5.416772097532885e-08</v>
+        <v>0.001389157143421471</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.798632045170507e-09</v>
+        <v>0.000460945040686056</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.705350527458904e-08</v>
+        <v>0.0004420126788318157</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.734503734558302e-09</v>
+        <v>0.0007439288892783225</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.223770299129683e-08</v>
+        <v>0.0009840517304837704</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.232224171119014e-08</v>
+        <v>0.006122764199972153</v>
       </c>
       <c r="AV9" t="n">
-        <v>6.348986403281742e-08</v>
+        <v>1.984117261599749e-06</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.780205635299353e-08</v>
+        <v>0.001276563387364149</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.286769422241377e-08</v>
+        <v>0.0006870566867291927</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.512749616329529e-08</v>
+        <v>0.0008063999121077359</v>
       </c>
       <c r="AZ9" t="n">
-        <v>5.689270565767401e-08</v>
+        <v>0.001785925589501858</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.536787266331885e-07</v>
+        <v>0.001665702555328608</v>
       </c>
       <c r="BB9" t="n">
-        <v>7.083500719318181e-08</v>
+        <v>6.656079494860023e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.806093218372553e-08</v>
+        <v>3.29662871081382e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>5.497622801442503e-09</v>
+        <v>0.001077304361388087</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.248994768194734e-08</v>
+        <v>0.0016516731120646</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.218826094553151e-08</v>
+        <v>0.001918324967846274</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.055302937899796e-08</v>
+        <v>0.003297940362244844</v>
       </c>
       <c r="BH9" t="n">
-        <v>2.387372255441278e-08</v>
+        <v>0.003289844375103712</v>
       </c>
       <c r="BI9" t="n">
-        <v>2.89057044966512e-08</v>
+        <v>0.0009666398982517421</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.046194153531133e-08</v>
+        <v>0.000584135705139488</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.856628154139344e-09</v>
+        <v>0.001463787513785064</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.466276237735656e-09</v>
+        <v>0.0008593573002144694</v>
       </c>
       <c r="BM9" t="n">
-        <v>3.261637004925433e-08</v>
+        <v>0.001871611224487424</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.146530692608394e-08</v>
+        <v>0.0008128627086989582</v>
       </c>
       <c r="BO9" t="n">
-        <v>3.886957244958467e-08</v>
+        <v>0.0009569624089635909</v>
       </c>
       <c r="BP9" t="n">
-        <v>5.250181800420251e-08</v>
+        <v>0.002061070408672094</v>
       </c>
       <c r="BQ9" t="n">
-        <v>4.321753976910259e-08</v>
+        <v>0.0006780871190130711</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.904632895843861e-08</v>
+        <v>0.0008262897608801723</v>
       </c>
       <c r="BS9" t="n">
-        <v>3.222210409603576e-08</v>
+        <v>0.0001708270283415914</v>
       </c>
       <c r="BT9" t="n">
-        <v>2.298579815374069e-08</v>
+        <v>0.001120294095017016</v>
       </c>
       <c r="BU9" t="n">
-        <v>4.321680791008475e-08</v>
+        <v>0.0006570408586412668</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.164698464923731e-08</v>
+        <v>0.002874084748327732</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.823073958462373e-08</v>
+        <v>0.0007678313413634896</v>
       </c>
       <c r="BX9" t="n">
-        <v>9.212283913484498e-08</v>
+        <v>0.001346546225249767</v>
       </c>
       <c r="BY9" t="n">
-        <v>2.595220394141506e-08</v>
+        <v>0.0005361441290006042</v>
       </c>
       <c r="BZ9" t="n">
-        <v>8.753276148354416e-08</v>
+        <v>0.0004929578863084316</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.434676187907826e-08</v>
+        <v>0.0004809880920220166</v>
       </c>
       <c r="CB9" t="n">
-        <v>5.502425892700558e-08</v>
+        <v>0.001140901236794889</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.359518719823427e-08</v>
+        <v>0.0009415406966581941</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.006297350476416e-09</v>
+        <v>0.0002522960712667555</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.664094639863833e-09</v>
+        <v>0.001320189447142184</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.827773843388059e-08</v>
+        <v>0.0005746103124693036</v>
       </c>
       <c r="CG9" t="n">
-        <v>3.431419770549837e-08</v>
+        <v>0.0005720659391954541</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.043077624274247e-08</v>
+        <v>0.0001323207834502682</v>
       </c>
       <c r="CI9" t="n">
-        <v>4.331449865446757e-09</v>
+        <v>2.093978400807828e-05</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.014370631935435e-08</v>
+        <v>0.0001811248657759279</v>
       </c>
       <c r="CK9" t="n">
-        <v>4.66632990026028e-08</v>
+        <v>2.05427932087332e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.003248772946108e-08</v>
+        <v>0.0003857791889458895</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.49938532700844e-08</v>
+        <v>0.001397907733917236</v>
       </c>
       <c r="CN9" t="n">
-        <v>1.159342133405517e-08</v>
+        <v>0.0007717584376223385</v>
       </c>
       <c r="CO9" t="n">
-        <v>8.178121291280149e-09</v>
+        <v>0.0003864687168970704</v>
       </c>
       <c r="CP9" t="n">
-        <v>4.273735854098959e-08</v>
+        <v>0.001347895478829741</v>
       </c>
       <c r="CQ9" t="n">
-        <v>5.107377276658553e-08</v>
+        <v>0.0001531684538349509</v>
       </c>
       <c r="CR9" t="n">
-        <v>2.819612632265489e-08</v>
+        <v>5.622906610369682e-05</v>
       </c>
       <c r="CS9" t="n">
-        <v>2.394136799921398e-08</v>
+        <v>0.001356498105451465</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.866409249373646e-09</v>
+        <v>0.002394907176494598</v>
       </c>
       <c r="CU9" t="n">
-        <v>2.348738270541162e-08</v>
+        <v>0.0001872421271400526</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.646731639937116e-10</v>
+        <v>0.0002739971969276667</v>
       </c>
       <c r="CW9" t="n">
-        <v>8.487146097024834e-09</v>
+        <v>0.001026964979246259</v>
       </c>
       <c r="CX9" t="n">
-        <v>2.649924724096309e-09</v>
+        <v>0.0007284329039976001</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.690617328937606e-08</v>
+        <v>0.0006991555565036833</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.280355377275555e-08</v>
+        <v>0.0003545323561411351</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.374190805591979e-08</v>
+        <v>3.743480920093134e-05</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.233697766167552e-08</v>
+        <v>0.0003523742780089378</v>
       </c>
       <c r="DC9" t="n">
-        <v>4.441476164629421e-08</v>
+        <v>9.691226296126842e-05</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.170014307660949e-08</v>
+        <v>0.0002154782996512949</v>
       </c>
       <c r="DE9" t="n">
-        <v>2.446996383298483e-08</v>
+        <v>0.0006021417793817818</v>
       </c>
       <c r="DF9" t="n">
-        <v>5.501433975041436e-08</v>
+        <v>0.0008053095662035048</v>
       </c>
       <c r="DG9" t="n">
-        <v>2.714314106810889e-08</v>
+        <v>0.0005242356564849615</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.453251113365695e-08</v>
+        <v>0.002008233452215791</v>
       </c>
       <c r="DI9" t="n">
-        <v>9.138273249220674e-09</v>
+        <v>0.001275648595765233</v>
       </c>
       <c r="DJ9" t="n">
-        <v>4.244849804990736e-09</v>
+        <v>0.0006263367249630392</v>
       </c>
       <c r="DK9" t="n">
-        <v>2.907655982653523e-08</v>
+        <v>0.0004543918767012656</v>
       </c>
       <c r="DL9" t="n">
-        <v>8.052567324057236e-08</v>
+        <v>0.0007651817868463695</v>
       </c>
       <c r="DM9" t="n">
-        <v>5.48350520546137e-09</v>
+        <v>0.0001910360297188163</v>
       </c>
       <c r="DN9" t="n">
-        <v>8.642203397357662e-09</v>
+        <v>0.0005929999169893563</v>
       </c>
       <c r="DO9" t="n">
-        <v>8.313616461919082e-09</v>
+        <v>0.0001380140893161297</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.870493804290163e-08</v>
+        <v>0.0008186724735423923</v>
       </c>
       <c r="DQ9" t="n">
-        <v>2.784557651125397e-08</v>
+        <v>0.0006838926346972585</v>
       </c>
       <c r="DR9" t="n">
-        <v>9.094387465324871e-09</v>
+        <v>0.0003975371364504099</v>
       </c>
       <c r="DS9" t="n">
-        <v>8.000382223372071e-08</v>
+        <v>0.0002328821283299476</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.343757105587429e-08</v>
+        <v>0.001011830870993435</v>
       </c>
       <c r="DU9" t="n">
-        <v>8.855886335368268e-08</v>
+        <v>0.0003506936482153833</v>
       </c>
       <c r="DV9" t="n">
-        <v>2.370680007857118e-08</v>
+        <v>0.0004516436601988971</v>
       </c>
       <c r="DW9" t="n">
-        <v>4.145487952911253e-09</v>
+        <v>1.50909909280017e-06</v>
       </c>
       <c r="DX9" t="n">
-        <v>6.55417631278965e-09</v>
+        <v>0.0003142440982628614</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.683188255441337e-09</v>
+        <v>0.0007932493463158607</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.805316252045941e-08</v>
+        <v>5.949300975771621e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>2.216010841493699e-08</v>
+        <v>0.0005342981312423944</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.098300206336944e-08</v>
+        <v>0.001746527501381934</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.142971761680656e-08</v>
+        <v>0.0001894921297207475</v>
       </c>
       <c r="ED9" t="n">
-        <v>5.078499398791791e-09</v>
+        <v>0.0007088918355293572</v>
       </c>
       <c r="EE9" t="n">
-        <v>3.867339870566866e-08</v>
+        <v>0.0001197204110212624</v>
       </c>
       <c r="EF9" t="n">
-        <v>7.887290820463022e-09</v>
+        <v>0.0001095048792194575</v>
       </c>
       <c r="EG9" t="n">
-        <v>4.511770956838745e-09</v>
+        <v>0.0006744205020368099</v>
       </c>
       <c r="EH9" t="n">
-        <v>6.958105203125342e-09</v>
+        <v>0.0002899813407566398</v>
       </c>
       <c r="EI9" t="n">
-        <v>2.947564148314541e-08</v>
+        <v>0.0007287904736585915</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.287899031865436e-08</v>
+        <v>0.000899928156286478</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.188524922923762e-08</v>
+        <v>0.000121060358651448</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.271458494045419e-08</v>
+        <v>0.0004824499774258584</v>
       </c>
       <c r="EM9" t="n">
-        <v>7.760730724726272e-09</v>
+        <v>0.0003898876020684838</v>
       </c>
       <c r="EN9" t="n">
-        <v>2.228960482852926e-08</v>
+        <v>0.0006990585825406015</v>
       </c>
       <c r="EO9" t="n">
-        <v>8.110624172275038e-09</v>
+        <v>0.000512712518684566</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.079187494923417e-08</v>
+        <v>0.001245506689883769</v>
       </c>
       <c r="EQ9" t="n">
-        <v>9.453190230601649e-09</v>
+        <v>0.0002197505964431912</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.290366835604573e-08</v>
+        <v>0.000155554007505998</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.68676139114632e-08</v>
+        <v>0.0002331572177354246</v>
       </c>
       <c r="ET9" t="n">
-        <v>1.874295918469215e-08</v>
+        <v>0.001650342484936118</v>
       </c>
       <c r="EU9" t="n">
-        <v>5.693666871309233e-09</v>
+        <v>0.001369602745398879</v>
       </c>
       <c r="EV9" t="n">
-        <v>8.056165512471125e-08</v>
+        <v>0.0006105737993493676</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.646768410523691e-08</v>
+        <v>0.000221060065086931</v>
       </c>
       <c r="EX9" t="n">
-        <v>8.449090316275942e-10</v>
+        <v>7.546126653323881e-06</v>
       </c>
       <c r="EY9" t="n">
-        <v>7.257327183651796e-09</v>
+        <v>0.001002485165372491</v>
       </c>
       <c r="EZ9" t="n">
-        <v>8.96501983760345e-09</v>
+        <v>0.000354497751686722</v>
       </c>
       <c r="FA9" t="n">
-        <v>1.378060954237981e-08</v>
+        <v>0.0006150238332338631</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.118330222344866e-08</v>
+        <v>0.0005412969621829689</v>
       </c>
       <c r="FC9" t="n">
-        <v>4.638327499861816e-10</v>
+        <v>0.0002760827774181962</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.347061218126555e-08</v>
+        <v>0.0004270995559636503</v>
       </c>
       <c r="FE9" t="n">
-        <v>3.717915930678828e-08</v>
+        <v>0.0002593329409137368</v>
       </c>
       <c r="FF9" t="n">
-        <v>4.493706740049674e-09</v>
+        <v>1.422755303792655e-06</v>
       </c>
       <c r="FG9" t="n">
-        <v>7.508827337687762e-09</v>
+        <v>0.0001052314401022159</v>
       </c>
       <c r="FH9" t="n">
-        <v>2.027832124440465e-08</v>
+        <v>4.510897269938141e-05</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.692028561706138e-08</v>
+        <v>0.0001903041265904903</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.141950534133684e-08</v>
+        <v>0.0003267778665758669</v>
       </c>
       <c r="FK9" t="n">
-        <v>2.361845474752045e-08</v>
+        <v>0.0004917809856124222</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.399760485298884e-08</v>
+        <v>0.0004993699258193374</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.434121958496462e-09</v>
+        <v>4.590973549056798e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>9.815624224529529e-08</v>
+        <v>0.0001037952897604555</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.191250298404611e-08</v>
+        <v>0.0001681018329691142</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.438476893156349e-08</v>
+        <v>0.0006626053364016116</v>
       </c>
       <c r="FQ9" t="n">
-        <v>1.755963197069832e-08</v>
+        <v>0.0005835702759213746</v>
       </c>
       <c r="FR9" t="n">
-        <v>8.320423461327664e-09</v>
+        <v>5.551125286729075e-05</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.271681426828764e-08</v>
+        <v>0.0008643326000310481</v>
       </c>
       <c r="FT9" t="n">
-        <v>6.761955262390984e-08</v>
+        <v>0.0004127036081627011</v>
       </c>
       <c r="FU9" t="n">
-        <v>2.117913311394659e-08</v>
+        <v>0.0005485928268171847</v>
       </c>
       <c r="FV9" t="n">
-        <v>4.002616549314553e-08</v>
+        <v>0.001009350758977234</v>
       </c>
       <c r="FW9" t="n">
-        <v>6.105949523771415e-08</v>
+        <v>4.977014032192528e-05</v>
       </c>
       <c r="FX9" t="n">
-        <v>2.369072760188828e-08</v>
+        <v>0.0001798512239474803</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.588174036726286e-08</v>
+        <v>0.001129993819631636</v>
       </c>
       <c r="FZ9" t="n">
-        <v>4.644984485935311e-08</v>
+        <v>0.0005846951971761882</v>
       </c>
       <c r="GA9" t="n">
-        <v>9.886880647513863e-09</v>
+        <v>0.0004633198550436646</v>
       </c>
       <c r="GB9" t="n">
-        <v>2.236174800884783e-09</v>
+        <v>0.0009214146994054317</v>
       </c>
       <c r="GC9" t="n">
-        <v>2.384375719088894e-08</v>
+        <v>7.135216583264992e-05</v>
       </c>
       <c r="GD9" t="n">
-        <v>4.703314360199329e-08</v>
+        <v>0.001489777350798249</v>
       </c>
       <c r="GE9" t="n">
-        <v>7.083877040514608e-09</v>
+        <v>0.001660451875068247</v>
       </c>
       <c r="GF9" t="n">
-        <v>5.390269919303137e-08</v>
+        <v>9.542154293740168e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>3.306321261220546e-08</v>
+        <v>0.0005872289184480906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.960570443770848e-06</v>
+        <v>0.04251489788293839</v>
       </c>
       <c r="B10" t="n">
-        <v>3.949903202737914e-06</v>
+        <v>0.2423006445169449</v>
       </c>
       <c r="C10" t="n">
-        <v>2.608636577861034e-06</v>
+        <v>0.02789902500808239</v>
       </c>
       <c r="D10" t="n">
-        <v>5.897939445276279e-06</v>
+        <v>0.07556769251823425</v>
       </c>
       <c r="E10" t="n">
-        <v>2.163906401619897e-06</v>
+        <v>0.0009601777419447899</v>
       </c>
       <c r="F10" t="n">
-        <v>1.112137397285551e-06</v>
+        <v>0.03213744983077049</v>
       </c>
       <c r="G10" t="n">
-        <v>2.311802518306649e-07</v>
+        <v>0.01841015182435513</v>
       </c>
       <c r="H10" t="n">
-        <v>5.346106490833336e-08</v>
+        <v>0.002876612357795238</v>
       </c>
       <c r="I10" t="n">
-        <v>1.946486236192868e-06</v>
+        <v>0.01192282885313034</v>
       </c>
       <c r="J10" t="n">
-        <v>6.281236437644111e-07</v>
+        <v>0.04923909157514572</v>
       </c>
       <c r="K10" t="n">
-        <v>1.731255110826169e-06</v>
+        <v>0.1428493112325668</v>
       </c>
       <c r="L10" t="n">
-        <v>2.893203827625257e-06</v>
+        <v>0.007023570593446493</v>
       </c>
       <c r="M10" t="n">
-        <v>6.841603408247465e-06</v>
+        <v>0.1051209270954132</v>
       </c>
       <c r="N10" t="n">
-        <v>4.263796199666103e-06</v>
+        <v>0.05558470636606216</v>
       </c>
       <c r="O10" t="n">
-        <v>3.241647846152773e-06</v>
+        <v>0.06755297631025314</v>
       </c>
       <c r="P10" t="n">
-        <v>1.227220991495415e-07</v>
+        <v>0.01895105093717575</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.101641939589172e-06</v>
+        <v>0.01740138977766037</v>
       </c>
       <c r="R10" t="n">
-        <v>2.883958131860709e-06</v>
+        <v>0.009920881129801273</v>
       </c>
       <c r="S10" t="n">
-        <v>2.690680275918567e-06</v>
+        <v>0.01227108761668205</v>
       </c>
       <c r="T10" t="n">
-        <v>5.507724267772574e-07</v>
+        <v>0.04812834411859512</v>
       </c>
       <c r="U10" t="n">
-        <v>1.461855276829738e-07</v>
+        <v>0.02914627455174923</v>
       </c>
       <c r="V10" t="n">
-        <v>3.051541455079132e-07</v>
+        <v>0.02143140137195587</v>
       </c>
       <c r="W10" t="n">
-        <v>4.236512722854968e-06</v>
+        <v>0.001703624613583088</v>
       </c>
       <c r="X10" t="n">
-        <v>9.726339840199216e-07</v>
+        <v>0.03014373034238815</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.423928647971479e-07</v>
+        <v>0.00612952746450901</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.511933191977732e-07</v>
+        <v>0.003532582428306341</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.3213343663665e-07</v>
+        <v>0.003717474639415741</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.597975369804772e-06</v>
+        <v>0.02981670387089252</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.364394948832341e-07</v>
+        <v>0.04738496989011765</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.742680638017191e-06</v>
+        <v>0.01573318056762218</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.37528911636764e-06</v>
+        <v>0.01445338875055313</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.749790499161463e-06</v>
+        <v>0.01346507854759693</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.082993316638749e-06</v>
+        <v>0.00269220257177949</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.183715767183458e-06</v>
+        <v>0.01985977217555046</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.739942482956394e-07</v>
+        <v>0.004226827528327703</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.187872044283722e-06</v>
+        <v>6.964663043618202e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>8.130768947012257e-07</v>
+        <v>0.03300519287586212</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.543827678091475e-07</v>
+        <v>0.005215599667280912</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.038374762174499e-06</v>
+        <v>0.02399339154362679</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.231302235282783e-06</v>
+        <v>0.02660639397799969</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.725159783447452e-07</v>
+        <v>0.02960055135190487</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.539738362538628e-07</v>
+        <v>0.02062159031629562</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.673216895094811e-07</v>
+        <v>0.007045187056064606</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.972085783563671e-07</v>
+        <v>0.0122629152610898</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.531816888535104e-07</v>
+        <v>0.009138390421867371</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.285905568693124e-06</v>
+        <v>0.009305204264819622</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.688718201530719e-08</v>
+        <v>0.2025985419750214</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.857258323274436e-07</v>
+        <v>0.01563918590545654</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.545125769553124e-06</v>
+        <v>0.01233190763741732</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.800722652158584e-07</v>
+        <v>0.05576442927122116</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.221289608110965e-06</v>
+        <v>0.02285796962678432</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.432212343388528e-06</v>
+        <v>0.007923061959445477</v>
       </c>
       <c r="BA10" t="n">
-        <v>3.524941121213487e-07</v>
+        <v>0.01140124350786209</v>
       </c>
       <c r="BB10" t="n">
-        <v>4.373807200863666e-07</v>
+        <v>0.002863194094970822</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.736549393172027e-07</v>
+        <v>0.0008444767445325851</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.508807599748252e-06</v>
+        <v>0.04222434014081955</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.124240381817799e-06</v>
+        <v>0.04364559426903725</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.453137196629541e-06</v>
+        <v>0.01819113828241825</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.698743512359215e-06</v>
+        <v>0.06943070888519287</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.604798510219553e-07</v>
+        <v>0.05406986549496651</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.20588844968006e-06</v>
+        <v>0.0009438327979296446</v>
       </c>
       <c r="BJ10" t="n">
-        <v>9.0676968511616e-07</v>
+        <v>0.02206071093678474</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.509046001046954e-06</v>
+        <v>0.001746386988088489</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.257788480619638e-07</v>
+        <v>0.05984733626246452</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.124111236094905e-06</v>
+        <v>0.07222090661525726</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.529440055492159e-06</v>
+        <v>0.02018322609364986</v>
       </c>
       <c r="BO10" t="n">
-        <v>7.37015739105118e-07</v>
+        <v>0.03316264972090721</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.102681492033298e-06</v>
+        <v>0.03864966705441475</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2.918413315455837e-07</v>
+        <v>0.01157716754823923</v>
       </c>
       <c r="BR10" t="n">
-        <v>5.165801439943607e-07</v>
+        <v>0.005112845450639725</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.461242078448777e-07</v>
+        <v>0.01759396493434906</v>
       </c>
       <c r="BT10" t="n">
-        <v>5.879854825252551e-09</v>
+        <v>0.008320005610585213</v>
       </c>
       <c r="BU10" t="n">
-        <v>7.808940267750586e-07</v>
+        <v>0.01279967743903399</v>
       </c>
       <c r="BV10" t="n">
-        <v>5.481500409132423e-08</v>
+        <v>0.09418170899152756</v>
       </c>
       <c r="BW10" t="n">
-        <v>7.756751756460289e-07</v>
+        <v>0.006432349793612957</v>
       </c>
       <c r="BX10" t="n">
-        <v>3.19688297167886e-06</v>
+        <v>0.01664326712489128</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.310115405634861e-07</v>
+        <v>0.02136643044650555</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2.726768002503377e-07</v>
+        <v>0.05936441570520401</v>
       </c>
       <c r="CA10" t="n">
-        <v>4.099037766991387e-07</v>
+        <v>0.0162791945040226</v>
       </c>
       <c r="CB10" t="n">
-        <v>8.387814887100831e-10</v>
+        <v>0.004380835220217705</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.386178496431967e-06</v>
+        <v>0.001293341396376491</v>
       </c>
       <c r="CD10" t="n">
-        <v>5.988318889649236e-07</v>
+        <v>0.0164252482354641</v>
       </c>
       <c r="CE10" t="n">
-        <v>4.988961563867633e-07</v>
+        <v>0.04679057747125626</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.255368940495828e-07</v>
+        <v>0.004267035517841578</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.16772730507364e-06</v>
+        <v>0.003012133063748479</v>
       </c>
       <c r="CH10" t="n">
-        <v>5.326579071152082e-07</v>
+        <v>0.0175008624792099</v>
       </c>
       <c r="CI10" t="n">
-        <v>2.629695927680586e-07</v>
+        <v>0.001522140693850815</v>
       </c>
       <c r="CJ10" t="n">
-        <v>4.328746427972874e-08</v>
+        <v>0.006790535058826208</v>
       </c>
       <c r="CK10" t="n">
-        <v>8.038015408828869e-08</v>
+        <v>0.004082199186086655</v>
       </c>
       <c r="CL10" t="n">
-        <v>7.76337969909946e-07</v>
+        <v>0.002209876431152225</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.195078311866382e-07</v>
+        <v>0.04848899319767952</v>
       </c>
       <c r="CN10" t="n">
-        <v>1.39245150876377e-06</v>
+        <v>0.05277193337678909</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.611479802932081e-07</v>
+        <v>0.02394843101501465</v>
       </c>
       <c r="CP10" t="n">
-        <v>2.667376520548714e-06</v>
+        <v>0.06958396732807159</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.14506326301489e-06</v>
+        <v>0.03740890696644783</v>
       </c>
       <c r="CR10" t="n">
-        <v>5.345161753211869e-07</v>
+        <v>0.04868000000715256</v>
       </c>
       <c r="CS10" t="n">
-        <v>6.045699763035373e-08</v>
+        <v>0.01439353358000517</v>
       </c>
       <c r="CT10" t="n">
-        <v>6.533000487252139e-07</v>
+        <v>0.01173654943704605</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.068542701432307e-06</v>
+        <v>0.004438825882971287</v>
       </c>
       <c r="CV10" t="n">
-        <v>4.914170403935714e-07</v>
+        <v>0.01746216788887978</v>
       </c>
       <c r="CW10" t="n">
-        <v>1.183205654342601e-06</v>
+        <v>0.0372447557747364</v>
       </c>
       <c r="CX10" t="n">
-        <v>4.122963304098448e-09</v>
+        <v>0.007895324379205704</v>
       </c>
       <c r="CY10" t="n">
-        <v>9.986518989535398e-07</v>
+        <v>0.01086444687098265</v>
       </c>
       <c r="CZ10" t="n">
-        <v>4.380362383926695e-07</v>
+        <v>0.02230730280280113</v>
       </c>
       <c r="DA10" t="n">
-        <v>3.375728852006432e-07</v>
+        <v>0.004809389356523752</v>
       </c>
       <c r="DB10" t="n">
-        <v>7.34578620154025e-08</v>
+        <v>0.006148329004645348</v>
       </c>
       <c r="DC10" t="n">
-        <v>2.74183008741602e-07</v>
+        <v>0.002318395301699638</v>
       </c>
       <c r="DD10" t="n">
-        <v>7.711594207648886e-07</v>
+        <v>0.003296527778729796</v>
       </c>
       <c r="DE10" t="n">
-        <v>1.687663257143868e-06</v>
+        <v>0.005380838178098202</v>
       </c>
       <c r="DF10" t="n">
-        <v>1.492912360845366e-06</v>
+        <v>0.03374380990862846</v>
       </c>
       <c r="DG10" t="n">
-        <v>6.585189566976624e-07</v>
+        <v>0.0230444148182869</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.560262489874731e-06</v>
+        <v>0.01108589209616184</v>
       </c>
       <c r="DI10" t="n">
-        <v>1.575690930621931e-06</v>
+        <v>0.009497548453509808</v>
       </c>
       <c r="DJ10" t="n">
-        <v>2.169928848161362e-06</v>
+        <v>0.02410112321376801</v>
       </c>
       <c r="DK10" t="n">
-        <v>1.100633539863338e-06</v>
+        <v>0.01267407462000847</v>
       </c>
       <c r="DL10" t="n">
-        <v>2.953499233626644e-06</v>
+        <v>0.01250443235039711</v>
       </c>
       <c r="DM10" t="n">
-        <v>3.998145530204056e-07</v>
+        <v>0.0002239820605609566</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.045478086325602e-07</v>
+        <v>0.03497473150491714</v>
       </c>
       <c r="DO10" t="n">
-        <v>9.221164418704575e-07</v>
+        <v>0.01548373140394688</v>
       </c>
       <c r="DP10" t="n">
-        <v>2.187737351277974e-07</v>
+        <v>0.0295926108956337</v>
       </c>
       <c r="DQ10" t="n">
-        <v>2.988662402003683e-07</v>
+        <v>0.009211552329361439</v>
       </c>
       <c r="DR10" t="n">
-        <v>8.027387821130105e-07</v>
+        <v>0.008862148970365524</v>
       </c>
       <c r="DS10" t="n">
-        <v>6.943722610230907e-07</v>
+        <v>0.01819067820906639</v>
       </c>
       <c r="DT10" t="n">
-        <v>2.799084199978097e-07</v>
+        <v>0.00191396102309227</v>
       </c>
       <c r="DU10" t="n">
-        <v>5.338466735338443e-07</v>
+        <v>0.00358618120662868</v>
       </c>
       <c r="DV10" t="n">
-        <v>4.631896217688336e-07</v>
+        <v>0.00484205549582839</v>
       </c>
       <c r="DW10" t="n">
-        <v>7.611497494508512e-07</v>
+        <v>0.00602441094815731</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.413361246704881e-06</v>
+        <v>0.003051223931834102</v>
       </c>
       <c r="DY10" t="n">
-        <v>8.949429997073821e-08</v>
+        <v>0.03367971256375313</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.531549628452922e-06</v>
+        <v>0.009085807017982006</v>
       </c>
       <c r="EA10" t="n">
-        <v>8.135311873047613e-07</v>
+        <v>0.02989338710904121</v>
       </c>
       <c r="EB10" t="n">
-        <v>1.239770199390478e-06</v>
+        <v>0.00304604391567409</v>
       </c>
       <c r="EC10" t="n">
-        <v>4.409496625612519e-07</v>
+        <v>0.002239534631371498</v>
       </c>
       <c r="ED10" t="n">
-        <v>2.515540700187557e-07</v>
+        <v>0.002751945983618498</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.7416303421669e-07</v>
+        <v>0.003408901393413544</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.994675500327503e-07</v>
+        <v>0.02484122850000858</v>
       </c>
       <c r="EG10" t="n">
-        <v>4.325774227709189e-07</v>
+        <v>0.04630226269364357</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.097390978088697e-07</v>
+        <v>0.01964435540139675</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.762685656103713e-06</v>
+        <v>0.005175752565264702</v>
       </c>
       <c r="EJ10" t="n">
-        <v>5.59516024623008e-08</v>
+        <v>0.006763368844985962</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.224887509783002e-07</v>
+        <v>0.009010830894112587</v>
       </c>
       <c r="EL10" t="n">
-        <v>2.617841516894259e-07</v>
+        <v>0.0005267939995974302</v>
       </c>
       <c r="EM10" t="n">
-        <v>5.307367700879695e-08</v>
+        <v>0.009886408224701881</v>
       </c>
       <c r="EN10" t="n">
-        <v>5.315014846019039e-07</v>
+        <v>0.005341460928320885</v>
       </c>
       <c r="EO10" t="n">
-        <v>3.085053634777069e-08</v>
+        <v>0.02193501405417919</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.094073127205775e-06</v>
+        <v>0.02907561883330345</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.276944317396556e-06</v>
+        <v>0.01970846951007843</v>
       </c>
       <c r="ER10" t="n">
-        <v>3.326050830310123e-07</v>
+        <v>0.01978200115263462</v>
       </c>
       <c r="ES10" t="n">
-        <v>6.620762178499717e-07</v>
+        <v>0.02778644487261772</v>
       </c>
       <c r="ET10" t="n">
-        <v>7.893144697845855e-07</v>
+        <v>0.03507624939084053</v>
       </c>
       <c r="EU10" t="n">
-        <v>3.401028720873001e-07</v>
+        <v>0.0153428427875042</v>
       </c>
       <c r="EV10" t="n">
-        <v>6.604512918784167e-07</v>
+        <v>2.829940058290958e-05</v>
       </c>
       <c r="EW10" t="n">
-        <v>5.577485140406679e-08</v>
+        <v>0.007212057709693909</v>
       </c>
       <c r="EX10" t="n">
-        <v>3.678619862057531e-07</v>
+        <v>0.01039291638880968</v>
       </c>
       <c r="EY10" t="n">
-        <v>7.597295166306139e-07</v>
+        <v>0.04044263809919357</v>
       </c>
       <c r="EZ10" t="n">
-        <v>5.992724538828043e-09</v>
+        <v>0.0003062861505895853</v>
       </c>
       <c r="FA10" t="n">
-        <v>6.801747076679021e-07</v>
+        <v>0.000905384193174541</v>
       </c>
       <c r="FB10" t="n">
-        <v>8.267197131317516e-07</v>
+        <v>0.006890896707773209</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.725316221585672e-07</v>
+        <v>0.007986700162291527</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.614937588101384e-07</v>
+        <v>0.006026292219758034</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.106810998408037e-07</v>
+        <v>0.003765992121770978</v>
       </c>
       <c r="FF10" t="n">
-        <v>2.750189196376596e-07</v>
+        <v>0.005200803279876709</v>
       </c>
       <c r="FG10" t="n">
-        <v>1.846424765972188e-06</v>
+        <v>0.01454248838126659</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.033164522823427e-07</v>
+        <v>0.002000549342483282</v>
       </c>
       <c r="FI10" t="n">
-        <v>6.27933388841484e-07</v>
+        <v>0.004418188706040382</v>
       </c>
       <c r="FJ10" t="n">
-        <v>8.926414238885627e-07</v>
+        <v>0.01264160219579935</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.206122988151037e-06</v>
+        <v>0.01575186103582382</v>
       </c>
       <c r="FL10" t="n">
-        <v>1.043529891830985e-06</v>
+        <v>4.204129800200462e-05</v>
       </c>
       <c r="FM10" t="n">
-        <v>6.557760343639529e-07</v>
+        <v>0.0108789736405015</v>
       </c>
       <c r="FN10" t="n">
-        <v>4.708484198090446e-07</v>
+        <v>0.0061683040112257</v>
       </c>
       <c r="FO10" t="n">
-        <v>1.659917415963719e-06</v>
+        <v>0.006994318217039108</v>
       </c>
       <c r="FP10" t="n">
-        <v>3.27658710830292e-07</v>
+        <v>0.01853430457413197</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1.27356400980716e-07</v>
+        <v>0.05304418504238129</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.138658802801729e-07</v>
+        <v>0.005494724027812481</v>
       </c>
       <c r="FS10" t="n">
-        <v>2.174227574869292e-06</v>
+        <v>0.05732166394591331</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.241786264927214e-07</v>
+        <v>0.03374484181404114</v>
       </c>
       <c r="FU10" t="n">
-        <v>2.70998316409532e-06</v>
+        <v>0.01122759096324444</v>
       </c>
       <c r="FV10" t="n">
-        <v>4.336571350904705e-07</v>
+        <v>0.004178836941719055</v>
       </c>
       <c r="FW10" t="n">
-        <v>3.836651671917934e-07</v>
+        <v>0.002742044162005186</v>
       </c>
       <c r="FX10" t="n">
-        <v>2.269364586027223e-06</v>
+        <v>0.01100881025195122</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.68325016147719e-07</v>
+        <v>0.04121429845690727</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.164750187854224e-06</v>
+        <v>0.02858726121485233</v>
       </c>
       <c r="GA10" t="n">
-        <v>1.420431203769112e-07</v>
+        <v>0.006733109708875418</v>
       </c>
       <c r="GB10" t="n">
-        <v>1.001110717879783e-06</v>
+        <v>0.007687131408601999</v>
       </c>
       <c r="GC10" t="n">
-        <v>3.833272330666659e-06</v>
+        <v>0.041758943349123</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.582482636626082e-07</v>
+        <v>0.02246607840061188</v>
       </c>
       <c r="GE10" t="n">
-        <v>6.443012523504876e-08</v>
+        <v>0.02241328917443752</v>
       </c>
       <c r="GF10" t="n">
-        <v>5.81610663630272e-07</v>
+        <v>0.01704837195575237</v>
       </c>
       <c r="GG10" t="n">
-        <v>6.081159540372028e-07</v>
+        <v>0.002413426991552114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.129990198633912e-11</v>
+        <v>0.001464333385229111</v>
       </c>
       <c r="B11" t="n">
-        <v>8.081878222210293e-11</v>
+        <v>0.01682412251830101</v>
       </c>
       <c r="C11" t="n">
-        <v>5.145700879283233e-11</v>
+        <v>0.001639077672734857</v>
       </c>
       <c r="D11" t="n">
-        <v>1.694741569302494e-10</v>
+        <v>0.004168602637946606</v>
       </c>
       <c r="E11" t="n">
-        <v>1.25884108692631e-10</v>
+        <v>0.01411744672805071</v>
       </c>
       <c r="F11" t="n">
-        <v>2.487851868959723e-10</v>
+        <v>0.0005931508494541049</v>
       </c>
       <c r="G11" t="n">
-        <v>8.224198405626382e-11</v>
+        <v>4.836253356188536e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>5.958020882212978e-11</v>
+        <v>0.003629937535151839</v>
       </c>
       <c r="I11" t="n">
-        <v>7.832194615087218e-11</v>
+        <v>0.001043754047714174</v>
       </c>
       <c r="J11" t="n">
-        <v>2.111174950136796e-11</v>
+        <v>0.002462286269292235</v>
       </c>
       <c r="K11" t="n">
-        <v>1.611471789342289e-10</v>
+        <v>0.01410860754549503</v>
       </c>
       <c r="L11" t="n">
-        <v>4.219356808388142e-11</v>
+        <v>0.001538803335279226</v>
       </c>
       <c r="M11" t="n">
-        <v>1.573983443581284e-10</v>
+        <v>0.0008286295342259109</v>
       </c>
       <c r="N11" t="n">
-        <v>2.417853972591644e-10</v>
+        <v>0.009895773604512215</v>
       </c>
       <c r="O11" t="n">
-        <v>1.187803588126313e-11</v>
+        <v>9.411427890881896e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>1.208860372914344e-10</v>
+        <v>0.0007529594004154205</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.085238079956419e-10</v>
+        <v>0.0005708526587113738</v>
       </c>
       <c r="R11" t="n">
-        <v>4.718408649906358e-11</v>
+        <v>0.001483401283621788</v>
       </c>
       <c r="S11" t="n">
-        <v>3.081254695835867e-11</v>
+        <v>0.0003975718573201448</v>
       </c>
       <c r="T11" t="n">
-        <v>5.936480473867078e-12</v>
+        <v>0.002547648502513766</v>
       </c>
       <c r="U11" t="n">
-        <v>6.394708373935742e-11</v>
+        <v>0.001376562868244946</v>
       </c>
       <c r="V11" t="n">
-        <v>1.702132740311058e-10</v>
+        <v>0.002528400626033545</v>
       </c>
       <c r="W11" t="n">
-        <v>1.560103018993786e-10</v>
+        <v>0.005918432958424091</v>
       </c>
       <c r="X11" t="n">
-        <v>1.990311995075933e-12</v>
+        <v>0.001007316051982343</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.647754651785021e-11</v>
+        <v>0.0002995738759636879</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.791276568884896e-11</v>
+        <v>0.002684655133634806</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.910263613957852e-11</v>
+        <v>0.0005930202314630151</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.444507179484191e-11</v>
+        <v>0.000243554706685245</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.661793090969923e-11</v>
+        <v>0.001009497325867414</v>
       </c>
       <c r="AD11" t="n">
-        <v>5.424498697448321e-11</v>
+        <v>0.00157367205247283</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.743938465859074e-10</v>
+        <v>0.0007298817508853972</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.097259420105971e-11</v>
+        <v>0.002072634873911738</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.118094991592322e-10</v>
+        <v>0.0005694691790267825</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.46372910592963e-11</v>
+        <v>0.001989120384678245</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.054409999542656e-12</v>
+        <v>0.0007738062413409352</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4.171694240051593e-12</v>
+        <v>0.001002047443762422</v>
       </c>
       <c r="AK11" t="n">
-        <v>9.258410010870577e-12</v>
+        <v>0.002266441471874714</v>
       </c>
       <c r="AL11" t="n">
-        <v>8.52633103010092e-11</v>
+        <v>0.00300353835336864</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.93044502394946e-11</v>
+        <v>0.002001452259719372</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.624798156602992e-10</v>
+        <v>0.000520473113283515</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.034315250976082e-11</v>
+        <v>0.001399375032633543</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.157776235993779e-10</v>
+        <v>0.002680595964193344</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.321024799966208e-11</v>
+        <v>0.0001783836632966995</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.854216838882767e-12</v>
+        <v>0.0004848236567340791</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.405079434220081e-11</v>
+        <v>0.0005382357630878687</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.994039474153332e-12</v>
+        <v>0.001119209337048233</v>
       </c>
       <c r="AU11" t="n">
-        <v>2.652666974967133e-10</v>
+        <v>0.01261539943516254</v>
       </c>
       <c r="AV11" t="n">
-        <v>6.64001145733728e-12</v>
+        <v>0.0008838918292894959</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.919916808341583e-10</v>
+        <v>0.0001729805371724069</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.270042209762124e-10</v>
+        <v>0.004164752550423145</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.21123860941097e-10</v>
+        <v>0.003639348782598972</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3.635195616746856e-11</v>
+        <v>0.00331789767369628</v>
       </c>
       <c r="BA11" t="n">
-        <v>6.79153122629117e-11</v>
+        <v>0.0001184709108201787</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.542983935065578e-10</v>
+        <v>0.002536758314818144</v>
       </c>
       <c r="BC11" t="n">
-        <v>5.691085797066009e-11</v>
+        <v>0.002412888687103987</v>
       </c>
       <c r="BD11" t="n">
-        <v>8.937921583407338e-12</v>
+        <v>0.005697618238627911</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.802705207332167e-11</v>
+        <v>2.042419509962201e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>9.78127995265865e-11</v>
+        <v>1.845188671723008e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.620494377048033e-10</v>
+        <v>0.005554014351218939</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.484350836689075e-12</v>
+        <v>0.0002926500746980309</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.23563340115318e-10</v>
+        <v>0.002497291658073664</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1.276426603302738e-10</v>
+        <v>0.0001520111400168389</v>
       </c>
       <c r="BK11" t="n">
-        <v>7.260751722082404e-11</v>
+        <v>0.0009006751351989806</v>
       </c>
       <c r="BL11" t="n">
-        <v>4.960435187606471e-11</v>
+        <v>0.004064348060637712</v>
       </c>
       <c r="BM11" t="n">
-        <v>3.35616222313373e-11</v>
+        <v>0.00512280035763979</v>
       </c>
       <c r="BN11" t="n">
-        <v>7.187956480025903e-11</v>
+        <v>0.001417902298271656</v>
       </c>
       <c r="BO11" t="n">
-        <v>9.371716597206259e-11</v>
+        <v>0.001830869819968939</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.44513373490085e-10</v>
+        <v>0.003450729418545961</v>
       </c>
       <c r="BQ11" t="n">
-        <v>7.323834594341605e-11</v>
+        <v>0.00201197387650609</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.444613734191691e-10</v>
+        <v>8.816563058644533e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>2.026074863437088e-10</v>
+        <v>0.00163671572227031</v>
       </c>
       <c r="BT11" t="n">
-        <v>1.639615526682903e-12</v>
+        <v>0.0004190693725831807</v>
       </c>
       <c r="BU11" t="n">
-        <v>6.541481939459359e-11</v>
+        <v>0.001621880102902651</v>
       </c>
       <c r="BV11" t="n">
-        <v>2.636733539840286e-11</v>
+        <v>0.008763907477259636</v>
       </c>
       <c r="BW11" t="n">
-        <v>5.166440539272621e-11</v>
+        <v>0.00274207373149693</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.609921723184527e-10</v>
+        <v>0.0005703261122107506</v>
       </c>
       <c r="BY11" t="n">
-        <v>6.065177526881627e-11</v>
+        <v>0.001651839585974813</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.164091947836177e-10</v>
+        <v>0.002752251690253615</v>
       </c>
       <c r="CA11" t="n">
-        <v>9.747175289120946e-11</v>
+        <v>0.001100976020097733</v>
       </c>
       <c r="CB11" t="n">
-        <v>5.35354052755288e-12</v>
+        <v>0.0008495599613524973</v>
       </c>
       <c r="CC11" t="n">
-        <v>1.351280892736284e-10</v>
+        <v>0.0004626301524695009</v>
       </c>
       <c r="CD11" t="n">
-        <v>5.844562247364626e-12</v>
+        <v>0.0003897201386280358</v>
       </c>
       <c r="CE11" t="n">
-        <v>2.124268642933469e-11</v>
+        <v>0.002534861443564296</v>
       </c>
       <c r="CF11" t="n">
-        <v>3.019998487396869e-11</v>
+        <v>0.0004049627168569714</v>
       </c>
       <c r="CG11" t="n">
-        <v>5.362733868086167e-11</v>
+        <v>0.0009722747490741313</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.9365880427058e-11</v>
+        <v>0.002154490444809198</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.781092287544972e-11</v>
+        <v>0.0002050059556495398</v>
       </c>
       <c r="CJ11" t="n">
-        <v>7.052516556860233e-12</v>
+        <v>0.00158372544683516</v>
       </c>
       <c r="CK11" t="n">
-        <v>2.590570466476372e-11</v>
+        <v>0.0009723198018036783</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.819868040986439e-13</v>
+        <v>0.0001421450433554128</v>
       </c>
       <c r="CM11" t="n">
-        <v>4.330647646044739e-11</v>
+        <v>0.00392812816426158</v>
       </c>
       <c r="CN11" t="n">
-        <v>8.667895567970874e-11</v>
+        <v>0.004820228554308414</v>
       </c>
       <c r="CO11" t="n">
-        <v>4.791080726596064e-11</v>
+        <v>6.447982741519809e-05</v>
       </c>
       <c r="CP11" t="n">
-        <v>2.427127387960581e-10</v>
+        <v>0.001693642698228359</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.410252817302116e-11</v>
+        <v>0.003504372434690595</v>
       </c>
       <c r="CR11" t="n">
-        <v>1.476909428088646e-10</v>
+        <v>4.027027171105146e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>1.579505415350013e-10</v>
+        <v>0.00303883827291429</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.461236132094257e-10</v>
+        <v>0.002246035728603601</v>
       </c>
       <c r="CU11" t="n">
-        <v>9.283610685750787e-11</v>
+        <v>0.0001448231632821262</v>
       </c>
       <c r="CV11" t="n">
-        <v>2.185541851662531e-11</v>
+        <v>2.681949990801513e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>7.751542463463323e-12</v>
+        <v>0.001824535895138979</v>
       </c>
       <c r="CX11" t="n">
-        <v>2.236717755454976e-12</v>
+        <v>7.283337617991492e-05</v>
       </c>
       <c r="CY11" t="n">
-        <v>5.56442877885921e-11</v>
+        <v>0.001476689008995891</v>
       </c>
       <c r="CZ11" t="n">
-        <v>1.925034437411099e-11</v>
+        <v>0.00149733480066061</v>
       </c>
       <c r="DA11" t="n">
-        <v>2.927316028467075e-11</v>
+        <v>0.0005644505145028234</v>
       </c>
       <c r="DB11" t="n">
-        <v>3.041789736757394e-11</v>
+        <v>0.001062091556377709</v>
       </c>
       <c r="DC11" t="n">
-        <v>3.023797531809258e-11</v>
+        <v>0.0009052968816831708</v>
       </c>
       <c r="DD11" t="n">
-        <v>1.406773308954001e-11</v>
+        <v>8.26621544547379e-06</v>
       </c>
       <c r="DE11" t="n">
-        <v>3.932203174183968e-11</v>
+        <v>0.0008687445661053061</v>
       </c>
       <c r="DF11" t="n">
-        <v>9.706799253272891e-11</v>
+        <v>0.002712182234972715</v>
       </c>
       <c r="DG11" t="n">
-        <v>2.757311740042567e-11</v>
+        <v>0.0007843765779398382</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.242310087607891e-10</v>
+        <v>0.009215017780661583</v>
       </c>
       <c r="DI11" t="n">
-        <v>2.887398653506068e-10</v>
+        <v>0.005796205252408981</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1.349408640383132e-10</v>
+        <v>0.0002272632264066488</v>
       </c>
       <c r="DK11" t="n">
-        <v>2.203035323611324e-11</v>
+        <v>0.003257263917475939</v>
       </c>
       <c r="DL11" t="n">
-        <v>1.684275496849352e-10</v>
+        <v>0.0005065920413471758</v>
       </c>
       <c r="DM11" t="n">
-        <v>6.406952746118577e-11</v>
+        <v>0.003673795377835631</v>
       </c>
       <c r="DN11" t="n">
-        <v>5.952918713525435e-11</v>
+        <v>0.0008686664514243603</v>
       </c>
       <c r="DO11" t="n">
-        <v>2.097527013189548e-12</v>
+        <v>0.001775798620656133</v>
       </c>
       <c r="DP11" t="n">
-        <v>5.235100547507088e-12</v>
+        <v>0.0009576687589287758</v>
       </c>
       <c r="DQ11" t="n">
-        <v>3.182262786616263e-11</v>
+        <v>0.0004824619682040066</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.842875435587032e-10</v>
+        <v>0.002365367487072945</v>
       </c>
       <c r="DS11" t="n">
-        <v>1.379532321710286e-10</v>
+        <v>0.001697208732366562</v>
       </c>
       <c r="DT11" t="n">
-        <v>7.10356010125146e-11</v>
+        <v>0.000469489605166018</v>
       </c>
       <c r="DU11" t="n">
-        <v>2.813748192775911e-11</v>
+        <v>0.0001650690392125398</v>
       </c>
       <c r="DV11" t="n">
-        <v>5.383591142327226e-12</v>
+        <v>0.001244233688339591</v>
       </c>
       <c r="DW11" t="n">
-        <v>3.114917351831892e-11</v>
+        <v>0.0005923039861954749</v>
       </c>
       <c r="DX11" t="n">
-        <v>7.821375491712246e-11</v>
+        <v>0.0009376584785059094</v>
       </c>
       <c r="DY11" t="n">
-        <v>2.685856398398911e-11</v>
+        <v>0.001456865924410522</v>
       </c>
       <c r="DZ11" t="n">
-        <v>3.490847194642654e-11</v>
+        <v>0.0001302901655435562</v>
       </c>
       <c r="EA11" t="n">
-        <v>6.07695838095168e-11</v>
+        <v>0.0005537503166124225</v>
       </c>
       <c r="EB11" t="n">
-        <v>3.014970217929402e-11</v>
+        <v>0.0002916670637205243</v>
       </c>
       <c r="EC11" t="n">
-        <v>7.689097969443281e-11</v>
+        <v>0.0004794448905158788</v>
       </c>
       <c r="ED11" t="n">
-        <v>3.448711802245263e-12</v>
+        <v>0.001105197938159108</v>
       </c>
       <c r="EE11" t="n">
-        <v>1.817624176170263e-12</v>
+        <v>0.001765233697369695</v>
       </c>
       <c r="EF11" t="n">
-        <v>4.448936011258731e-12</v>
+        <v>7.212052878458053e-05</v>
       </c>
       <c r="EG11" t="n">
-        <v>1.983068223521123e-11</v>
+        <v>0.002139258431270719</v>
       </c>
       <c r="EH11" t="n">
-        <v>4.447694296194626e-11</v>
+        <v>0.0002829509321600199</v>
       </c>
       <c r="EI11" t="n">
-        <v>8.243244975503217e-11</v>
+        <v>0.0002106373431161046</v>
       </c>
       <c r="EJ11" t="n">
-        <v>3.601348386172987e-11</v>
+        <v>0.002004481386393309</v>
       </c>
       <c r="EK11" t="n">
-        <v>6.722653683732815e-11</v>
+        <v>0.001254835864529014</v>
       </c>
       <c r="EL11" t="n">
-        <v>7.122031436823661e-11</v>
+        <v>0.0007460715714842081</v>
       </c>
       <c r="EM11" t="n">
-        <v>3.109336052520284e-11</v>
+        <v>0.0007892393041402102</v>
       </c>
       <c r="EN11" t="n">
-        <v>7.328471163248196e-11</v>
+        <v>0.0001253499649465084</v>
       </c>
       <c r="EO11" t="n">
-        <v>1.265809679296126e-10</v>
+        <v>0.001572592300362885</v>
       </c>
       <c r="EP11" t="n">
-        <v>8.155513764318556e-11</v>
+        <v>0.0007877026800997555</v>
       </c>
       <c r="EQ11" t="n">
-        <v>2.011693416015259e-11</v>
+        <v>0.001640414819121361</v>
       </c>
       <c r="ER11" t="n">
-        <v>5.71380234792862e-11</v>
+        <v>0.001787821645848453</v>
       </c>
       <c r="ES11" t="n">
-        <v>3.063455392138259e-11</v>
+        <v>0.001845257822424173</v>
       </c>
       <c r="ET11" t="n">
-        <v>5.857956481003512e-11</v>
+        <v>0.002383691957220435</v>
       </c>
       <c r="EU11" t="n">
-        <v>8.444282773023559e-11</v>
+        <v>0.0007917779730632901</v>
       </c>
       <c r="EV11" t="n">
-        <v>9.703966102891926e-11</v>
+        <v>0.003082225332036614</v>
       </c>
       <c r="EW11" t="n">
-        <v>2.292041556550828e-11</v>
+        <v>0.0003459119761828333</v>
       </c>
       <c r="EX11" t="n">
-        <v>1.748485210784079e-11</v>
+        <v>0.0001847460371209309</v>
       </c>
       <c r="EY11" t="n">
-        <v>1.152929141046144e-11</v>
+        <v>0.001520836958661675</v>
       </c>
       <c r="EZ11" t="n">
-        <v>8.877237486770717e-12</v>
+        <v>0.0002170673105865717</v>
       </c>
       <c r="FA11" t="n">
-        <v>2.28496405824119e-11</v>
+        <v>0.00101860542781651</v>
       </c>
       <c r="FB11" t="n">
-        <v>3.394573511172894e-11</v>
+        <v>0.00198303977958858</v>
       </c>
       <c r="FC11" t="n">
-        <v>3.318623154058287e-11</v>
+        <v>0.0007709248457103968</v>
       </c>
       <c r="FD11" t="n">
-        <v>2.557750018727933e-11</v>
+        <v>0.001638047862797976</v>
       </c>
       <c r="FE11" t="n">
-        <v>5.018613996599086e-11</v>
+        <v>0.001067172037437558</v>
       </c>
       <c r="FF11" t="n">
-        <v>1.778234504090648e-11</v>
+        <v>0.0005166417104192078</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.409234118288083e-10</v>
+        <v>5.405413685366511e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>1.097157434348794e-10</v>
+        <v>0.002116650342941284</v>
       </c>
       <c r="FI11" t="n">
-        <v>1.657412228295296e-11</v>
+        <v>0.0002655903808772564</v>
       </c>
       <c r="FJ11" t="n">
-        <v>9.757131907983663e-11</v>
+        <v>0.003154249861836433</v>
       </c>
       <c r="FK11" t="n">
-        <v>1.169107727294616e-10</v>
+        <v>0.0006883976166136563</v>
       </c>
       <c r="FL11" t="n">
-        <v>3.752480964847038e-11</v>
+        <v>0.0001439079351257533</v>
       </c>
       <c r="FM11" t="n">
-        <v>4.246559701104324e-12</v>
+        <v>0.001857048599049449</v>
       </c>
       <c r="FN11" t="n">
-        <v>1.486079731494172e-10</v>
+        <v>0.001156809157691896</v>
       </c>
       <c r="FO11" t="n">
-        <v>2.214688675505894e-11</v>
+        <v>0.0002263061905978248</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.674627103653847e-11</v>
+        <v>0.002637071069329977</v>
       </c>
       <c r="FQ11" t="n">
-        <v>2.144432895145876e-11</v>
+        <v>0.001067430130206048</v>
       </c>
       <c r="FR11" t="n">
-        <v>5.665469482440955e-11</v>
+        <v>0.0006632698932662606</v>
       </c>
       <c r="FS11" t="n">
-        <v>5.511421874437872e-11</v>
+        <v>0.001626715529710054</v>
       </c>
       <c r="FT11" t="n">
-        <v>2.441072621817142e-10</v>
+        <v>0.005359750241041183</v>
       </c>
       <c r="FU11" t="n">
-        <v>1.166859248113994e-10</v>
+        <v>0.0007426530355587602</v>
       </c>
       <c r="FV11" t="n">
-        <v>1.757640560873241e-11</v>
+        <v>0.001314152148552239</v>
       </c>
       <c r="FW11" t="n">
-        <v>1.249720049667502e-10</v>
+        <v>0.0010882169008255</v>
       </c>
       <c r="FX11" t="n">
-        <v>1.775163696593474e-11</v>
+        <v>0.002244937233626842</v>
       </c>
       <c r="FY11" t="n">
-        <v>5.579535097832711e-12</v>
+        <v>0.001575747039169073</v>
       </c>
       <c r="FZ11" t="n">
-        <v>4.045404983221701e-11</v>
+        <v>0.001147776725701988</v>
       </c>
       <c r="GA11" t="n">
-        <v>2.000588930628489e-11</v>
+        <v>0.003171708667650819</v>
       </c>
       <c r="GB11" t="n">
-        <v>2.079625499584736e-10</v>
+        <v>0.001287956489250064</v>
       </c>
       <c r="GC11" t="n">
-        <v>2.511504892943606e-10</v>
+        <v>0.0001142617256846279</v>
       </c>
       <c r="GD11" t="n">
-        <v>2.620794900543011e-11</v>
+        <v>0.003287480445578694</v>
       </c>
       <c r="GE11" t="n">
-        <v>9.721280724850345e-11</v>
+        <v>0.002062787069007754</v>
       </c>
       <c r="GF11" t="n">
-        <v>3.227909953218422e-11</v>
+        <v>9.038660209625959e-06</v>
       </c>
       <c r="GG11" t="n">
-        <v>1.226605709364614e-11</v>
+        <v>0.0005484472494572401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.286078964492845e-09</v>
+        <v>0.0003129625110886991</v>
       </c>
       <c r="B12" t="n">
-        <v>8.408869156539822e-09</v>
+        <v>0.003412106540054083</v>
       </c>
       <c r="C12" t="n">
-        <v>5.336586283988254e-09</v>
+        <v>0.000315767916617915</v>
       </c>
       <c r="D12" t="n">
-        <v>1.497396340255364e-08</v>
+        <v>0.002379689365625381</v>
       </c>
       <c r="E12" t="n">
-        <v>4.684111765129728e-09</v>
+        <v>0.0006407520268112421</v>
       </c>
       <c r="F12" t="n">
-        <v>5.563417282417049e-09</v>
+        <v>0.0005349352140910923</v>
       </c>
       <c r="G12" t="n">
-        <v>8.194573908326674e-10</v>
+        <v>0.0003605438687372953</v>
       </c>
       <c r="H12" t="n">
-        <v>8.10620637281545e-09</v>
+        <v>0.0003508217632770538</v>
       </c>
       <c r="I12" t="n">
-        <v>1.283276818142554e-09</v>
+        <v>7.032811117824167e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.34392985629006e-09</v>
+        <v>0.000506808515638113</v>
       </c>
       <c r="K12" t="n">
-        <v>5.806423786225423e-09</v>
+        <v>0.002263884525746107</v>
       </c>
       <c r="L12" t="n">
-        <v>7.301815152516156e-09</v>
+        <v>2.368669811403379e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>1.623029532993314e-08</v>
+        <v>0.00223161093890667</v>
       </c>
       <c r="N12" t="n">
-        <v>9.395410671686477e-09</v>
+        <v>0.001213983632624149</v>
       </c>
       <c r="O12" t="n">
-        <v>1.094636159493234e-09</v>
+        <v>0.001117321662604809</v>
       </c>
       <c r="P12" t="n">
-        <v>3.185903763025522e-10</v>
+        <v>3.935056156478822e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.164063120512765e-09</v>
+        <v>0.0004000345943495631</v>
       </c>
       <c r="R12" t="n">
-        <v>2.971226820136508e-09</v>
+        <v>0.0002810696023516357</v>
       </c>
       <c r="S12" t="n">
-        <v>1.392821746826201e-09</v>
+        <v>8.567626355215907e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>3.146877203263898e-10</v>
+        <v>0.0006095352000556886</v>
       </c>
       <c r="U12" t="n">
-        <v>3.919954916220547e-10</v>
+        <v>0.0001571598113514483</v>
       </c>
       <c r="V12" t="n">
-        <v>2.700725421078687e-09</v>
+        <v>0.0002650355745572597</v>
       </c>
       <c r="W12" t="n">
-        <v>8.772911286314411e-09</v>
+        <v>0.0001503139792475849</v>
       </c>
       <c r="X12" t="n">
-        <v>1.889711498392899e-09</v>
+        <v>0.0004072590672876686</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.541694327755749e-09</v>
+        <v>0.0004690331697929651</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.015338562699753e-09</v>
+        <v>0.0002149316569557413</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.310685893152197e-09</v>
+        <v>0.0001533021422801539</v>
       </c>
       <c r="AB12" t="n">
-        <v>4.629386207710695e-09</v>
+        <v>0.0002819692599587142</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.945575143329052e-10</v>
+        <v>0.0008447218569926918</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.678046614640778e-10</v>
+        <v>8.407215500483289e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>4.4641592644723e-09</v>
+        <v>0.0002247609518235549</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.930720111038454e-10</v>
+        <v>0.0003211370785720646</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.720911635416655e-09</v>
+        <v>0.0001793811243260279</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.287171032212882e-11</v>
+        <v>0.0004180044925305992</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.006395074173668e-10</v>
+        <v>0.0001582306867931038</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.851732680170699e-10</v>
+        <v>1.69504764926387e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.855130437102616e-09</v>
+        <v>0.0001732791715767235</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.914002951916245e-10</v>
+        <v>0.000344545696862042</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.087109262140842e-10</v>
+        <v>5.918118040426634e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.62313101532186e-10</v>
+        <v>0.0001988327276194468</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.260073489994795e-09</v>
+        <v>0.0004194510984234512</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.243434575419315e-09</v>
+        <v>0.0004138653457630426</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6.110055239538781e-10</v>
+        <v>0.0001581374381203204</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.184098707973646e-09</v>
+        <v>0.0001709817152004689</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.305248297280627e-10</v>
+        <v>9.860385034698993e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>5.989184259647118e-09</v>
+        <v>0.0003883039462380111</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.288310399644615e-09</v>
+        <v>0.002622878178954124</v>
       </c>
       <c r="AV12" t="n">
-        <v>5.203063757619475e-09</v>
+        <v>1.497927132732002e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.1863085503403e-09</v>
+        <v>0.0001798150769900531</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.256176496156058e-09</v>
+        <v>0.0004585946444422007</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.659417270261088e-09</v>
+        <v>0.0001584803976584226</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1.251740239238686e-10</v>
+        <v>7.282808655872941e-05</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.809998704364716e-09</v>
+        <v>0.0002120393473887816</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.463005437964739e-10</v>
+        <v>6.108910019975156e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>9.216448715321235e-10</v>
+        <v>1.892570799100213e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>6.906079041968383e-10</v>
+        <v>0.0004449232073966414</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.163807133470641e-09</v>
+        <v>0.0006291468744166195</v>
       </c>
       <c r="BF12" t="n">
-        <v>7.308257110594241e-09</v>
+        <v>0.0005932148778811097</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.603489452328688e-09</v>
+        <v>0.001299128634855151</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.35274891288617e-09</v>
+        <v>0.0003568674437701702</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.252177139754451e-09</v>
+        <v>0.0006288690492510796</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.43623768328527e-10</v>
+        <v>0.000292726734187454</v>
       </c>
       <c r="BK12" t="n">
-        <v>3.697779027422854e-10</v>
+        <v>0.000332866475218907</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.137449232024856e-10</v>
+        <v>0.0005870829918421805</v>
       </c>
       <c r="BM12" t="n">
-        <v>4.377820328471671e-09</v>
+        <v>0.0006161787896417081</v>
       </c>
       <c r="BN12" t="n">
-        <v>2.394055176324628e-09</v>
+        <v>0.0002117245458066463</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.809926513691607e-09</v>
+        <v>2.238948945887387e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>3.917469015846109e-09</v>
+        <v>0.0006113741546869278</v>
       </c>
       <c r="BQ12" t="n">
-        <v>3.011748628267696e-10</v>
+        <v>0.0002814666950143874</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.518936976196983e-09</v>
+        <v>0.0005579640856012702</v>
       </c>
       <c r="BS12" t="n">
-        <v>3.202152321080121e-09</v>
+        <v>0.0005085539305582643</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.562467710769511e-09</v>
+        <v>3.328316233819351e-05</v>
       </c>
       <c r="BU12" t="n">
-        <v>5.983149087285256e-09</v>
+        <v>0.0002422994584776461</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.619130496344212e-09</v>
+        <v>0.001301362179219723</v>
       </c>
       <c r="BW12" t="n">
-        <v>6.621221348979134e-10</v>
+        <v>0.0003025513142347336</v>
       </c>
       <c r="BX12" t="n">
-        <v>8.628837200319595e-09</v>
+        <v>0.0002281248162034899</v>
       </c>
       <c r="BY12" t="n">
-        <v>7.257263678894788e-10</v>
+        <v>0.0001289037027163431</v>
       </c>
       <c r="BZ12" t="n">
-        <v>5.540583991603398e-09</v>
+        <v>0.0005393422907218337</v>
       </c>
       <c r="CA12" t="n">
-        <v>4.782414464443718e-10</v>
+        <v>0.000136364862555638</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.462802184410862e-09</v>
+        <v>1.746279303915799e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.916529379641929e-09</v>
+        <v>0.0001123694819398224</v>
       </c>
       <c r="CD12" t="n">
-        <v>1.670019678101653e-09</v>
+        <v>0.0002046604931820184</v>
       </c>
       <c r="CE12" t="n">
-        <v>9.88746529095863e-10</v>
+        <v>0.0006289409357123077</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.871242938378259e-09</v>
+        <v>0.0001657041138969362</v>
       </c>
       <c r="CG12" t="n">
-        <v>2.764778850306016e-09</v>
+        <v>0.0001396931329509243</v>
       </c>
       <c r="CH12" t="n">
-        <v>2.154350253746884e-09</v>
+        <v>0.0001696290564723313</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.632867840939412e-09</v>
+        <v>0.0001589352468727157</v>
       </c>
       <c r="CJ12" t="n">
-        <v>2.882896699141213e-10</v>
+        <v>0.0002607369096949697</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.197034998374647e-09</v>
+        <v>2.254020364489406e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.228311674594806e-09</v>
+        <v>0.0001212905626744032</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.317660980326707e-09</v>
+        <v>0.0005597843555733562</v>
       </c>
       <c r="CN12" t="n">
-        <v>7.007324720476049e-10</v>
+        <v>0.0003407874319236726</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.13466644360949e-09</v>
+        <v>0.0001799390447558835</v>
       </c>
       <c r="CP12" t="n">
-        <v>4.981617784949322e-09</v>
+        <v>0.0009861924918368459</v>
       </c>
       <c r="CQ12" t="n">
-        <v>2.53414400575025e-10</v>
+        <v>0.0004604209680110216</v>
       </c>
       <c r="CR12" t="n">
-        <v>5.007313674809666e-09</v>
+        <v>0.000577980768866837</v>
       </c>
       <c r="CS12" t="n">
-        <v>7.500695620166198e-10</v>
+        <v>0.0003545236540958285</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.135466498602966e-09</v>
+        <v>0.000421284232288599</v>
       </c>
       <c r="CU12" t="n">
-        <v>2.348551353392736e-10</v>
+        <v>3.782297790166922e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>1.735267041169664e-09</v>
+        <v>0.000202751369215548</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.780972369580525e-09</v>
+        <v>0.0004778743896167725</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.14639886472645e-09</v>
+        <v>0.0002277311577927321</v>
       </c>
       <c r="CY12" t="n">
-        <v>2.347279259851121e-09</v>
+        <v>0.00028971181018278</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.547206474050711e-09</v>
+        <v>0.000153517205035314</v>
       </c>
       <c r="DA12" t="n">
-        <v>1.184519704544584e-09</v>
+        <v>0.0001929723657667637</v>
       </c>
       <c r="DB12" t="n">
-        <v>2.863080328374679e-10</v>
+        <v>0.0002833851904142648</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.943669891701916e-09</v>
+        <v>2.364466490689665e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>1.470036425921251e-09</v>
+        <v>7.220146653708071e-05</v>
       </c>
       <c r="DE12" t="n">
-        <v>5.075261100273565e-09</v>
+        <v>0.0002266386582050472</v>
       </c>
       <c r="DF12" t="n">
-        <v>4.885292170797584e-09</v>
+        <v>0.0006044814363121986</v>
       </c>
       <c r="DG12" t="n">
-        <v>2.194027182156333e-09</v>
+        <v>4.969260044163093e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>4.918577212187358e-10</v>
+        <v>0.001015933463349938</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.092113899314739e-10</v>
+        <v>0.000207391640287824</v>
       </c>
       <c r="DJ12" t="n">
-        <v>4.172452605644139e-09</v>
+        <v>0.0002075726224575192</v>
       </c>
       <c r="DK12" t="n">
-        <v>2.198830895139281e-09</v>
+        <v>0.0002410963352303952</v>
       </c>
       <c r="DL12" t="n">
-        <v>6.021039222758873e-09</v>
+        <v>7.893634028732777e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>1.141236327661943e-09</v>
+        <v>0.000138752264319919</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.111540998133265e-10</v>
+        <v>0.000351287453668192</v>
       </c>
       <c r="DO12" t="n">
-        <v>2.385158737183701e-10</v>
+        <v>0.0002654538548085839</v>
       </c>
       <c r="DP12" t="n">
-        <v>8.29172175365045e-10</v>
+        <v>0.0002829888835549355</v>
       </c>
       <c r="DQ12" t="n">
-        <v>3.168113105189718e-09</v>
+        <v>0.0003410667704883963</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.040644015404268e-09</v>
+        <v>0.0005416690255515277</v>
       </c>
       <c r="DS12" t="n">
-        <v>2.984987590437527e-09</v>
+        <v>0.000205097661819309</v>
       </c>
       <c r="DT12" t="n">
-        <v>9.458981375942699e-10</v>
+        <v>9.261707600671798e-05</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.119771830815353e-09</v>
+        <v>3.088112862315029e-06</v>
       </c>
       <c r="DV12" t="n">
-        <v>2.278050637016804e-09</v>
+        <v>0.0001891386054921895</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.453835468152477e-10</v>
+        <v>4.806213837582618e-05</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.271323712970229e-09</v>
+        <v>5.112467988510616e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>8.081944558036014e-10</v>
+        <v>0.0004314797988627106</v>
       </c>
       <c r="DZ12" t="n">
-        <v>3.201049425527458e-09</v>
+        <v>0.0003570763510651886</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.81193016146608e-09</v>
+        <v>0.0004205647273920476</v>
       </c>
       <c r="EB12" t="n">
-        <v>6.09531425332932e-10</v>
+        <v>0.0001148290539276786</v>
       </c>
       <c r="EC12" t="n">
-        <v>1.788369341504392e-09</v>
+        <v>0.0001853142020991072</v>
       </c>
       <c r="ED12" t="n">
-        <v>1.136233884757587e-09</v>
+        <v>0.0001537658972665668</v>
       </c>
       <c r="EE12" t="n">
-        <v>2.673812282694144e-09</v>
+        <v>4.068774433108047e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>2.723158809558868e-09</v>
+        <v>9.758839587448165e-05</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.108575619137355e-10</v>
+        <v>0.0002531989011913538</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.19650578334074e-09</v>
+        <v>5.858272925252095e-05</v>
       </c>
       <c r="EI12" t="n">
-        <v>4.340197978791593e-09</v>
+        <v>0.0001966168492799625</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.528473458911606e-09</v>
+        <v>0.000460567040136084</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.815213535039106e-09</v>
+        <v>0.000119413118227385</v>
       </c>
       <c r="EL12" t="n">
-        <v>5.46869660666971e-10</v>
+        <v>0.0005241149920038879</v>
       </c>
       <c r="EM12" t="n">
-        <v>1.752417100320258e-09</v>
+        <v>0.0001400956971338019</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.09463238473495e-09</v>
+        <v>4.504287790041417e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>8.965651554504461e-10</v>
+        <v>0.000215547886909917</v>
       </c>
       <c r="EP12" t="n">
-        <v>4.236257455936254e-10</v>
+        <v>0.0005155857652425766</v>
       </c>
       <c r="EQ12" t="n">
-        <v>3.383600066797499e-10</v>
+        <v>7.261784048750997e-05</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.009746397606648e-09</v>
+        <v>0.0002486092562321573</v>
       </c>
       <c r="ES12" t="n">
-        <v>6.765779048123477e-10</v>
+        <v>9.302239050157368e-06</v>
       </c>
       <c r="ET12" t="n">
-        <v>4.851613000234067e-10</v>
+        <v>0.0006463811732828617</v>
       </c>
       <c r="EU12" t="n">
-        <v>4.665438035900138e-10</v>
+        <v>0.000454596389317885</v>
       </c>
       <c r="EV12" t="n">
-        <v>4.114814045053095e-11</v>
+        <v>0.0001733250683173537</v>
       </c>
       <c r="EW12" t="n">
-        <v>5.969666427851905e-10</v>
+        <v>1.404167414875701e-05</v>
       </c>
       <c r="EX12" t="n">
-        <v>1.408976491035219e-09</v>
+        <v>0.0001148528317571618</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.130750826305871e-09</v>
+        <v>0.0004890586133114994</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.301674212861315e-09</v>
+        <v>8.178557618521154e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>1.752439415803053e-09</v>
+        <v>0.0002846560964826494</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.928142756568718e-09</v>
+        <v>7.581427053082734e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>1.232764335057368e-09</v>
+        <v>0.0002605763729661703</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.604866239901526e-11</v>
+        <v>0.0002925499866250902</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.660097947997485e-09</v>
+        <v>2.928785397671163e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>7.925392564445133e-10</v>
+        <v>0.0001174596109194681</v>
       </c>
       <c r="FG12" t="n">
-        <v>2.647658758903049e-09</v>
+        <v>1.185275323223323e-06</v>
       </c>
       <c r="FH12" t="n">
-        <v>2.188978553974152e-09</v>
+        <v>9.179512562695891e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>4.765770000858538e-10</v>
+        <v>0.0001918741327244788</v>
       </c>
       <c r="FJ12" t="n">
-        <v>8.109715676773988e-10</v>
+        <v>0.0005453608464449644</v>
       </c>
       <c r="FK12" t="n">
-        <v>3.26823146323818e-09</v>
+        <v>0.0002531186328269541</v>
       </c>
       <c r="FL12" t="n">
-        <v>5.576287875896924e-09</v>
+        <v>0.0001646287855692208</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.050009523773099e-10</v>
+        <v>0.0002338338526897132</v>
       </c>
       <c r="FN12" t="n">
-        <v>4.751147475445805e-09</v>
+        <v>7.837361772544682e-05</v>
       </c>
       <c r="FO12" t="n">
-        <v>3.859963459973415e-09</v>
+        <v>8.094495569821447e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.566892171567247e-09</v>
+        <v>7.181227556429803e-05</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.36612920975665e-09</v>
+        <v>0.0002032538031926379</v>
       </c>
       <c r="FR12" t="n">
-        <v>2.271401733366929e-09</v>
+        <v>2.384378603892401e-06</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.830091633792108e-12</v>
+        <v>0.0004299432621337473</v>
       </c>
       <c r="FT12" t="n">
-        <v>8.087523539757058e-09</v>
+        <v>0.0005995272658765316</v>
       </c>
       <c r="FU12" t="n">
-        <v>3.932644432325105e-09</v>
+        <v>0.0001150105381384492</v>
       </c>
       <c r="FV12" t="n">
-        <v>1.630283241738084e-09</v>
+        <v>0.0005553175578825176</v>
       </c>
       <c r="FW12" t="n">
-        <v>3.090572242570033e-09</v>
+        <v>0.0003533823473844677</v>
       </c>
       <c r="FX12" t="n">
-        <v>1.932812354610292e-09</v>
+        <v>0.0002158790011890233</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.899879809030836e-09</v>
+        <v>0.0004911751602776349</v>
       </c>
       <c r="FZ12" t="n">
-        <v>5.502475808327745e-09</v>
+        <v>0.000207798948395066</v>
       </c>
       <c r="GA12" t="n">
-        <v>7.461702367095313e-10</v>
+        <v>0.0001099933360819705</v>
       </c>
       <c r="GB12" t="n">
-        <v>4.290348631919016e-11</v>
+        <v>5.927006350248121e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>2.639269025550561e-09</v>
+        <v>0.0005454639904201031</v>
       </c>
       <c r="GD12" t="n">
-        <v>2.376774554946337e-09</v>
+        <v>0.000295474601443857</v>
       </c>
       <c r="GE12" t="n">
-        <v>1.356825651832594e-09</v>
+        <v>0.0008791518630459905</v>
       </c>
       <c r="GF12" t="n">
-        <v>3.935729075976724e-09</v>
+        <v>0.000195158994756639</v>
       </c>
       <c r="GG12" t="n">
-        <v>2.297870338452412e-09</v>
+        <v>9.395385859534144e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.153656391281402e-06</v>
+        <v>0.01403607614338398</v>
       </c>
       <c r="B13" t="n">
-        <v>6.31379516562447e-05</v>
+        <v>0.1087360754609108</v>
       </c>
       <c r="C13" t="n">
-        <v>5.864174454472959e-06</v>
+        <v>0.009872120805084705</v>
       </c>
       <c r="D13" t="n">
-        <v>5.32823869434651e-05</v>
+        <v>0.0318862721323967</v>
       </c>
       <c r="E13" t="n">
-        <v>1.778882142389193e-05</v>
+        <v>0.005812914576381445</v>
       </c>
       <c r="F13" t="n">
-        <v>4.85333794131293e-06</v>
+        <v>0.09154751151800156</v>
       </c>
       <c r="G13" t="n">
-        <v>2.104442501149606e-06</v>
+        <v>0.01303956285119057</v>
       </c>
       <c r="H13" t="n">
-        <v>7.263241968757939e-06</v>
+        <v>0.04997906088829041</v>
       </c>
       <c r="I13" t="n">
-        <v>2.598998207758996e-06</v>
+        <v>0.01224696822464466</v>
       </c>
       <c r="J13" t="n">
-        <v>5.210929430177202e-07</v>
+        <v>0.02567052468657494</v>
       </c>
       <c r="K13" t="n">
-        <v>6.359098915709183e-05</v>
+        <v>0.1025001779198647</v>
       </c>
       <c r="L13" t="n">
-        <v>6.23615960648749e-07</v>
+        <v>0.00768771581351757</v>
       </c>
       <c r="M13" t="n">
-        <v>4.623737186193466e-05</v>
+        <v>0.02385265566408634</v>
       </c>
       <c r="N13" t="n">
-        <v>4.977358003088739e-06</v>
+        <v>0.02538271248340607</v>
       </c>
       <c r="O13" t="n">
-        <v>1.78489742097554e-07</v>
+        <v>0.07474207878112793</v>
       </c>
       <c r="P13" t="n">
-        <v>2.797744855342899e-06</v>
+        <v>0.01071706600487232</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.174714543594746e-05</v>
+        <v>0.01658857986330986</v>
       </c>
       <c r="R13" t="n">
-        <v>1.402812267770059e-05</v>
+        <v>0.02232781425118446</v>
       </c>
       <c r="S13" t="n">
-        <v>3.191907580912812e-06</v>
+        <v>0.002188296755775809</v>
       </c>
       <c r="T13" t="n">
-        <v>5.922828677284997e-06</v>
+        <v>0.001386119751259685</v>
       </c>
       <c r="U13" t="n">
-        <v>1.753350147737365e-06</v>
+        <v>0.003878438379615545</v>
       </c>
       <c r="V13" t="n">
-        <v>6.042744644219056e-06</v>
+        <v>0.01388610620051622</v>
       </c>
       <c r="W13" t="n">
-        <v>2.611954005260486e-05</v>
+        <v>0.0287920106202364</v>
       </c>
       <c r="X13" t="n">
-        <v>1.309735353061114e-06</v>
+        <v>0.01796527579426765</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.970651156734675e-06</v>
+        <v>0.005184810608625412</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.085724645439768e-06</v>
+        <v>0.01652464270591736</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.104467287404987e-06</v>
+        <v>0.01113217324018478</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.898819836147595e-06</v>
+        <v>0.001230922061949968</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.568437816487858e-06</v>
+        <v>0.0009169727563858032</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.18624848255422e-06</v>
+        <v>0.003397394437342882</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.901032555906568e-05</v>
+        <v>0.007392512634396553</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.951720373152057e-06</v>
+        <v>0.01863095909357071</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.121622497332282e-06</v>
+        <v>0.01676213182508945</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.321967142255744e-06</v>
+        <v>0.001810025656595826</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.31623505189782e-06</v>
+        <v>0.005952771287411451</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.169626208749833e-06</v>
+        <v>0.0001590067404322326</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.92404080129927e-06</v>
+        <v>0.01688608527183533</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.038253139995504e-05</v>
+        <v>0.00443194480612874</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.964612682873849e-06</v>
+        <v>0.005324836820363998</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.186854650673922e-06</v>
+        <v>0.01016936637461185</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.056743596767774e-06</v>
+        <v>0.0004680064739659429</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.977452368213562e-06</v>
+        <v>0.01388103980571032</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7.615048502884747e-07</v>
+        <v>0.003631269093602896</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.70623592971242e-06</v>
+        <v>0.007715517189353704</v>
       </c>
       <c r="AS13" t="n">
-        <v>6.479364856204484e-06</v>
+        <v>0.006535529624670744</v>
       </c>
       <c r="AT13" t="n">
-        <v>8.640843589091673e-06</v>
+        <v>0.003387823700904846</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.96095565520227e-05</v>
+        <v>0.05936626344919205</v>
       </c>
       <c r="AV13" t="n">
-        <v>8.414917829213664e-08</v>
+        <v>0.004973194096237421</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.000432166620158e-05</v>
+        <v>0.01372963190078735</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.102951152162859e-06</v>
+        <v>0.0004181732074357569</v>
       </c>
       <c r="AY13" t="n">
-        <v>2.765728822851088e-06</v>
+        <v>0.04951106011867523</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8.80751213117037e-06</v>
+        <v>0.02261560782790184</v>
       </c>
       <c r="BA13" t="n">
-        <v>5.741351742472034e-06</v>
+        <v>0.009244000539183617</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.766558736766456e-06</v>
+        <v>0.01534429378807545</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.395772182557266e-06</v>
+        <v>0.003519448451697826</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.161603267973987e-05</v>
+        <v>0.04341525584459305</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.501257429481484e-07</v>
+        <v>0.02664756029844284</v>
       </c>
       <c r="BF13" t="n">
-        <v>2.598451465019025e-05</v>
+        <v>0.004769529215991497</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.801674216039828e-06</v>
+        <v>0.001704132184386253</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.105397223000182e-05</v>
+        <v>0.01958558335900307</v>
       </c>
       <c r="BI13" t="n">
-        <v>9.038432835950516e-06</v>
+        <v>0.009477830491960049</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2.712647528824164e-08</v>
+        <v>0.001975198509171605</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.620131115487311e-05</v>
+        <v>0.01523694209754467</v>
       </c>
       <c r="BL13" t="n">
-        <v>5.797952326247469e-06</v>
+        <v>0.01233150251209736</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.251487537956564e-05</v>
+        <v>0.02458829432725906</v>
       </c>
       <c r="BN13" t="n">
-        <v>5.4771444411017e-06</v>
+        <v>0.01401076279580593</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.178344518848462e-06</v>
+        <v>0.005872976500540972</v>
       </c>
       <c r="BP13" t="n">
-        <v>5.110695383336861e-06</v>
+        <v>0.01579894870519638</v>
       </c>
       <c r="BQ13" t="n">
-        <v>9.070739906746894e-06</v>
+        <v>0.001984771806746721</v>
       </c>
       <c r="BR13" t="n">
-        <v>5.713418431696482e-06</v>
+        <v>0.0007309969514608383</v>
       </c>
       <c r="BS13" t="n">
-        <v>1.7830127490015e-06</v>
+        <v>0.004348226822912693</v>
       </c>
       <c r="BT13" t="n">
-        <v>1.675870066719654e-06</v>
+        <v>0.003565716790035367</v>
       </c>
       <c r="BU13" t="n">
-        <v>9.039839824254159e-06</v>
+        <v>0.0001008401159197092</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.484575295762625e-05</v>
+        <v>0.03962487354874611</v>
       </c>
       <c r="BW13" t="n">
-        <v>6.302343535935506e-06</v>
+        <v>0.007341212593019009</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.558497388032265e-05</v>
+        <v>0.006344819441437721</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.336640139015799e-06</v>
+        <v>0.003677638713270426</v>
       </c>
       <c r="BZ13" t="n">
-        <v>2.738695911830291e-06</v>
+        <v>0.02385694719851017</v>
       </c>
       <c r="CA13" t="n">
-        <v>7.786501555528957e-06</v>
+        <v>0.001736222067847848</v>
       </c>
       <c r="CB13" t="n">
-        <v>3.614092520365375e-06</v>
+        <v>0.00130320293828845</v>
       </c>
       <c r="CC13" t="n">
-        <v>7.091731731634354e-06</v>
+        <v>0.007794370874762535</v>
       </c>
       <c r="CD13" t="n">
-        <v>6.777351245546015e-06</v>
+        <v>0.002131649293005466</v>
       </c>
       <c r="CE13" t="n">
-        <v>1.417238854628522e-05</v>
+        <v>0.01738650724291801</v>
       </c>
       <c r="CF13" t="n">
-        <v>4.608401013683761e-06</v>
+        <v>0.01006383076310158</v>
       </c>
       <c r="CG13" t="n">
-        <v>8.574003004468977e-06</v>
+        <v>0.001714881509542465</v>
       </c>
       <c r="CH13" t="n">
-        <v>1.856085873441771e-06</v>
+        <v>0.0004250456113368273</v>
       </c>
       <c r="CI13" t="n">
-        <v>4.229032128932886e-06</v>
+        <v>0.01535584405064583</v>
       </c>
       <c r="CJ13" t="n">
-        <v>3.704001869664353e-07</v>
+        <v>0.007109561003744602</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.845322685767314e-07</v>
+        <v>0.008468830958008766</v>
       </c>
       <c r="CL13" t="n">
-        <v>1.063953050106647e-06</v>
+        <v>0.008198320865631104</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.007091213978129e-06</v>
+        <v>0.01716239750385284</v>
       </c>
       <c r="CN13" t="n">
-        <v>4.505225660977885e-06</v>
+        <v>0.02039799280464649</v>
       </c>
       <c r="CO13" t="n">
-        <v>3.03373894894321e-06</v>
+        <v>0.001041683135554194</v>
       </c>
       <c r="CP13" t="n">
-        <v>4.362295385362813e-06</v>
+        <v>0.02502284571528435</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1.063963645719923e-05</v>
+        <v>0.006543857045471668</v>
       </c>
       <c r="CR13" t="n">
-        <v>1.515690564701799e-05</v>
+        <v>0.005250866059213877</v>
       </c>
       <c r="CS13" t="n">
-        <v>1.241727545675531e-06</v>
+        <v>0.01752031408250332</v>
       </c>
       <c r="CT13" t="n">
-        <v>4.984801307728048e-06</v>
+        <v>0.01430705189704895</v>
       </c>
       <c r="CU13" t="n">
-        <v>3.743653678611736e-06</v>
+        <v>0.00564892590045929</v>
       </c>
       <c r="CV13" t="n">
-        <v>6.750633474439383e-06</v>
+        <v>0.001602161210030317</v>
       </c>
       <c r="CW13" t="n">
-        <v>1.329507722402923e-05</v>
+        <v>0.01521926932036877</v>
       </c>
       <c r="CX13" t="n">
-        <v>4.371133400127292e-06</v>
+        <v>0.009162822738289833</v>
       </c>
       <c r="CY13" t="n">
-        <v>1.014860026771203e-05</v>
+        <v>0.005520922131836414</v>
       </c>
       <c r="CZ13" t="n">
-        <v>2.305304178662482e-06</v>
+        <v>0.002823573537170887</v>
       </c>
       <c r="DA13" t="n">
-        <v>7.500809715565993e-07</v>
+        <v>0.01465258561074734</v>
       </c>
       <c r="DB13" t="n">
-        <v>2.863587269530399e-07</v>
+        <v>0.006756312679499388</v>
       </c>
       <c r="DC13" t="n">
-        <v>2.051534693237045e-06</v>
+        <v>0.01233868859708309</v>
       </c>
       <c r="DD13" t="n">
-        <v>1.70311307101656e-06</v>
+        <v>0.004990003071725368</v>
       </c>
       <c r="DE13" t="n">
-        <v>1.054470430972287e-05</v>
+        <v>0.001506091910414398</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.241506834048778e-05</v>
+        <v>0.007840557955205441</v>
       </c>
       <c r="DG13" t="n">
-        <v>1.158521990873851e-05</v>
+        <v>0.001175031764432788</v>
       </c>
       <c r="DH13" t="n">
-        <v>2.330086317670066e-06</v>
+        <v>0.05093200877308846</v>
       </c>
       <c r="DI13" t="n">
-        <v>8.939446161093656e-06</v>
+        <v>0.01605938374996185</v>
       </c>
       <c r="DJ13" t="n">
-        <v>3.433822030274314e-06</v>
+        <v>0.03327003121376038</v>
       </c>
       <c r="DK13" t="n">
-        <v>1.014435019897064e-05</v>
+        <v>0.009203291498124599</v>
       </c>
       <c r="DL13" t="n">
-        <v>1.259422242583241e-05</v>
+        <v>0.02255414798855782</v>
       </c>
       <c r="DM13" t="n">
-        <v>1.995529601117596e-06</v>
+        <v>0.02007914148271084</v>
       </c>
       <c r="DN13" t="n">
-        <v>6.791105079173576e-06</v>
+        <v>0.001297092414461076</v>
       </c>
       <c r="DO13" t="n">
-        <v>1.798770767891256e-06</v>
+        <v>0.008420102298259735</v>
       </c>
       <c r="DP13" t="n">
-        <v>4.048798018629896e-06</v>
+        <v>0.01665383204817772</v>
       </c>
       <c r="DQ13" t="n">
-        <v>2.742262950050645e-07</v>
+        <v>0.00962568074464798</v>
       </c>
       <c r="DR13" t="n">
-        <v>4.97618384542875e-06</v>
+        <v>0.0125831663608551</v>
       </c>
       <c r="DS13" t="n">
-        <v>4.804762738785939e-06</v>
+        <v>0.007278430741280317</v>
       </c>
       <c r="DT13" t="n">
-        <v>5.227611268310284e-07</v>
+        <v>0.002768032252788544</v>
       </c>
       <c r="DU13" t="n">
-        <v>1.185727455776941e-06</v>
+        <v>0.00284394365735352</v>
       </c>
       <c r="DV13" t="n">
-        <v>7.321536031668074e-06</v>
+        <v>0.003340921830385923</v>
       </c>
       <c r="DW13" t="n">
-        <v>2.519487907193252e-06</v>
+        <v>0.0002148924395442009</v>
       </c>
       <c r="DX13" t="n">
-        <v>6.810873856011312e-06</v>
+        <v>0.005813999101519585</v>
       </c>
       <c r="DY13" t="n">
-        <v>2.713068397497409e-06</v>
+        <v>0.002561195753514767</v>
       </c>
       <c r="DZ13" t="n">
-        <v>6.190475232870085e-06</v>
+        <v>0.003386253025382757</v>
       </c>
       <c r="EA13" t="n">
-        <v>1.325234734395053e-06</v>
+        <v>0.004285401664674282</v>
       </c>
       <c r="EB13" t="n">
-        <v>5.163524747331394e-06</v>
+        <v>0.01889926567673683</v>
       </c>
       <c r="EC13" t="n">
-        <v>1.896892172226217e-06</v>
+        <v>0.0004729956854134798</v>
       </c>
       <c r="ED13" t="n">
-        <v>7.15011310603586e-06</v>
+        <v>0.008531998842954636</v>
       </c>
       <c r="EE13" t="n">
-        <v>3.794265467149671e-06</v>
+        <v>0.01986522227525711</v>
       </c>
       <c r="EF13" t="n">
-        <v>4.600990905601066e-06</v>
+        <v>0.001458365470170975</v>
       </c>
       <c r="EG13" t="n">
-        <v>1.815404357330408e-05</v>
+        <v>0.0180673785507679</v>
       </c>
       <c r="EH13" t="n">
-        <v>3.749910320038907e-06</v>
+        <v>0.007562373764812946</v>
       </c>
       <c r="EI13" t="n">
-        <v>1.712582525215112e-05</v>
+        <v>0.003833804279565811</v>
       </c>
       <c r="EJ13" t="n">
-        <v>1.288486600969918e-05</v>
+        <v>0.003405505791306496</v>
       </c>
       <c r="EK13" t="n">
-        <v>4.417726358951768e-06</v>
+        <v>0.005042953882366419</v>
       </c>
       <c r="EL13" t="n">
-        <v>2.89586523649632e-07</v>
+        <v>0.004531074780970812</v>
       </c>
       <c r="EM13" t="n">
-        <v>2.498893991287332e-06</v>
+        <v>0.004329167772084475</v>
       </c>
       <c r="EN13" t="n">
-        <v>8.250874088844284e-06</v>
+        <v>0.005355229135602713</v>
       </c>
       <c r="EO13" t="n">
-        <v>7.402009032375645e-06</v>
+        <v>5.750847049057484e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>8.45732483867323e-06</v>
+        <v>0.01018342934548855</v>
       </c>
       <c r="EQ13" t="n">
-        <v>1.024930952553404e-06</v>
+        <v>0.001219599042087793</v>
       </c>
       <c r="ER13" t="n">
-        <v>9.598679753253236e-07</v>
+        <v>0.00647845771163702</v>
       </c>
       <c r="ES13" t="n">
-        <v>4.691398316936102e-06</v>
+        <v>0.00330467545427382</v>
       </c>
       <c r="ET13" t="n">
-        <v>1.101293491956312e-06</v>
+        <v>0.01559440046548843</v>
       </c>
       <c r="EU13" t="n">
-        <v>2.820531562974793e-06</v>
+        <v>0.01403280720114708</v>
       </c>
       <c r="EV13" t="n">
-        <v>8.735606229492987e-07</v>
+        <v>0.03752502799034119</v>
       </c>
       <c r="EW13" t="n">
-        <v>4.99870930070756e-06</v>
+        <v>0.008437143638730049</v>
       </c>
       <c r="EX13" t="n">
-        <v>5.738893378293142e-06</v>
+        <v>0.001241326332092285</v>
       </c>
       <c r="EY13" t="n">
-        <v>1.267108564206865e-05</v>
+        <v>0.01162684336304665</v>
       </c>
       <c r="EZ13" t="n">
-        <v>3.741952014024719e-06</v>
+        <v>0.005217673722654581</v>
       </c>
       <c r="FA13" t="n">
-        <v>9.948159458872396e-06</v>
+        <v>0.001022951444610953</v>
       </c>
       <c r="FB13" t="n">
-        <v>7.70395615745656e-07</v>
+        <v>0.001362217590212822</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.853445610322524e-06</v>
+        <v>0.01305970549583435</v>
       </c>
       <c r="FD13" t="n">
-        <v>5.867607342224801e-07</v>
+        <v>0.01183964870870113</v>
       </c>
       <c r="FE13" t="n">
-        <v>6.582535547750012e-07</v>
+        <v>0.009933061897754669</v>
       </c>
       <c r="FF13" t="n">
-        <v>1.590828787811915e-06</v>
+        <v>0.007736097555607557</v>
       </c>
       <c r="FG13" t="n">
-        <v>1.443202563677914e-06</v>
+        <v>0.00728378351777792</v>
       </c>
       <c r="FH13" t="n">
-        <v>8.200810043490492e-06</v>
+        <v>0.006905063055455685</v>
       </c>
       <c r="FI13" t="n">
-        <v>2.908808937718277e-06</v>
+        <v>0.003650485537946224</v>
       </c>
       <c r="FJ13" t="n">
-        <v>9.790081094251946e-06</v>
+        <v>0.01859870553016663</v>
       </c>
       <c r="FK13" t="n">
-        <v>5.069382496003527e-06</v>
+        <v>0.004107199143618345</v>
       </c>
       <c r="FL13" t="n">
-        <v>2.099513949360698e-06</v>
+        <v>0.004690754227340221</v>
       </c>
       <c r="FM13" t="n">
-        <v>8.429208264715271e-08</v>
+        <v>0.009594359435141087</v>
       </c>
       <c r="FN13" t="n">
-        <v>5.718977718061069e-07</v>
+        <v>0.004320805426687002</v>
       </c>
       <c r="FO13" t="n">
-        <v>1.107751450035721e-05</v>
+        <v>0.002876986283808947</v>
       </c>
       <c r="FP13" t="n">
-        <v>6.974749339860864e-06</v>
+        <v>0.009373394772410393</v>
       </c>
       <c r="FQ13" t="n">
-        <v>4.418016942508984e-06</v>
+        <v>0.01665741577744484</v>
       </c>
       <c r="FR13" t="n">
-        <v>4.560110937745776e-07</v>
+        <v>0.01119532994925976</v>
       </c>
       <c r="FS13" t="n">
-        <v>7.031517270661425e-06</v>
+        <v>0.006272909231483936</v>
       </c>
       <c r="FT13" t="n">
-        <v>4.662922947318293e-06</v>
+        <v>0.02406060695648193</v>
       </c>
       <c r="FU13" t="n">
-        <v>5.474706995300949e-06</v>
+        <v>0.01790121011435986</v>
       </c>
       <c r="FV13" t="n">
-        <v>3.900295268977061e-06</v>
+        <v>0.01367571391165257</v>
       </c>
       <c r="FW13" t="n">
-        <v>2.875965492421528e-06</v>
+        <v>0.007109038531780243</v>
       </c>
       <c r="FX13" t="n">
-        <v>8.917188097257167e-06</v>
+        <v>0.01225168071687222</v>
       </c>
       <c r="FY13" t="n">
-        <v>5.505681656359229e-06</v>
+        <v>0.01566393673419952</v>
       </c>
       <c r="FZ13" t="n">
-        <v>2.967251703012153e-06</v>
+        <v>0.008002376183867455</v>
       </c>
       <c r="GA13" t="n">
-        <v>3.557738637027796e-06</v>
+        <v>0.004916778765618801</v>
       </c>
       <c r="GB13" t="n">
-        <v>9.710707672638819e-06</v>
+        <v>0.00703592412173748</v>
       </c>
       <c r="GC13" t="n">
-        <v>3.823262431978947e-06</v>
+        <v>0.006633547134697437</v>
       </c>
       <c r="GD13" t="n">
-        <v>3.036516318388749e-06</v>
+        <v>0.00514977378770709</v>
       </c>
       <c r="GE13" t="n">
-        <v>6.27515692031011e-06</v>
+        <v>0.02742679789662361</v>
       </c>
       <c r="GF13" t="n">
-        <v>7.035655471554492e-06</v>
+        <v>0.005227140616625547</v>
       </c>
       <c r="GG13" t="n">
-        <v>5.173007593839429e-06</v>
+        <v>0.002243146300315857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.201870683675281e-10</v>
+        <v>0.0001124438422266394</v>
       </c>
       <c r="B14" t="n">
-        <v>1.529330662108919e-09</v>
+        <v>0.001633270061574876</v>
       </c>
       <c r="C14" t="n">
-        <v>6.720569933893472e-11</v>
+        <v>0.0001999466912820935</v>
       </c>
       <c r="D14" t="n">
-        <v>2.86579493469219e-09</v>
+        <v>0.0007824086351320148</v>
       </c>
       <c r="E14" t="n">
-        <v>1.679819283673112e-09</v>
+        <v>0.0004533594183158129</v>
       </c>
       <c r="F14" t="n">
-        <v>2.531021225937735e-10</v>
+        <v>0.0003194150340277702</v>
       </c>
       <c r="G14" t="n">
-        <v>5.238476319391339e-12</v>
+        <v>0.0001368434750474989</v>
       </c>
       <c r="H14" t="n">
-        <v>6.002716101960459e-10</v>
+        <v>3.44509280694183e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.29700822199186e-10</v>
+        <v>9.29358066059649e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.11660042323436e-10</v>
+        <v>0.0001406350929755718</v>
       </c>
       <c r="K14" t="n">
-        <v>1.398163140819975e-09</v>
+        <v>0.001209277426823974</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35584848903747e-10</v>
+        <v>6.119013414718211e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>3.040672158505231e-09</v>
+        <v>0.0006186060491017997</v>
       </c>
       <c r="N14" t="n">
-        <v>1.640667157687403e-09</v>
+        <v>0.0004673823423217982</v>
       </c>
       <c r="O14" t="n">
-        <v>9.677534329455284e-10</v>
+        <v>0.0003139000327792019</v>
       </c>
       <c r="P14" t="n">
-        <v>3.381889213116551e-11</v>
+        <v>0.0001151088072219864</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.228319833681326e-10</v>
+        <v>0.0003343450371176004</v>
       </c>
       <c r="R14" t="n">
-        <v>9.302412729006448e-10</v>
+        <v>4.012584759038873e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>3.713085394707605e-10</v>
+        <v>0.0001093601968022995</v>
       </c>
       <c r="T14" t="n">
-        <v>8.044701710341329e-11</v>
+        <v>0.0002507893950678408</v>
       </c>
       <c r="U14" t="n">
-        <v>8.925516575830628e-11</v>
+        <v>7.45756333344616e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>5.38540267935872e-10</v>
+        <v>0.0002249465032946318</v>
       </c>
       <c r="W14" t="n">
-        <v>1.786083170252084e-09</v>
+        <v>0.0001192779382108711</v>
       </c>
       <c r="X14" t="n">
-        <v>8.311608346023291e-11</v>
+        <v>0.000165527846547775</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.181731822454736e-10</v>
+        <v>0.0001442179782316089</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.81594106208172e-10</v>
+        <v>0.0001569322630530223</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.3012206563684e-11</v>
+        <v>0.0001083507740986533</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.040510562385862e-10</v>
+        <v>3.690541780088097e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.152492351026325e-10</v>
+        <v>1.024667835736182e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.981492275289099e-10</v>
+        <v>6.954604032216594e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.300518137625772e-09</v>
+        <v>2.926320121332537e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.601305837401924e-10</v>
+        <v>2.232531915069558e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.871133331083797e-10</v>
+        <v>5.023291305406019e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.348860409095437e-11</v>
+        <v>3.939608359360136e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.946990981944069e-11</v>
+        <v>0.0001700184657238424</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4.533504127657295e-10</v>
+        <v>1.693306148808915e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>9.07222186263823e-10</v>
+        <v>0.0002293517463840544</v>
       </c>
       <c r="AL14" t="n">
-        <v>2.398931886471445e-10</v>
+        <v>7.567298598587513e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.78598921447049e-11</v>
+        <v>1.901446557894815e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.959688463898829e-11</v>
+        <v>0.0001515022740932181</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.106721906982358e-10</v>
+        <v>0.0001833455316955224</v>
       </c>
       <c r="AP14" t="n">
-        <v>4.087631899629685e-10</v>
+        <v>0.0002024996792897582</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.206970634548554e-10</v>
+        <v>7.072739390423521e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.001637453534876e-10</v>
+        <v>0.0001285153848584741</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.089220935668322e-10</v>
+        <v>9.254550968762487e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.49835244211971e-09</v>
+        <v>2.995675458805636e-06</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.193496967921703e-09</v>
+        <v>0.001023946213535964</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.46401268780383e-10</v>
+        <v>1.654139850870706e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.54388432330677e-10</v>
+        <v>7.466782699339092e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.2609032706834e-09</v>
+        <v>1.839023752836511e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>2.567197010527877e-10</v>
+        <v>3.100684261880815e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1.615162031898265e-10</v>
+        <v>0.000128711893921718</v>
       </c>
       <c r="BA14" t="n">
-        <v>4.237453721245288e-10</v>
+        <v>0.0002675168216228485</v>
       </c>
       <c r="BB14" t="n">
-        <v>5.440282668800478e-10</v>
+        <v>6.9877210080449e-06</v>
       </c>
       <c r="BC14" t="n">
-        <v>5.395530550122984e-11</v>
+        <v>8.513337525073439e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>3.86066567603649e-10</v>
+        <v>0.0002193203690694645</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.628418038774782e-10</v>
+        <v>0.0003757904923986644</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.498790425102925e-09</v>
+        <v>0.0002467268786858767</v>
       </c>
       <c r="BG14" t="n">
-        <v>4.219678217953771e-10</v>
+        <v>0.0006003621965646744</v>
       </c>
       <c r="BH14" t="n">
-        <v>7.588378259093531e-10</v>
+        <v>0.0001528721040813252</v>
       </c>
       <c r="BI14" t="n">
-        <v>5.428574256782781e-10</v>
+        <v>8.364942914340645e-06</v>
       </c>
       <c r="BJ14" t="n">
-        <v>2.891035189023228e-10</v>
+        <v>0.0002783692034427077</v>
       </c>
       <c r="BK14" t="n">
-        <v>5.554789961337292e-10</v>
+        <v>1.539100412628613e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>6.781783468134961e-12</v>
+        <v>0.0001666660973569378</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.061443044569899e-09</v>
+        <v>0.0003119407629128546</v>
       </c>
       <c r="BN14" t="n">
-        <v>2.615846775300135e-11</v>
+        <v>0.0001014916488202289</v>
       </c>
       <c r="BO14" t="n">
-        <v>4.486553906168922e-10</v>
+        <v>8.99765745998593e-06</v>
       </c>
       <c r="BP14" t="n">
-        <v>5.364890198755745e-10</v>
+        <v>0.0002239066234324127</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.527054871441891e-10</v>
+        <v>0.0001634489017305896</v>
       </c>
       <c r="BR14" t="n">
-        <v>2.182099501091272e-10</v>
+        <v>8.574061212129891e-07</v>
       </c>
       <c r="BS14" t="n">
-        <v>4.606870995793599e-10</v>
+        <v>0.0001219090772792697</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.315287601055815e-10</v>
+        <v>5.334971137926914e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>1.377666980495462e-09</v>
+        <v>5.493127537192777e-05</v>
       </c>
       <c r="BV14" t="n">
-        <v>2.149410927021478e-10</v>
+        <v>0.0005452228942885995</v>
       </c>
       <c r="BW14" t="n">
-        <v>3.207558940676591e-10</v>
+        <v>0.0001814802380977198</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.151977624402889e-09</v>
+        <v>5.449262971524149e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>1.095592949695856e-09</v>
+        <v>3.369792011653772e-06</v>
       </c>
       <c r="BZ14" t="n">
-        <v>4.260074237816269e-10</v>
+        <v>0.0002064176223939285</v>
       </c>
       <c r="CA14" t="n">
-        <v>9.773547943181526e-11</v>
+        <v>0.000176181347342208</v>
       </c>
       <c r="CB14" t="n">
-        <v>3.803454218243019e-10</v>
+        <v>1.600620089448057e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>5.655391155379164e-10</v>
+        <v>6.048769591870951e-06</v>
       </c>
       <c r="CD14" t="n">
-        <v>4.571607814529699e-10</v>
+        <v>2.257598862343002e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.889435523125485e-10</v>
+        <v>0.0002724120568018407</v>
       </c>
       <c r="CF14" t="n">
-        <v>1.249983727635851e-10</v>
+        <v>9.851194045040756e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>4.94750962420909e-10</v>
+        <v>0.00010324932372896</v>
       </c>
       <c r="CH14" t="n">
-        <v>6.383321093927918e-10</v>
+        <v>6.908949580974877e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.297534024669034e-10</v>
+        <v>7.86297969170846e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>1.648270409049246e-11</v>
+        <v>6.300301902228966e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>3.038364559948548e-10</v>
+        <v>5.385726035456173e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>1.999187759782473e-10</v>
+        <v>7.79696274548769e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.324599874230614e-10</v>
+        <v>0.0003013892273884267</v>
       </c>
       <c r="CN14" t="n">
-        <v>3.128084735681824e-10</v>
+        <v>2.05561809707433e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>2.155358114208639e-10</v>
+        <v>9.883558959700167e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>9.19830767109886e-10</v>
+        <v>0.0001989957672776654</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.087840817426411e-09</v>
+        <v>0.0001801335311029106</v>
       </c>
       <c r="CR14" t="n">
-        <v>9.826911506749525e-10</v>
+        <v>0.000370112102245912</v>
       </c>
       <c r="CS14" t="n">
-        <v>1.581325764776764e-10</v>
+        <v>0.0001795457064872608</v>
       </c>
       <c r="CT14" t="n">
-        <v>5.450996320988111e-10</v>
+        <v>9.269330621464178e-05</v>
       </c>
       <c r="CU14" t="n">
-        <v>3.807391346644096e-10</v>
+        <v>0.0001601197145646438</v>
       </c>
       <c r="CV14" t="n">
-        <v>4.725401181460143e-10</v>
+        <v>1.195812365040183e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>5.418540061086219e-10</v>
+        <v>0.0002461670665070415</v>
       </c>
       <c r="CX14" t="n">
-        <v>6.2963897984325e-11</v>
+        <v>0.0001089155048248358</v>
       </c>
       <c r="CY14" t="n">
-        <v>3.981349139259294e-10</v>
+        <v>0.0001547034044051543</v>
       </c>
       <c r="CZ14" t="n">
-        <v>5.083040655051718e-10</v>
+        <v>5.773715383838862e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.620385770007005e-11</v>
+        <v>7.515306788263842e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>5.893463494999196e-11</v>
+        <v>8.201288437703624e-05</v>
       </c>
       <c r="DC14" t="n">
-        <v>2.957983302742662e-10</v>
+        <v>8.98138532647863e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>1.563116996949887e-10</v>
+        <v>5.775881436420605e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.272835947752071e-09</v>
+        <v>0.0001296056143473834</v>
       </c>
       <c r="DF14" t="n">
-        <v>1.16950127360127e-09</v>
+        <v>0.0004007472889497876</v>
       </c>
       <c r="DG14" t="n">
-        <v>2.238697838219394e-10</v>
+        <v>0.0001617125089978799</v>
       </c>
       <c r="DH14" t="n">
-        <v>2.389144715397862e-10</v>
+        <v>0.000501236179843545</v>
       </c>
       <c r="DI14" t="n">
-        <v>2.583573910364123e-10</v>
+        <v>1.12676734715933e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1.226877710536201e-09</v>
+        <v>0.0001175781872007065</v>
       </c>
       <c r="DK14" t="n">
-        <v>1.442194558221033e-10</v>
+        <v>5.990633144392632e-05</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.308565922286675e-09</v>
+        <v>3.857334377244115e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>5.146041370807097e-10</v>
+        <v>0.0001195987715618685</v>
       </c>
       <c r="DN14" t="n">
-        <v>2.459331627235883e-10</v>
+        <v>0.0001787299843272194</v>
       </c>
       <c r="DO14" t="n">
-        <v>5.424234672535277e-11</v>
+        <v>0.0001173968048533425</v>
       </c>
       <c r="DP14" t="n">
-        <v>9.352024710196361e-11</v>
+        <v>1.787524888641201e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>4.039759360363604e-10</v>
+        <v>6.774235953344032e-05</v>
       </c>
       <c r="DR14" t="n">
-        <v>7.439715510315636e-10</v>
+        <v>7.52125124563463e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.141427369288905e-10</v>
+        <v>8.965715824160725e-05</v>
       </c>
       <c r="DT14" t="n">
-        <v>1.587685399817573e-10</v>
+        <v>9.058813884621486e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.916826419812168e-11</v>
+        <v>0.0001212269926327281</v>
       </c>
       <c r="DV14" t="n">
-        <v>7.578086769211012e-11</v>
+        <v>8.026084105949849e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.053395148886693e-10</v>
+        <v>1.285023608943447e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>3.566605344396123e-10</v>
+        <v>0.0001091758240363561</v>
       </c>
       <c r="DY14" t="n">
-        <v>2.37227071320234e-10</v>
+        <v>0.0001785732456482947</v>
       </c>
       <c r="DZ14" t="n">
-        <v>3.368855472363208e-10</v>
+        <v>3.41023005603347e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>1.000424881825168e-10</v>
+        <v>0.0002021545951720327</v>
       </c>
       <c r="EB14" t="n">
-        <v>6.746174729954646e-10</v>
+        <v>5.242181941866875e-06</v>
       </c>
       <c r="EC14" t="n">
-        <v>1.587943110337164e-10</v>
+        <v>8.980993879958987e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>7.736828538940088e-11</v>
+        <v>3.795915108639747e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>4.78631301259469e-10</v>
+        <v>0.000161909352755174</v>
       </c>
       <c r="EF14" t="n">
-        <v>8.037050469589246e-10</v>
+        <v>0.0002130462089553475</v>
       </c>
       <c r="EG14" t="n">
-        <v>1.802290955366104e-10</v>
+        <v>0.0002707005478441715</v>
       </c>
       <c r="EH14" t="n">
-        <v>7.100962873263228e-11</v>
+        <v>0.0001267968764295802</v>
       </c>
       <c r="EI14" t="n">
-        <v>7.166140458814141e-10</v>
+        <v>9.304397826781496e-05</v>
       </c>
       <c r="EJ14" t="n">
-        <v>5.304422456831048e-10</v>
+        <v>8.9599983766675e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>1.373008512439711e-10</v>
+        <v>6.712778122164309e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>9.580961024546752e-12</v>
+        <v>9.970516839530319e-05</v>
       </c>
       <c r="EM14" t="n">
-        <v>2.050954267529548e-10</v>
+        <v>4.881913991994224e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>2.11858419696398e-10</v>
+        <v>2.598078390292358e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>2.92264296097855e-10</v>
+        <v>4.391715629026294e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>5.126594149196251e-10</v>
+        <v>0.000116809198516421</v>
       </c>
       <c r="EQ14" t="n">
-        <v>1.737051197325812e-10</v>
+        <v>0.0001001084019662812</v>
       </c>
       <c r="ER14" t="n">
-        <v>1.533608795512009e-10</v>
+        <v>7.904442463768646e-05</v>
       </c>
       <c r="ES14" t="n">
-        <v>6.53229026426061e-10</v>
+        <v>8.522830466972664e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>4.041054990633342e-11</v>
+        <v>5.522632272914052e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>1.164655871743747e-10</v>
+        <v>0.0001642115094000474</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.916099223731038e-11</v>
+        <v>5.002279431209899e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>6.539460639665151e-11</v>
+        <v>7.427381206071004e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>4.025139388463828e-10</v>
+        <v>4.543714749161154e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>4.705397738113959e-10</v>
+        <v>0.0002479884424246848</v>
       </c>
       <c r="EZ14" t="n">
-        <v>7.26811527629323e-11</v>
+        <v>8.651620009914041e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>4.06023992205462e-10</v>
+        <v>0.0001191378541989252</v>
       </c>
       <c r="FB14" t="n">
-        <v>6.360473814304157e-10</v>
+        <v>2.413440415693913e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>6.510122302350041e-11</v>
+        <v>7.914796151453629e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>2.829461664966004e-11</v>
+        <v>8.595063991378993e-05</v>
       </c>
       <c r="FE14" t="n">
-        <v>2.194144588241187e-10</v>
+        <v>6.052262324374169e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>2.209969707234194e-11</v>
+        <v>9.63918209890835e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>3.644290980098219e-10</v>
+        <v>0.0001044367527356371</v>
       </c>
       <c r="FH14" t="n">
-        <v>3.293888217736907e-10</v>
+        <v>5.215180499362759e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>7.248945194104905e-11</v>
+        <v>8.152725786203519e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>4.892690141922174e-10</v>
+        <v>0.0001864798250608146</v>
       </c>
       <c r="FK14" t="n">
-        <v>8.622312863693082e-10</v>
+        <v>0.0001815971336327493</v>
       </c>
       <c r="FL14" t="n">
-        <v>1.128596105459678e-09</v>
+        <v>0.0001706892799120396</v>
       </c>
       <c r="FM14" t="n">
-        <v>1.914580646800168e-11</v>
+        <v>0.0001007463797577657</v>
       </c>
       <c r="FN14" t="n">
-        <v>4.488555915838077e-10</v>
+        <v>7.222293061204255e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>5.167860583910056e-10</v>
+        <v>4.178054041403811e-06</v>
       </c>
       <c r="FP14" t="n">
-        <v>5.715173889697667e-10</v>
+        <v>0.0001145483402069658</v>
       </c>
       <c r="FQ14" t="n">
-        <v>5.427896465626247e-10</v>
+        <v>8.306595191243105e-06</v>
       </c>
       <c r="FR14" t="n">
-        <v>7.30832561135486e-10</v>
+        <v>0.0002839273365680128</v>
       </c>
       <c r="FS14" t="n">
-        <v>6.754348746973449e-10</v>
+        <v>7.040636774036102e-06</v>
       </c>
       <c r="FT14" t="n">
-        <v>1.046449704666941e-09</v>
+        <v>0.0002501684648450464</v>
       </c>
       <c r="FU14" t="n">
-        <v>2.150463487837762e-11</v>
+        <v>8.935244295571465e-06</v>
       </c>
       <c r="FV14" t="n">
-        <v>6.417390924218225e-12</v>
+        <v>6.698093784507364e-05</v>
       </c>
       <c r="FW14" t="n">
-        <v>5.972186634117804e-10</v>
+        <v>9.740761743159965e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>3.797158421026126e-10</v>
+        <v>0.0002025828580372036</v>
       </c>
       <c r="FY14" t="n">
-        <v>4.752588322887163e-10</v>
+        <v>0.0002013892080867663</v>
       </c>
       <c r="FZ14" t="n">
-        <v>8.860555622547395e-10</v>
+        <v>4.404429637361318e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>2.627064121796252e-10</v>
+        <v>3.908809594577178e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>3.104575208023874e-10</v>
+        <v>5.17638836754486e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>9.487903795957209e-10</v>
+        <v>0.0001545249397167936</v>
       </c>
       <c r="GD14" t="n">
-        <v>2.151884781476099e-10</v>
+        <v>0.0001349743688479066</v>
       </c>
       <c r="GE14" t="n">
-        <v>2.481155003675184e-10</v>
+        <v>0.0002520157722756267</v>
       </c>
       <c r="GF14" t="n">
-        <v>4.378049034414744e-10</v>
+        <v>9.75124494289048e-05</v>
       </c>
       <c r="GG14" t="n">
-        <v>8.053482880576723e-11</v>
+        <v>0.000206576703931205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.005369210615754128</v>
+        <v>0.03494318574666977</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003587955608963966</v>
+        <v>0.2568027079105377</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00652674026787281</v>
+        <v>0.09842588752508163</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009088567458093166</v>
+        <v>0.09082060307264328</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001922416500747204</v>
+        <v>0.01652312837541103</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0007873027352616191</v>
+        <v>0.05895711854100227</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0009643787052482367</v>
+        <v>0.008867204189300537</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004015020560473204</v>
+        <v>0.0464850515127182</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01493034884333611</v>
+        <v>0.05431710928678513</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003094426821917295</v>
+        <v>0.1142530590295792</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003817062824964523</v>
+        <v>0.2245977371931076</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009262816049158573</v>
+        <v>0.09179127961397171</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006597728002816439</v>
+        <v>0.1419716626405716</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0036899175029248</v>
+        <v>0.005370592698454857</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004988180007785559</v>
+        <v>0.04654005542397499</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0008547960314899683</v>
+        <v>0.04716670513153076</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.004579434171319008</v>
+        <v>0.06477448344230652</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01474412623792887</v>
+        <v>0.08006494492292404</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001058550435118377</v>
+        <v>0.01036641746759415</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0006558310706168413</v>
+        <v>0.05741884559392929</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003949974197894335</v>
+        <v>0.03068005293607712</v>
       </c>
       <c r="V15" t="n">
-        <v>0.005029842723160982</v>
+        <v>0.04214766249060631</v>
       </c>
       <c r="W15" t="n">
-        <v>0.006566866301000118</v>
+        <v>0.01846923679113388</v>
       </c>
       <c r="X15" t="n">
-        <v>0.003941866103559732</v>
+        <v>0.01370079070329666</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.003003975143656135</v>
+        <v>0.0008192993700504303</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.001387422671541572</v>
+        <v>0.01330837234854698</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.002130306791514158</v>
+        <v>0.02948497608304024</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001510993926785886</v>
+        <v>0.05350223183631897</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001276168506592512</v>
+        <v>0.05102772265672684</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0001245153835043311</v>
+        <v>0.01006294786930084</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.001376880332827568</v>
+        <v>0.001698387786746025</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.002971002832055092</v>
+        <v>0.002708869520574808</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.004348463844507933</v>
+        <v>0.003525363281369209</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.001597924740053713</v>
+        <v>0.01471503078937531</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.007882428355515003</v>
+        <v>0.00115263694897294</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.003875187365338206</v>
+        <v>0.01898290775716305</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.002050026319921017</v>
+        <v>0.01741647534072399</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.005469801835715771</v>
+        <v>0.04301922768354416</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.000851738266646862</v>
+        <v>0.0001939113717526197</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003425203263759613</v>
+        <v>0.03295940160751343</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.736899664858356e-05</v>
+        <v>0.02271086908876896</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.004822036251425743</v>
+        <v>0.05041303485631943</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.001323200296610594</v>
+        <v>0.02436891570687294</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0001849669788498431</v>
+        <v>0.01143833622336388</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.001008306397125125</v>
+        <v>0.02659420482814312</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0005593756213784218</v>
+        <v>0.06503108143806458</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.001804090337827802</v>
+        <v>0.1414822638034821</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.004880094900727272</v>
+        <v>0.03344548866152763</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.006104711443185806</v>
+        <v>0.01006081327795982</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.002140466589480639</v>
+        <v>0.0009060557931661606</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.005428193602710962</v>
+        <v>0.04606163501739502</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.001790333539247513</v>
+        <v>0.008164763450622559</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.002450831234455109</v>
+        <v>0.01523764804005623</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.003772879485040903</v>
+        <v>0.05727101489901543</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.00167105277068913</v>
+        <v>0.0700359046459198</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.00398872559890151</v>
+        <v>0.05032461509108543</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.002846221905201674</v>
+        <v>0.04405993968248367</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.002254789229482412</v>
+        <v>0.04554465413093567</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.001101858098991215</v>
+        <v>0.1561349332332611</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0002813568280544132</v>
+        <v>0.0400298535823822</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.0001566751743666828</v>
+        <v>0.02514874935150146</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0004281083238311112</v>
+        <v>0.1294440627098083</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.005145257338881493</v>
+        <v>0.01369185373187065</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0002883402921725065</v>
+        <v>0.04330501332879066</v>
       </c>
       <c r="BM15" t="n">
-        <v>1.068141136784106e-05</v>
+        <v>0.01303734444081783</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.004041053354740143</v>
+        <v>0.03764014318585396</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0007369018858298659</v>
+        <v>0.009822784923017025</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.001746295136399567</v>
+        <v>0.04555395245552063</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.0004951826995238662</v>
+        <v>0.01347743440419436</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.0007833432755433023</v>
+        <v>0.05509859323501587</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.003262673737481236</v>
+        <v>0.02736460231244564</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.002351757837459445</v>
+        <v>0.02424224652349949</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.002219163114205003</v>
+        <v>0.05777021497488022</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.002914241515100002</v>
+        <v>0.06635595858097076</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0003887246130034328</v>
+        <v>0.004631602205336094</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.005298045929521322</v>
+        <v>0.02471592649817467</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.002403275109827518</v>
+        <v>0.05766387656331062</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.000803209375590086</v>
+        <v>0.01556774415075779</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0003289533487986773</v>
+        <v>0.01848145574331284</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.00363526027649641</v>
+        <v>0.02759451232850552</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.008516968227922916</v>
+        <v>0.0570630244910717</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.001979439752176404</v>
+        <v>0.03255303576588631</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.002943984465673566</v>
+        <v>0.042939443141222</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.001299556577578187</v>
+        <v>0.01378081552684307</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.002246737014502287</v>
+        <v>0.02117042429745197</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.001349570695310831</v>
+        <v>0.03731071576476097</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.0001067480770871043</v>
+        <v>0.02543141506612301</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0005974662490189075</v>
+        <v>0.003727675415575504</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0007474233279936016</v>
+        <v>0.005766758695244789</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.001744124223478138</v>
+        <v>0.01352972816675901</v>
       </c>
       <c r="CM15" t="n">
-        <v>4.719407297670841e-05</v>
+        <v>0.007720625959336758</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.006260781548917294</v>
+        <v>0.003381127258762717</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.001411259174346924</v>
+        <v>0.007119919173419476</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.004904780071228743</v>
+        <v>0.007829655893146992</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.006122943013906479</v>
+        <v>0.06527624279260635</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.003546599531546235</v>
+        <v>0.006709508132189512</v>
       </c>
       <c r="CS15" t="n">
-        <v>4.279788117855787e-05</v>
+        <v>0.02758048474788666</v>
       </c>
       <c r="CT15" t="n">
-        <v>3.32808485836722e-06</v>
+        <v>0.02733047306537628</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0009571479167789221</v>
+        <v>0.02450166083872318</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.002346625551581383</v>
+        <v>0.02635145746171474</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.003643820993602276</v>
+        <v>0.04046443477272987</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.001451391959562898</v>
+        <v>0.006237007677555084</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.00232799956575036</v>
+        <v>0.01883348263800144</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.00176350399851799</v>
+        <v>0.02721097506582737</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0008579521672800183</v>
+        <v>0.01651804521679878</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0009257514611817896</v>
+        <v>0.0156053826212883</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0004387304943520576</v>
+        <v>0.003350947052240372</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.002099268604069948</v>
+        <v>0.01112892758101225</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.004972962662577629</v>
+        <v>0.01789113879203796</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.007213149219751358</v>
+        <v>0.1448971778154373</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.007140268571674824</v>
+        <v>0.006074516102671623</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.00202057184651494</v>
+        <v>0.01332692615687847</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.006664777174592018</v>
+        <v>0.0003764235880225897</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.0002230664103990421</v>
+        <v>0.08463684469461441</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.001708291238173842</v>
+        <v>0.03974441066384315</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.002038172446191311</v>
+        <v>0.01431789807975292</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001635273918509483</v>
+        <v>0.0169109795242548</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.000230893085245043</v>
+        <v>0.04733498767018318</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.001572982990182936</v>
+        <v>0.03058468736708164</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.001824808772653341</v>
+        <v>0.1185735762119293</v>
       </c>
       <c r="DQ15" t="n">
-        <v>1.084862742573023e-05</v>
+        <v>0.04721410572528839</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.001789373112842441</v>
+        <v>0.05869325622916222</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0002356113982386887</v>
+        <v>0.0369071327149868</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.0004382017068564892</v>
+        <v>6.272015161812305e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.001870222971774638</v>
+        <v>0.01378413382917643</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.002549853641539812</v>
+        <v>0.004541466012597084</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0004073790041729808</v>
+        <v>0.02098728716373444</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0001692589139565825</v>
+        <v>0.008773650042712688</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.001787317451089621</v>
+        <v>0.06602649390697479</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.001071772421710193</v>
+        <v>0.04378286376595497</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.001382928225211799</v>
+        <v>0.02581683918833733</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.001631831866689026</v>
+        <v>0.08368606865406036</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.001055601867847145</v>
+        <v>0.02154126949608326</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.0005747898831032217</v>
+        <v>0.04211214929819107</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.003828604938462377</v>
+        <v>0.02438989281654358</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.001936134416610003</v>
+        <v>0.050189308822155</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.003317648777738214</v>
+        <v>0.03352946788072586</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.0003648863348644227</v>
+        <v>0.0001269539352506399</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.003596017602831125</v>
+        <v>0.005280307494103909</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.001078771194443107</v>
+        <v>0.009450402110815048</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.0003978830936830491</v>
+        <v>0.01047143805772066</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0004112380556762218</v>
+        <v>0.0005744732916355133</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.00349066243506968</v>
+        <v>0.01875763759016991</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.002303072484210134</v>
+        <v>0.01798714324831963</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.002698255935683846</v>
+        <v>0.00446044746786356</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.001933339051902294</v>
+        <v>0.03332507610321045</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.004578630439937115</v>
+        <v>0.004599102772772312</v>
       </c>
       <c r="ER15" t="n">
-        <v>4.159315722063184e-05</v>
+        <v>0.02474150992929935</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.005243429914116859</v>
+        <v>0.01834310032427311</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0004209053877275437</v>
+        <v>0.001724839326925576</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.0003625518875196576</v>
+        <v>0.04460279271006584</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0006640280480496585</v>
+        <v>0.02983934618532658</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.002562710316851735</v>
+        <v>0.00170029466971755</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.001909104757942259</v>
+        <v>0.02054281905293465</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.003355084918439388</v>
+        <v>0.05564869940280914</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.001702416688203812</v>
+        <v>0.01480082795023918</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.00164822128135711</v>
+        <v>0.0223697368055582</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.001562443212606013</v>
+        <v>0.01817759498953819</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0003460447769612074</v>
+        <v>0.01558137498795986</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0009686138946563005</v>
+        <v>0.02384990081191063</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.0004791172978002578</v>
+        <v>0.007026690989732742</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.00238517252728343</v>
+        <v>0.02454354614019394</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.0005231202230788767</v>
+        <v>0.001470913179218769</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.002194497035816312</v>
+        <v>0.03298581019043922</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.001382452785037458</v>
+        <v>0.009627423249185085</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.001890002633444965</v>
+        <v>0.0002094903029501438</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.001305193989537656</v>
+        <v>0.03406622633337975</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.000646341301035136</v>
+        <v>0.05530911311507225</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.001502991071902215</v>
+        <v>0.006014418788254261</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.002368346555158496</v>
+        <v>0.002938360907137394</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.0002522140566725284</v>
+        <v>0.02557847835123539</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.000665600411593914</v>
+        <v>0.1149787306785583</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.002160391304641962</v>
+        <v>0.04938660562038422</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.0006912737153470516</v>
+        <v>0.09746694564819336</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.002697802614420652</v>
+        <v>0.02831599675118923</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.002236543223261833</v>
+        <v>0.06092151626944542</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.0003111462283413857</v>
+        <v>0.05667600780725479</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.002301530446857214</v>
+        <v>0.04254664480686188</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.002878200262784958</v>
+        <v>0.0113258957862854</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.002223275136202574</v>
+        <v>0.03796681761741638</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.001924528041854501</v>
+        <v>0.04722126945853233</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.000385869963793084</v>
+        <v>0.009019334800541401</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.001638481742702425</v>
+        <v>0.006994926836341619</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0005164952017366886</v>
+        <v>0.02582068741321564</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.001334083965048194</v>
+        <v>0.05057394877076149</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.001992675242945552</v>
+        <v>0.05878428742289543</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.001847610110417008</v>
+        <v>0.05854736268520355</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.000858943909406662</v>
+        <v>0.0120912678539753</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.002851362340152264</v>
+        <v>0.007612193934619427</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0003702436224557459</v>
+        <v>0.003122250782325864</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0004787620855495334</v>
+        <v>0.001060692593455315</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004124994738958776</v>
+        <v>0.007656083442270756</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0006106927176006138</v>
+        <v>0.005461010150611401</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0008564843446947634</v>
+        <v>0.003796289674937725</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002098767552524805</v>
+        <v>0.001213032053783536</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001662214199313894</v>
+        <v>0.001409268355928361</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002718781121075153</v>
+        <v>0.001075378269888461</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0004299635766074061</v>
+        <v>0.0008759572519920766</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001117715801228769</v>
+        <v>0.003070877399295568</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001695003593340516</v>
+        <v>0.0008334156009368598</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006467443308793008</v>
+        <v>0.005654086824506521</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0005526914610527456</v>
+        <v>0.005805108696222305</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001181409461423755</v>
+        <v>0.0003965740324929357</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002164374571293592</v>
+        <v>0.001460616011172533</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0001793749397620559</v>
+        <v>0.0006061343592591584</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.002932851435616612</v>
+        <v>0.0005987468757666647</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0004252528015058488</v>
+        <v>0.002177402609959245</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0006572183920070529</v>
+        <v>0.0005092000355944037</v>
       </c>
       <c r="T16" t="n">
-        <v>7.686561730224639e-05</v>
+        <v>0.000808730605058372</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0001281513832509518</v>
+        <v>0.0008844350231811404</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0002609555667731911</v>
+        <v>0.001511476119048893</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0003232408780604601</v>
+        <v>0.001380833215080202</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0004075664910487831</v>
+        <v>3.854032911476679e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.066714048647555e-05</v>
+        <v>0.0008754830923862755</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0006247753626666963</v>
+        <v>0.001063671428710222</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.680906077846885e-05</v>
+        <v>0.0006529350066557527</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0001761282765073702</v>
+        <v>0.002263350877910852</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0001194034484797157</v>
+        <v>0.0006761293625459075</v>
       </c>
       <c r="AD16" t="n">
-        <v>4.76082059321925e-05</v>
+        <v>0.0004621455154847354</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0005977568216621876</v>
+        <v>0.001256722141988575</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0008988747140392661</v>
+        <v>0.001301085692830384</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0002189937949879095</v>
+        <v>3.854147507809103e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.000795879284851253</v>
+        <v>0.0002362725499551743</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0003644202370196581</v>
+        <v>0.001154929166659713</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.873248766059987e-05</v>
+        <v>0.001112639554776251</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0001344623742625117</v>
+        <v>0.000269665673840791</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0002659304591361433</v>
+        <v>0.0005133282393217087</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.0006527343648485839</v>
+        <v>0.000192754901945591</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.000119692602311261</v>
+        <v>0.0005950834602117538</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.001290829270146787</v>
+        <v>0.001645459095016122</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.880517270881683e-06</v>
+        <v>0.0004152668407186866</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4.170309330220334e-05</v>
+        <v>0.000952965347096324</v>
       </c>
       <c r="AR16" t="n">
-        <v>8.500223339069635e-05</v>
+        <v>3.734089114004746e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.0001102502428693697</v>
+        <v>0.0008430920424871147</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.000524593866430223</v>
+        <v>0.002087749540805817</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0008331683930009604</v>
+        <v>0.002392280614003539</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0001198086538352072</v>
+        <v>0.004890996497124434</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.072139902040362e-05</v>
+        <v>0.004608780611306429</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0005176787381060421</v>
+        <v>0.001374727580696344</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.001402237918227911</v>
+        <v>0.001872024615295231</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0001089863653760403</v>
+        <v>0.00108850235119462</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.0007662020507268608</v>
+        <v>0.001516596763394773</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.918589446693659e-05</v>
+        <v>0.00108018540777266</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0002956978569272906</v>
+        <v>0.002090901602059603</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0003370613558217883</v>
+        <v>0.002819298300892115</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.0003088288649450988</v>
+        <v>0.0005684290081262589</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.0006951094837859273</v>
+        <v>0.001553205773234367</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0005515904631465673</v>
+        <v>0.002512026578187943</v>
       </c>
       <c r="BH16" t="n">
-        <v>3.533790732035413e-06</v>
+        <v>0.002028004266321659</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.0004940619110129774</v>
+        <v>0.001509188557974994</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.0008481516852043569</v>
+        <v>0.001023142132908106</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.626183075131848e-05</v>
+        <v>0.001850210013799369</v>
       </c>
       <c r="BL16" t="n">
-        <v>7.332720269914716e-05</v>
+        <v>4.998083750251681e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0002954474766738713</v>
+        <v>0.001277611125260592</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.0002687465748749673</v>
+        <v>0.0003677065251395106</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.0001503252569818869</v>
+        <v>5.209622031543404e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>3.740719694178551e-05</v>
+        <v>0.001518260687589645</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.0003612726286519319</v>
+        <v>6.63605605950579e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.0004594467754941434</v>
+        <v>0.0004697596887126565</v>
       </c>
       <c r="BS16" t="n">
-        <v>9.231183503288776e-05</v>
+        <v>0.0009580436162650585</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.0001214491712744348</v>
+        <v>0.0006978156743571162</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.0001916125766001642</v>
+        <v>0.0002386866544838995</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0002990919456351548</v>
+        <v>0.001900976989418268</v>
       </c>
       <c r="BW16" t="n">
-        <v>8.661221363581717e-05</v>
+        <v>0.003323799464851618</v>
       </c>
       <c r="BX16" t="n">
-        <v>2.971428330056369e-07</v>
+        <v>0.002877789083868265</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.0003479776205495</v>
+        <v>0.001299850409850478</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.001241674064658582</v>
+        <v>0.000380291196051985</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.0002281614579260349</v>
+        <v>0.0003322979318909347</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.0008969271439127624</v>
+        <v>0.001488745445385575</v>
       </c>
       <c r="CC16" t="n">
-        <v>7.728219497948885e-05</v>
+        <v>0.0009230300784111023</v>
       </c>
       <c r="CD16" t="n">
-        <v>9.332389163319021e-05</v>
+        <v>0.00106175581458956</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.0001079772046068683</v>
+        <v>7.244714652188122e-06</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.0001739254803396761</v>
+        <v>0.001809147419407964</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.0002180716401198879</v>
+        <v>0.0006699205841869116</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0003481589374132454</v>
+        <v>0.0006641446962021291</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.0003984861250501126</v>
+        <v>7.216434460133314e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>3.818003460764885e-05</v>
+        <v>0.0005087422905489802</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.0004683239094447345</v>
+        <v>0.0004635545774362981</v>
       </c>
       <c r="CL16" t="n">
-        <v>2.251786463602912e-05</v>
+        <v>0.0002051609626505524</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.0004325166810303926</v>
+        <v>0.00259612943045795</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.0008038230007514358</v>
+        <v>0.003304267767816782</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.000451794418040663</v>
+        <v>2.019142266362906e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.0005315630696713924</v>
+        <v>0.0008568607154302299</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0001603635028004646</v>
+        <v>0.001625008648261428</v>
       </c>
       <c r="CR16" t="n">
-        <v>7.489472045563161e-05</v>
+        <v>0.001016316702589393</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.0002308644325239584</v>
+        <v>0.0006219534552656114</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.0004409844113979489</v>
+        <v>0.002745214384049177</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.000213028266443871</v>
+        <v>0.0002906001463998109</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.0001704942987998948</v>
+        <v>0.0008948736358433962</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.0001333945256192237</v>
+        <v>0.0005038253148086369</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.000223006762098521</v>
+        <v>0.001173877855762839</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.0001962367532541975</v>
+        <v>0.0008022409747354686</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.0003175527963321656</v>
+        <v>0.0002895636134780943</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.0004127193242311478</v>
+        <v>7.692736107856035e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>2.42545866058208e-05</v>
+        <v>0.0003966707154177129</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.0005520225968211889</v>
+        <v>0.0003665697295218706</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.247111504198983e-05</v>
+        <v>4.21343429479748e-07</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.001259464188478887</v>
+        <v>0.0009583803475834429</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.000505116069689393</v>
+        <v>0.003119503380730748</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.0005300137563608587</v>
+        <v>0.001678917673416436</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.0003243050014134496</v>
+        <v>0.001378182088956237</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.0001316431735176593</v>
+        <v>0.0007871136767789721</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.0005983479786664248</v>
+        <v>0.001084984396584332</v>
       </c>
       <c r="DK16" t="n">
-        <v>5.682118353433907e-05</v>
+        <v>0.002692441223189235</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0001375918800476938</v>
+        <v>0.0006629989948123693</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.0002610211668070406</v>
+        <v>0.0008871259051375091</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0002828642027452588</v>
+        <v>0.0001262039877474308</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.0003241917584091425</v>
+        <v>0.001375315245240927</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.0002623747277539223</v>
+        <v>0.001314122346229851</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.0001853876310633495</v>
+        <v>0.0004974527982994914</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.0005129481432959437</v>
+        <v>0.001970215933397412</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.0002352055162191391</v>
+        <v>0.001168207149021327</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.0003532982373144478</v>
+        <v>0.0007794973789714277</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.0001243057486135513</v>
+        <v>0.0003164805530104786</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.0003221739316359162</v>
+        <v>0.001872617402113974</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.0001485393877374008</v>
+        <v>1.020164927467704e-05</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.0001021730131469667</v>
+        <v>0.001850697910413146</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0003849950735457242</v>
+        <v>0.0003824403102044016</v>
       </c>
       <c r="DZ16" t="n">
-        <v>2.192774991272017e-05</v>
+        <v>0.000948938715737313</v>
       </c>
       <c r="EA16" t="n">
-        <v>5.290430271998048e-05</v>
+        <v>0.0004511073348112404</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.0001963300601346418</v>
+        <v>0.001958390465006232</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.0002438070077914745</v>
+        <v>0.0001484988024458289</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.0001009861734928563</v>
+        <v>0.0003882026067003608</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0001617742673261091</v>
+        <v>6.970565300434828e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.0005475370562635362</v>
+        <v>0.0004095276235602796</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.0007477495819330215</v>
+        <v>0.0009572376729920506</v>
       </c>
       <c r="EH16" t="n">
-        <v>1.247719137609238e-05</v>
+        <v>0.001785761676728725</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.0002340718056075275</v>
+        <v>0.002042160835117102</v>
       </c>
       <c r="EJ16" t="n">
-        <v>6.469977961387485e-05</v>
+        <v>0.0001105162518797442</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.0003785866138059646</v>
+        <v>0.0001222917053382844</v>
       </c>
       <c r="EL16" t="n">
-        <v>6.722050602547824e-05</v>
+        <v>0.0004798879963345826</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.0004477256152313203</v>
+        <v>2.475811197655275e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.0001261375145986676</v>
+        <v>0.0008002764079719782</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.0001245366875082254</v>
+        <v>0.0002538973931223154</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.0001058918933267705</v>
+        <v>0.001451458549126983</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.0002968870103359222</v>
+        <v>0.0008270229445770383</v>
       </c>
       <c r="ER16" t="n">
-        <v>9.721607784740627e-05</v>
+        <v>0.0008949736948125064</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.0003490583621896803</v>
+        <v>5.593829700956121e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.0001430111587978899</v>
+        <v>0.0003745655994862318</v>
       </c>
       <c r="EU16" t="n">
-        <v>7.661567360628396e-05</v>
+        <v>0.0002590344520285726</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.0006078729056753218</v>
+        <v>0.0002334390883333981</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.0002476077061146498</v>
+        <v>0.0007812709081918001</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.0001048590274876915</v>
+        <v>0.0008586136973462999</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.0001630441984161735</v>
+        <v>0.0005527847679331899</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.0002051002520602196</v>
+        <v>0.001489999471232295</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.0002763606607913971</v>
+        <v>0.0007714933017268777</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.0004626625741366297</v>
+        <v>0.0004671999777201563</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.0004371547547634691</v>
+        <v>6.272425525821745e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>3.397283580852672e-05</v>
+        <v>0.0002681765472516418</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.0005393147002905607</v>
+        <v>0.000126545928651467</v>
       </c>
       <c r="FF16" t="n">
-        <v>1.343736312264809e-05</v>
+        <v>0.0004837588348891586</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.000144354795338586</v>
+        <v>0.000891499686986208</v>
       </c>
       <c r="FH16" t="n">
-        <v>2.156776827177964e-05</v>
+        <v>0.001191430725157261</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.0004045583482366055</v>
+        <v>0.0002740856725722551</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.00029316934524104</v>
+        <v>0.001216256408952177</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.0001359128655167297</v>
+        <v>0.0008764463127590716</v>
       </c>
       <c r="FL16" t="n">
-        <v>6.651828880421817e-05</v>
+        <v>0.0008593687089160085</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.0002074535441352054</v>
+        <v>0.0005325847887434065</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.0001474403106840327</v>
+        <v>0.0007860485929995775</v>
       </c>
       <c r="FO16" t="n">
-        <v>7.335133705055341e-05</v>
+        <v>0.001215243013575673</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.000447962578618899</v>
+        <v>0.001198749872855842</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.0001096487831091508</v>
+        <v>0.001044598291628063</v>
       </c>
       <c r="FR16" t="n">
-        <v>9.123312338488176e-05</v>
+        <v>0.002317424630746245</v>
       </c>
       <c r="FS16" t="n">
-        <v>1.129384327214211e-05</v>
+        <v>0.0003934386768378317</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0004668015171773732</v>
+        <v>0.0001700753346085548</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.0006358788814395666</v>
+        <v>0.0004645233566407114</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.000393233698559925</v>
+        <v>0.000693847774527967</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.0002859540691133589</v>
+        <v>0.0004601848195306957</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.0001292908418690786</v>
+        <v>0.0006772388005629182</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.0001043117081280798</v>
+        <v>0.000175317152752541</v>
       </c>
       <c r="FZ16" t="n">
-        <v>6.902793393237516e-05</v>
+        <v>0.001093094935640693</v>
       </c>
       <c r="GA16" t="n">
-        <v>4.405836807563901e-05</v>
+        <v>0.0004586161812767386</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.0001265413302462548</v>
+        <v>0.0006318652885966003</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.0003128305543214083</v>
+        <v>0.00171164283528924</v>
       </c>
       <c r="GD16" t="n">
-        <v>7.584264676552266e-05</v>
+        <v>0.002241038018837571</v>
       </c>
       <c r="GE16" t="n">
-        <v>7.240801642183214e-05</v>
+        <v>0.0005824885447509587</v>
       </c>
       <c r="GF16" t="n">
-        <v>7.174081838456914e-05</v>
+        <v>0.0009909895015880466</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.000213922030525282</v>
+        <v>0.0001480994251323864</v>
       </c>
     </row>
   </sheetData>
